--- a/Doc/VX command set.xlsx
+++ b/Doc/VX command set.xlsx
@@ -15,8 +15,139 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not implemented yet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D34" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not implemented yet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not implemented yet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+not implemented yet</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D38" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+not implemented yet
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="85">
   <si>
     <t>Command</t>
   </si>
@@ -54,84 +185,9 @@
     <t>Sub-module</t>
   </si>
   <si>
-    <t>Enable the (cell) Modem</t>
-  </si>
-  <si>
-    <t>Disable the (cell) Modem</t>
-  </si>
-  <si>
-    <t>SR1</t>
-  </si>
-  <si>
-    <t>SR3</t>
-  </si>
-  <si>
-    <t>SR6</t>
-  </si>
-  <si>
-    <t>SR12</t>
-  </si>
-  <si>
-    <t>SR25</t>
-  </si>
-  <si>
-    <t>SR50</t>
-  </si>
-  <si>
-    <t>SR100</t>
-  </si>
-  <si>
-    <t>SR200</t>
-  </si>
-  <si>
-    <t>SR400</t>
-  </si>
-  <si>
-    <t>SR800</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 1HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 3HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 6HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 12HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 25HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 50HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 100HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 200HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 400HZ</t>
-  </si>
-  <si>
-    <t>Change the sample rate to 800HZ</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
-    <t>Re-initialize the Accelerometer</t>
-  </si>
-  <si>
-    <t>Re-initialize the CAN (STN)</t>
-  </si>
-  <si>
-    <t>Re-initialize the (Cell) Modem</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -168,9 +224,6 @@
     <t>Enable the 5V power supply</t>
   </si>
   <si>
-    <t>Enable the Host power port (requires VXPE5)</t>
-  </si>
-  <si>
     <t>Disable the 3V power supply</t>
   </si>
   <si>
@@ -189,47 +242,198 @@
     <t>Wakeup timer set for xxxxx seconds from now</t>
   </si>
   <si>
-    <t>Disable the Host power port (delay 30 seconds)</t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
-    <t>Device Information</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Device reset</t>
-  </si>
-  <si>
-    <t>Power state information</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
     <t>Wake up event query</t>
   </si>
   <si>
-    <t>Modem state information</t>
-  </si>
-  <si>
     <t>CAN state information</t>
+  </si>
+  <si>
+    <t>V2X Device Information</t>
+  </si>
+  <si>
+    <t>Accelerometer X axis offset (zero)</t>
+  </si>
+  <si>
+    <t>Accelerometer Y axis offset (zero)</t>
+  </si>
+  <si>
+    <t>Accelerometer Z axis offset (zero)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Restart the Accelerometer</t>
+  </si>
+  <si>
+    <t>Modem device information</t>
+  </si>
+  <si>
+    <t>Accelerometer device information</t>
+  </si>
+  <si>
+    <t>CANbus device information</t>
+  </si>
+  <si>
+    <t>Power state query</t>
+  </si>
+  <si>
+    <t>Whole system status query</t>
+  </si>
+  <si>
+    <t>V2X board reset</t>
+  </si>
+  <si>
+    <t>Disable the Modem</t>
+  </si>
+  <si>
+    <t>Enable the Modem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disable wakeup timers </t>
+  </si>
+  <si>
+    <t>Accelerometer state query</t>
+  </si>
+  <si>
+    <t>Modem state query</t>
+  </si>
+  <si>
+    <t>Restart the CAN</t>
+  </si>
+  <si>
+    <t>Rerestart the Modem</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Change the sample rate to xxx</t>
+  </si>
+  <si>
+    <t>Get single Accelerometer sample</t>
+  </si>
+  <si>
+    <t>Rxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set G-range </t>
+  </si>
+  <si>
+    <t>2, 4, 8, 16</t>
+  </si>
+  <si>
+    <t>1,3,6,12,25,50,100,200,400,800,1600,3200</t>
+  </si>
+  <si>
+    <t>Acceptable inputs</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>XYZT</t>
+  </si>
+  <si>
+    <t>Number confirmed</t>
+  </si>
+  <si>
+    <t>Description of device used</t>
+  </si>
+  <si>
+    <t>"ACL=x" 1=on 0=off</t>
+  </si>
+  <si>
+    <t>"CAN=x" 1=on 0=off</t>
+  </si>
+  <si>
+    <t>Specifies HW and SW revs</t>
+  </si>
+  <si>
+    <t>"OK"</t>
+  </si>
+  <si>
+    <t>Enable the Host power port</t>
+  </si>
+  <si>
+    <t>Disable the Host power port</t>
+  </si>
+  <si>
+    <t>Disable host with delay</t>
+  </si>
+  <si>
+    <t>x: seconds</t>
+  </si>
+  <si>
+    <t>DDx</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SIMCARD check</t>
+  </si>
+  <si>
+    <t>"SIMPWR=x, SIMNET=x" 1=on 0=off</t>
+  </si>
+  <si>
+    <t>"SIMCARD=x" 1=in 0=out</t>
+  </si>
+  <si>
+    <t>"3V3=x, 4V1=x, 5V0=x, HOST=x" 1=on 0=off</t>
+  </si>
+  <si>
+    <t>All other query results rolled into one</t>
+  </si>
+  <si>
+    <t>Xxxxx</t>
+  </si>
+  <si>
+    <t>Yxxxx</t>
+  </si>
+  <si>
+    <t>Zxxxx</t>
+  </si>
+  <si>
+    <t>Sxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -554,19 +758,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -576,8 +782,14 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>"VX"&amp;B2&amp;C2</f>
         <v>VXAD</v>
@@ -591,8 +803,15 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="str">
+        <f>"--"</f>
+        <v>--</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>"VX"&amp;B3&amp;C3</f>
         <v>VXAE</v>
@@ -606,203 +825,299 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" si="0">"--"</f>
+        <v>--</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>"VX"&amp;B4&amp;C4</f>
-        <v>VXAR</v>
+        <v>VXAI</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>"VX"&amp;B5&amp;C5</f>
-        <v>VXASR1</v>
+        <v>VXAQ</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>"VX"&amp;B6&amp;C6</f>
-        <v>VXASR100</v>
+        <v>VXAR</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>--</v>
+      </c>
+      <c r="F6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>"VX"&amp;B7&amp;C7</f>
-        <v>VXASR12</v>
+        <v>VXASxxxx</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>"VX"&amp;B8&amp;C8</f>
-        <v>VXASR200</v>
+        <v>VXAXxxxx</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E8" t="str">
+        <f>"-127 to 127"</f>
+        <v>-127 to 127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>"VX"&amp;B9&amp;C9</f>
-        <v>VXASR25</v>
+        <v>VXAYxxxx</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" ref="E9:E10" si="1">"-127 to 127"</f>
+        <v>-127 to 127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>"VX"&amp;B10&amp;C10</f>
-        <v>VXASR3</v>
+        <v>VXAZxxxx</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>-127 to 127</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>"VX"&amp;B11&amp;C11</f>
-        <v>VXASR400</v>
+        <f t="shared" ref="A11:A12" si="2">"VX"&amp;B11&amp;C11</f>
+        <v>VXAG</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ref="E11:E23" si="3">"--"</f>
+        <v>--</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>"VX"&amp;B12&amp;C12</f>
-        <v>VXASR50</v>
+        <f t="shared" si="2"/>
+        <v>VXARxx</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f>"VX"&amp;B13&amp;C13</f>
-        <v>VXASR6</v>
+        <v>VXCD</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f>"VX"&amp;B14&amp;C14</f>
-        <v>VXASR800</v>
+        <v>VXCE</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f>"VX"&amp;B15&amp;C15</f>
-        <v>VXCD</v>
+        <v>VXCI</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f>"VX"&amp;B16&amp;C16</f>
-        <v>VXCE</v>
+        <v>VXCQ</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f>"VX"&amp;B17&amp;C17</f>
         <v>VXCR</v>
@@ -811,281 +1126,434 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f>"VX"&amp;B18&amp;C18</f>
-        <v>VXMD</v>
+        <v>VXI</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>"VX"&amp;B19&amp;C19</f>
-        <v>VXME</v>
+        <v>VXMD</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>"VX"&amp;B20&amp;C20</f>
-        <v>VXMR</v>
+        <v>VXME</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>"VX"&amp;B21&amp;C21</f>
-        <v>VXPD3</v>
+        <v>VXMI</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>"VX"&amp;B22&amp;C22</f>
-        <v>VXPD4</v>
+        <v>VXMQ</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>"VX"&amp;B23&amp;C23</f>
-        <v>VXPD5</v>
+        <v>VXMR</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="str">
+        <f t="shared" si="3"/>
+        <v>--</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>"VX"&amp;B24&amp;C24</f>
-        <v>VXPDH</v>
+        <v>VXPD3</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>"VX"&amp;B25&amp;C25</f>
-        <v>VXPE3</v>
+        <v>VXPD4</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f>"VX"&amp;B26&amp;C26</f>
-        <v>VXPE4</v>
+        <v>VXPD5</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f>"VX"&amp;B27&amp;C27</f>
-        <v>VXPE5</v>
+        <v>VXPDH</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f>"VX"&amp;B28&amp;C28</f>
-        <v>VXPEH</v>
+        <v>VXPDDx</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f>"VX"&amp;B29&amp;C29</f>
+        <v>VXPE3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>"VX"&amp;B30&amp;C30</f>
+        <v>VXPE4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>"VX"&amp;B31&amp;C31</f>
+        <v>VXPE5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>"VX"&amp;B32&amp;C32</f>
+        <v>VXPEH</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>"VX"&amp;B33&amp;C33</f>
+        <v>VXPQ</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>"VX"&amp;B34&amp;C34</f>
+        <v>VXW</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>"VX"&amp;B35&amp;C35</f>
+        <v>VXQ</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>"VX"&amp;B36&amp;C36</f>
+        <v>VXTD</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>"VX"&amp;B37&amp;C37</f>
         <v>VXTWxxxxx</v>
       </c>
-      <c r="B29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="str">
-        <f t="shared" ref="A3:A35" si="0">"VX"&amp;B30&amp;C30</f>
-        <v>VXI</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="str">
-        <f t="shared" si="0"/>
-        <v>VXZ</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="str">
-        <f t="shared" si="0"/>
-        <v>VXPI</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="str">
-        <f t="shared" si="0"/>
-        <v>VXPW</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="str">
-        <f t="shared" si="0"/>
-        <v>VXMI</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="str">
-        <f t="shared" si="0"/>
-        <v>VXCI</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>"VX"&amp;B38&amp;C38</f>
+        <v>VXR</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f t="shared" ref="A39:A41" si="4">"VX"&amp;B39&amp;C39</f>
+        <v>VXS</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f t="shared" si="4"/>
+        <v>VX</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f t="shared" si="4"/>
+        <v>VX</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D29">
-    <sortCondition ref="A2:A29"/>
+  <sortState ref="A2:D45">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Doc/VX command set.xlsx
+++ b/Doc/VX command set.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="636" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="1236" windowWidth="15960" windowHeight="11964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="H41" authorId="0" shapeId="0">
+    <comment ref="H44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H63" authorId="0" shapeId="0">
+    <comment ref="H66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H71" authorId="0" shapeId="0">
+    <comment ref="H74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H78" authorId="0" shapeId="0">
+    <comment ref="H81" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="153">
   <si>
     <t>Command</t>
   </si>
@@ -530,6 +530,18 @@
   </si>
   <si>
     <t>Verbose communication (toggle)</t>
+  </si>
+  <si>
+    <t>Test GPS acquisition time</t>
+  </si>
+  <si>
+    <t>Stop GPS test</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Logical power down SIM chip</t>
   </si>
 </sst>
 </file>
@@ -1805,11 +1817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JA80"/>
+  <dimension ref="A1:JA83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1867,7 +1879,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="7" t="str">
-        <f>"VX"&amp;D2&amp;F2</f>
+        <f t="shared" ref="B2:B36" si="0">"VX"&amp;D2&amp;F2</f>
         <v>VXA?</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2151,7 +2163,7 @@
         <v>143</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f>"VX"&amp;D3&amp;F3</f>
+        <f t="shared" si="0"/>
         <v>VXAD</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -2188,7 +2200,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="7" t="str">
-        <f>"VX"&amp;D4&amp;F4</f>
+        <f t="shared" si="0"/>
         <v>VXAE</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -2225,7 +2237,7 @@
         <v>143</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>"VX"&amp;D5&amp;F5</f>
+        <f t="shared" si="0"/>
         <v>VXAF</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2261,7 +2273,7 @@
         <v>143</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>"VX"&amp;D6&amp;F6</f>
+        <f t="shared" si="0"/>
         <v>VXAG</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2298,7 +2310,7 @@
         <v>143</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>"VX"&amp;D7&amp;F7</f>
+        <f t="shared" si="0"/>
         <v>VXAI</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2335,7 +2347,7 @@
         <v>143</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>"VX"&amp;D8&amp;F8</f>
+        <f t="shared" si="0"/>
         <v>VXAQ</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2372,7 +2384,7 @@
         <v>143</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>"VX"&amp;D9&amp;F9</f>
+        <f t="shared" si="0"/>
         <v>VXAR</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -2409,7 +2421,7 @@
         <v>143</v>
       </c>
       <c r="B10" s="7" t="str">
-        <f>"VX"&amp;D10&amp;F10</f>
+        <f t="shared" si="0"/>
         <v>VXAWxx</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -2445,7 +2457,7 @@
         <v>143</v>
       </c>
       <c r="B11" s="7" t="str">
-        <f>"VX"&amp;D11&amp;F11</f>
+        <f t="shared" si="0"/>
         <v>VXASxxxx</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -2481,7 +2493,7 @@
         <v>143</v>
       </c>
       <c r="B12" s="7" t="str">
-        <f>"VX"&amp;D12&amp;F12</f>
+        <f t="shared" si="0"/>
         <v>VXAXxxxx</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -2518,7 +2530,7 @@
         <v>143</v>
       </c>
       <c r="B13" s="7" t="str">
-        <f>"VX"&amp;D13&amp;F13</f>
+        <f t="shared" si="0"/>
         <v>VXAYxxxx</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -2555,7 +2567,7 @@
         <v>143</v>
       </c>
       <c r="B14" s="7" t="str">
-        <f>"VX"&amp;D14&amp;F14</f>
+        <f t="shared" si="0"/>
         <v>VXAZxxxx</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2842,7 +2854,7 @@
         <v>143</v>
       </c>
       <c r="B15" s="7" t="str">
-        <f>"VX"&amp;D15&amp;F15</f>
+        <f t="shared" si="0"/>
         <v>VXA</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -3122,7 +3134,7 @@
         <v>143</v>
       </c>
       <c r="B16" s="7" t="str">
-        <f>"VX"&amp;D16&amp;F16</f>
+        <f t="shared" si="0"/>
         <v>VXC?</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -3404,7 +3416,7 @@
         <v>143</v>
       </c>
       <c r="B17" s="7" t="str">
-        <f>"VX"&amp;D17&amp;F17</f>
+        <f t="shared" si="0"/>
         <v>VXCA</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -3440,7 +3452,7 @@
         <v>143</v>
       </c>
       <c r="B18" s="7" t="str">
-        <f>"VX"&amp;D18&amp;F18</f>
+        <f t="shared" si="0"/>
         <v>VXCD</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -3477,7 +3489,7 @@
         <v>143</v>
       </c>
       <c r="B19" s="7" t="str">
-        <f>"VX"&amp;D19&amp;F19</f>
+        <f t="shared" si="0"/>
         <v>VXCE</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3514,7 +3526,7 @@
         <v>143</v>
       </c>
       <c r="B20" s="7" t="str">
-        <f>"VX"&amp;D20&amp;F20</f>
+        <f t="shared" si="0"/>
         <v>VXCI</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -3551,7 +3563,7 @@
         <v>143</v>
       </c>
       <c r="B21" s="7" t="str">
-        <f>"VX"&amp;D21&amp;F21</f>
+        <f t="shared" si="0"/>
         <v>VXCQ</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -3588,7 +3600,7 @@
         <v>143</v>
       </c>
       <c r="B22" s="7" t="str">
-        <f>"VX"&amp;D22&amp;F22</f>
+        <f t="shared" si="0"/>
         <v>VXCR</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3875,7 +3887,7 @@
         <v>143</v>
       </c>
       <c r="B23" s="7" t="str">
-        <f>"VX"&amp;D23&amp;F23</f>
+        <f t="shared" si="0"/>
         <v>VXCSttt</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -4159,7 +4171,7 @@
         <v>143</v>
       </c>
       <c r="B24" s="7" t="str">
-        <f>"VX"&amp;D24&amp;F24</f>
+        <f t="shared" si="0"/>
         <v>VXCW</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -4445,7 +4457,7 @@
         <v>143</v>
       </c>
       <c r="B25" s="7" t="str">
-        <f>"VX"&amp;D25&amp;F25</f>
+        <f t="shared" si="0"/>
         <v>VXCXttt</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -4729,7 +4741,7 @@
         <v>143</v>
       </c>
       <c r="B26" s="7" t="str">
-        <f>"VX"&amp;D26&amp;F26</f>
+        <f t="shared" si="0"/>
         <v>VXC</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -5009,7 +5021,7 @@
         <v>143</v>
       </c>
       <c r="B27" s="7" t="str">
-        <f>"VX"&amp;D27&amp;F27</f>
+        <f t="shared" si="0"/>
         <v>VXM?</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5293,7 +5305,7 @@
         <v>143</v>
       </c>
       <c r="B28" s="7" t="str">
-        <f>"VX"&amp;D28&amp;F28</f>
+        <f t="shared" si="0"/>
         <v>VXMD</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5330,7 +5342,7 @@
         <v>143</v>
       </c>
       <c r="B29" s="7" t="str">
-        <f>"VX"&amp;D29&amp;F29</f>
+        <f t="shared" si="0"/>
         <v>VXME</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -5617,7 +5629,7 @@
         <v>143</v>
       </c>
       <c r="B30" s="7" t="str">
-        <f>"VX"&amp;D30&amp;F30</f>
+        <f t="shared" si="0"/>
         <v>VXMG</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -5649,8 +5661,8 @@
         <v>143</v>
       </c>
       <c r="B31" s="7" t="str">
-        <f>"VX"&amp;D31&amp;F31</f>
-        <v>VXMI</v>
+        <f t="shared" ref="B31:B33" si="1">"VX"&amp;D31&amp;F31</f>
+        <v>VXMT</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>143</v>
@@ -5662,32 +5674,275 @@
         <v>143</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="2" t="str">
-        <f>"--"</f>
-        <v>--</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="6"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="6"/>
+      <c r="BN31" s="6"/>
+      <c r="BO31" s="6"/>
+      <c r="BP31" s="6"/>
+      <c r="BQ31" s="6"/>
+      <c r="BR31" s="6"/>
+      <c r="BS31" s="6"/>
+      <c r="BT31" s="6"/>
+      <c r="BU31" s="6"/>
+      <c r="BV31" s="6"/>
+      <c r="BW31" s="6"/>
+      <c r="BX31" s="6"/>
+      <c r="BY31" s="6"/>
+      <c r="BZ31" s="6"/>
+      <c r="CA31" s="6"/>
+      <c r="CB31" s="6"/>
+      <c r="CC31" s="6"/>
+      <c r="CD31" s="6"/>
+      <c r="CE31" s="6"/>
+      <c r="CF31" s="6"/>
+      <c r="CG31" s="6"/>
+      <c r="CH31" s="6"/>
+      <c r="CI31" s="6"/>
+      <c r="CJ31" s="6"/>
+      <c r="CK31" s="6"/>
+      <c r="CL31" s="6"/>
+      <c r="CM31" s="6"/>
+      <c r="CN31" s="6"/>
+      <c r="CO31" s="6"/>
+      <c r="CP31" s="6"/>
+      <c r="CQ31" s="6"/>
+      <c r="CR31" s="6"/>
+      <c r="CS31" s="6"/>
+      <c r="CT31" s="6"/>
+      <c r="CU31" s="6"/>
+      <c r="CV31" s="6"/>
+      <c r="CW31" s="6"/>
+      <c r="CX31" s="6"/>
+      <c r="CY31" s="6"/>
+      <c r="CZ31" s="6"/>
+      <c r="DA31" s="6"/>
+      <c r="DB31" s="6"/>
+      <c r="DC31" s="6"/>
+      <c r="DD31" s="6"/>
+      <c r="DE31" s="6"/>
+      <c r="DF31" s="6"/>
+      <c r="DG31" s="6"/>
+      <c r="DH31" s="6"/>
+      <c r="DI31" s="6"/>
+      <c r="DJ31" s="6"/>
+      <c r="DK31" s="6"/>
+      <c r="DL31" s="6"/>
+      <c r="DM31" s="6"/>
+      <c r="DN31" s="6"/>
+      <c r="DO31" s="6"/>
+      <c r="DP31" s="6"/>
+      <c r="DQ31" s="6"/>
+      <c r="DR31" s="6"/>
+      <c r="DS31" s="6"/>
+      <c r="DT31" s="6"/>
+      <c r="DU31" s="6"/>
+      <c r="DV31" s="6"/>
+      <c r="DW31" s="6"/>
+      <c r="DX31" s="6"/>
+      <c r="DY31" s="6"/>
+      <c r="DZ31" s="6"/>
+      <c r="EA31" s="6"/>
+      <c r="EB31" s="6"/>
+      <c r="EC31" s="6"/>
+      <c r="ED31" s="6"/>
+      <c r="EE31" s="6"/>
+      <c r="EF31" s="6"/>
+      <c r="EG31" s="6"/>
+      <c r="EH31" s="6"/>
+      <c r="EI31" s="6"/>
+      <c r="EJ31" s="6"/>
+      <c r="EK31" s="6"/>
+      <c r="EL31" s="6"/>
+      <c r="EM31" s="6"/>
+      <c r="EN31" s="6"/>
+      <c r="EO31" s="6"/>
+      <c r="EP31" s="6"/>
+      <c r="EQ31" s="6"/>
+      <c r="ER31" s="6"/>
+      <c r="ES31" s="6"/>
+      <c r="ET31" s="6"/>
+      <c r="EU31" s="6"/>
+      <c r="EV31" s="6"/>
+      <c r="EW31" s="6"/>
+      <c r="EX31" s="6"/>
+      <c r="EY31" s="6"/>
+      <c r="EZ31" s="6"/>
+      <c r="FA31" s="6"/>
+      <c r="FB31" s="6"/>
+      <c r="FC31" s="6"/>
+      <c r="FD31" s="6"/>
+      <c r="FE31" s="6"/>
+      <c r="FF31" s="6"/>
+      <c r="FG31" s="6"/>
+      <c r="FH31" s="6"/>
+      <c r="FI31" s="6"/>
+      <c r="FJ31" s="6"/>
+      <c r="FK31" s="6"/>
+      <c r="FL31" s="6"/>
+      <c r="FM31" s="6"/>
+      <c r="FN31" s="6"/>
+      <c r="FO31" s="6"/>
+      <c r="FP31" s="6"/>
+      <c r="FQ31" s="6"/>
+      <c r="FR31" s="6"/>
+      <c r="FS31" s="6"/>
+      <c r="FT31" s="6"/>
+      <c r="FU31" s="6"/>
+      <c r="FV31" s="6"/>
+      <c r="FW31" s="6"/>
+      <c r="FX31" s="6"/>
+      <c r="FY31" s="6"/>
+      <c r="FZ31" s="6"/>
+      <c r="GA31" s="6"/>
+      <c r="GB31" s="6"/>
+      <c r="GC31" s="6"/>
+      <c r="GD31" s="6"/>
+      <c r="GE31" s="6"/>
+      <c r="GF31" s="6"/>
+      <c r="GG31" s="6"/>
+      <c r="GH31" s="6"/>
+      <c r="GI31" s="6"/>
+      <c r="GJ31" s="6"/>
+      <c r="GK31" s="6"/>
+      <c r="GL31" s="6"/>
+      <c r="GM31" s="6"/>
+      <c r="GN31" s="6"/>
+      <c r="GO31" s="6"/>
+      <c r="GP31" s="6"/>
+      <c r="GQ31" s="6"/>
+      <c r="GR31" s="6"/>
+      <c r="GS31" s="6"/>
+      <c r="GT31" s="6"/>
+      <c r="GU31" s="6"/>
+      <c r="GV31" s="6"/>
+      <c r="GW31" s="6"/>
+      <c r="GX31" s="6"/>
+      <c r="GY31" s="6"/>
+      <c r="GZ31" s="6"/>
+      <c r="HA31" s="6"/>
+      <c r="HB31" s="6"/>
+      <c r="HC31" s="6"/>
+      <c r="HD31" s="6"/>
+      <c r="HE31" s="6"/>
+      <c r="HF31" s="6"/>
+      <c r="HG31" s="6"/>
+      <c r="HH31" s="6"/>
+      <c r="HI31" s="6"/>
+      <c r="HJ31" s="6"/>
+      <c r="HK31" s="6"/>
+      <c r="HL31" s="6"/>
+      <c r="HM31" s="6"/>
+      <c r="HN31" s="6"/>
+      <c r="HO31" s="6"/>
+      <c r="HP31" s="6"/>
+      <c r="HQ31" s="6"/>
+      <c r="HR31" s="6"/>
+      <c r="HS31" s="6"/>
+      <c r="HT31" s="6"/>
+      <c r="HU31" s="6"/>
+      <c r="HV31" s="6"/>
+      <c r="HW31" s="6"/>
+      <c r="HX31" s="6"/>
+      <c r="HY31" s="6"/>
+      <c r="HZ31" s="6"/>
+      <c r="IA31" s="6"/>
+      <c r="IB31" s="6"/>
+      <c r="IC31" s="6"/>
+      <c r="ID31" s="6"/>
+      <c r="IE31" s="6"/>
+      <c r="IF31" s="6"/>
+      <c r="IG31" s="6"/>
+      <c r="IH31" s="6"/>
+      <c r="II31" s="6"/>
+      <c r="IJ31" s="6"/>
+      <c r="IK31" s="6"/>
+      <c r="IL31" s="6"/>
+      <c r="IM31" s="6"/>
+      <c r="IN31" s="6"/>
+      <c r="IO31" s="6"/>
+      <c r="IP31" s="6"/>
+      <c r="IQ31" s="6"/>
+      <c r="IR31" s="6"/>
+      <c r="IS31" s="6"/>
+      <c r="IT31" s="6"/>
+      <c r="IU31" s="6"/>
+      <c r="IV31" s="6"/>
+      <c r="IW31" s="6"/>
+      <c r="IX31" s="6"/>
+      <c r="IY31" s="6"/>
+      <c r="IZ31" s="6"/>
+      <c r="JA31" s="6"/>
     </row>
     <row r="32" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B32" s="7" t="str">
-        <f>"VX"&amp;D32&amp;F32</f>
-        <v>VXMQ</v>
+        <f t="shared" si="1"/>
+        <v>VXMS</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>143</v>
@@ -5699,32 +5954,275 @@
         <v>143</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="2" t="str">
-        <f>"--"</f>
-        <v>--</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="6"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="6"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="6"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="6"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="6"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="6"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="6"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="6"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="6"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="6"/>
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="6"/>
+      <c r="BH32" s="6"/>
+      <c r="BI32" s="6"/>
+      <c r="BJ32" s="6"/>
+      <c r="BK32" s="6"/>
+      <c r="BL32" s="6"/>
+      <c r="BM32" s="6"/>
+      <c r="BN32" s="6"/>
+      <c r="BO32" s="6"/>
+      <c r="BP32" s="6"/>
+      <c r="BQ32" s="6"/>
+      <c r="BR32" s="6"/>
+      <c r="BS32" s="6"/>
+      <c r="BT32" s="6"/>
+      <c r="BU32" s="6"/>
+      <c r="BV32" s="6"/>
+      <c r="BW32" s="6"/>
+      <c r="BX32" s="6"/>
+      <c r="BY32" s="6"/>
+      <c r="BZ32" s="6"/>
+      <c r="CA32" s="6"/>
+      <c r="CB32" s="6"/>
+      <c r="CC32" s="6"/>
+      <c r="CD32" s="6"/>
+      <c r="CE32" s="6"/>
+      <c r="CF32" s="6"/>
+      <c r="CG32" s="6"/>
+      <c r="CH32" s="6"/>
+      <c r="CI32" s="6"/>
+      <c r="CJ32" s="6"/>
+      <c r="CK32" s="6"/>
+      <c r="CL32" s="6"/>
+      <c r="CM32" s="6"/>
+      <c r="CN32" s="6"/>
+      <c r="CO32" s="6"/>
+      <c r="CP32" s="6"/>
+      <c r="CQ32" s="6"/>
+      <c r="CR32" s="6"/>
+      <c r="CS32" s="6"/>
+      <c r="CT32" s="6"/>
+      <c r="CU32" s="6"/>
+      <c r="CV32" s="6"/>
+      <c r="CW32" s="6"/>
+      <c r="CX32" s="6"/>
+      <c r="CY32" s="6"/>
+      <c r="CZ32" s="6"/>
+      <c r="DA32" s="6"/>
+      <c r="DB32" s="6"/>
+      <c r="DC32" s="6"/>
+      <c r="DD32" s="6"/>
+      <c r="DE32" s="6"/>
+      <c r="DF32" s="6"/>
+      <c r="DG32" s="6"/>
+      <c r="DH32" s="6"/>
+      <c r="DI32" s="6"/>
+      <c r="DJ32" s="6"/>
+      <c r="DK32" s="6"/>
+      <c r="DL32" s="6"/>
+      <c r="DM32" s="6"/>
+      <c r="DN32" s="6"/>
+      <c r="DO32" s="6"/>
+      <c r="DP32" s="6"/>
+      <c r="DQ32" s="6"/>
+      <c r="DR32" s="6"/>
+      <c r="DS32" s="6"/>
+      <c r="DT32" s="6"/>
+      <c r="DU32" s="6"/>
+      <c r="DV32" s="6"/>
+      <c r="DW32" s="6"/>
+      <c r="DX32" s="6"/>
+      <c r="DY32" s="6"/>
+      <c r="DZ32" s="6"/>
+      <c r="EA32" s="6"/>
+      <c r="EB32" s="6"/>
+      <c r="EC32" s="6"/>
+      <c r="ED32" s="6"/>
+      <c r="EE32" s="6"/>
+      <c r="EF32" s="6"/>
+      <c r="EG32" s="6"/>
+      <c r="EH32" s="6"/>
+      <c r="EI32" s="6"/>
+      <c r="EJ32" s="6"/>
+      <c r="EK32" s="6"/>
+      <c r="EL32" s="6"/>
+      <c r="EM32" s="6"/>
+      <c r="EN32" s="6"/>
+      <c r="EO32" s="6"/>
+      <c r="EP32" s="6"/>
+      <c r="EQ32" s="6"/>
+      <c r="ER32" s="6"/>
+      <c r="ES32" s="6"/>
+      <c r="ET32" s="6"/>
+      <c r="EU32" s="6"/>
+      <c r="EV32" s="6"/>
+      <c r="EW32" s="6"/>
+      <c r="EX32" s="6"/>
+      <c r="EY32" s="6"/>
+      <c r="EZ32" s="6"/>
+      <c r="FA32" s="6"/>
+      <c r="FB32" s="6"/>
+      <c r="FC32" s="6"/>
+      <c r="FD32" s="6"/>
+      <c r="FE32" s="6"/>
+      <c r="FF32" s="6"/>
+      <c r="FG32" s="6"/>
+      <c r="FH32" s="6"/>
+      <c r="FI32" s="6"/>
+      <c r="FJ32" s="6"/>
+      <c r="FK32" s="6"/>
+      <c r="FL32" s="6"/>
+      <c r="FM32" s="6"/>
+      <c r="FN32" s="6"/>
+      <c r="FO32" s="6"/>
+      <c r="FP32" s="6"/>
+      <c r="FQ32" s="6"/>
+      <c r="FR32" s="6"/>
+      <c r="FS32" s="6"/>
+      <c r="FT32" s="6"/>
+      <c r="FU32" s="6"/>
+      <c r="FV32" s="6"/>
+      <c r="FW32" s="6"/>
+      <c r="FX32" s="6"/>
+      <c r="FY32" s="6"/>
+      <c r="FZ32" s="6"/>
+      <c r="GA32" s="6"/>
+      <c r="GB32" s="6"/>
+      <c r="GC32" s="6"/>
+      <c r="GD32" s="6"/>
+      <c r="GE32" s="6"/>
+      <c r="GF32" s="6"/>
+      <c r="GG32" s="6"/>
+      <c r="GH32" s="6"/>
+      <c r="GI32" s="6"/>
+      <c r="GJ32" s="6"/>
+      <c r="GK32" s="6"/>
+      <c r="GL32" s="6"/>
+      <c r="GM32" s="6"/>
+      <c r="GN32" s="6"/>
+      <c r="GO32" s="6"/>
+      <c r="GP32" s="6"/>
+      <c r="GQ32" s="6"/>
+      <c r="GR32" s="6"/>
+      <c r="GS32" s="6"/>
+      <c r="GT32" s="6"/>
+      <c r="GU32" s="6"/>
+      <c r="GV32" s="6"/>
+      <c r="GW32" s="6"/>
+      <c r="GX32" s="6"/>
+      <c r="GY32" s="6"/>
+      <c r="GZ32" s="6"/>
+      <c r="HA32" s="6"/>
+      <c r="HB32" s="6"/>
+      <c r="HC32" s="6"/>
+      <c r="HD32" s="6"/>
+      <c r="HE32" s="6"/>
+      <c r="HF32" s="6"/>
+      <c r="HG32" s="6"/>
+      <c r="HH32" s="6"/>
+      <c r="HI32" s="6"/>
+      <c r="HJ32" s="6"/>
+      <c r="HK32" s="6"/>
+      <c r="HL32" s="6"/>
+      <c r="HM32" s="6"/>
+      <c r="HN32" s="6"/>
+      <c r="HO32" s="6"/>
+      <c r="HP32" s="6"/>
+      <c r="HQ32" s="6"/>
+      <c r="HR32" s="6"/>
+      <c r="HS32" s="6"/>
+      <c r="HT32" s="6"/>
+      <c r="HU32" s="6"/>
+      <c r="HV32" s="6"/>
+      <c r="HW32" s="6"/>
+      <c r="HX32" s="6"/>
+      <c r="HY32" s="6"/>
+      <c r="HZ32" s="6"/>
+      <c r="IA32" s="6"/>
+      <c r="IB32" s="6"/>
+      <c r="IC32" s="6"/>
+      <c r="ID32" s="6"/>
+      <c r="IE32" s="6"/>
+      <c r="IF32" s="6"/>
+      <c r="IG32" s="6"/>
+      <c r="IH32" s="6"/>
+      <c r="II32" s="6"/>
+      <c r="IJ32" s="6"/>
+      <c r="IK32" s="6"/>
+      <c r="IL32" s="6"/>
+      <c r="IM32" s="6"/>
+      <c r="IN32" s="6"/>
+      <c r="IO32" s="6"/>
+      <c r="IP32" s="6"/>
+      <c r="IQ32" s="6"/>
+      <c r="IR32" s="6"/>
+      <c r="IS32" s="6"/>
+      <c r="IT32" s="6"/>
+      <c r="IU32" s="6"/>
+      <c r="IV32" s="6"/>
+      <c r="IW32" s="6"/>
+      <c r="IX32" s="6"/>
+      <c r="IY32" s="6"/>
+      <c r="IZ32" s="6"/>
+      <c r="JA32" s="6"/>
     </row>
     <row r="33" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B33" s="7" t="str">
-        <f>"VX"&amp;D33&amp;F33</f>
-        <v>VXMR</v>
+        <f t="shared" si="1"/>
+        <v>VXM/</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>143</v>
@@ -5736,24 +6234,17 @@
         <v>143</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="2" t="str">
-        <f>"--"</f>
-        <v>--</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
@@ -6010,8 +6501,8 @@
         <v>143</v>
       </c>
       <c r="B34" s="7" t="str">
-        <f>"VX"&amp;D34&amp;F34</f>
-        <v>VXMXttt</v>
+        <f t="shared" si="0"/>
+        <v>VXMI</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>143</v>
@@ -6023,279 +6514,32 @@
         <v>143</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K34" s="2"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
-      <c r="AQ34" s="6"/>
-      <c r="AR34" s="6"/>
-      <c r="AS34" s="6"/>
-      <c r="AT34" s="6"/>
-      <c r="AU34" s="6"/>
-      <c r="AV34" s="6"/>
-      <c r="AW34" s="6"/>
-      <c r="AX34" s="6"/>
-      <c r="AY34" s="6"/>
-      <c r="AZ34" s="6"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="6"/>
-      <c r="BC34" s="6"/>
-      <c r="BD34" s="6"/>
-      <c r="BE34" s="6"/>
-      <c r="BF34" s="6"/>
-      <c r="BG34" s="6"/>
-      <c r="BH34" s="6"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="6"/>
-      <c r="BK34" s="6"/>
-      <c r="BL34" s="6"/>
-      <c r="BM34" s="6"/>
-      <c r="BN34" s="6"/>
-      <c r="BO34" s="6"/>
-      <c r="BP34" s="6"/>
-      <c r="BQ34" s="6"/>
-      <c r="BR34" s="6"/>
-      <c r="BS34" s="6"/>
-      <c r="BT34" s="6"/>
-      <c r="BU34" s="6"/>
-      <c r="BV34" s="6"/>
-      <c r="BW34" s="6"/>
-      <c r="BX34" s="6"/>
-      <c r="BY34" s="6"/>
-      <c r="BZ34" s="6"/>
-      <c r="CA34" s="6"/>
-      <c r="CB34" s="6"/>
-      <c r="CC34" s="6"/>
-      <c r="CD34" s="6"/>
-      <c r="CE34" s="6"/>
-      <c r="CF34" s="6"/>
-      <c r="CG34" s="6"/>
-      <c r="CH34" s="6"/>
-      <c r="CI34" s="6"/>
-      <c r="CJ34" s="6"/>
-      <c r="CK34" s="6"/>
-      <c r="CL34" s="6"/>
-      <c r="CM34" s="6"/>
-      <c r="CN34" s="6"/>
-      <c r="CO34" s="6"/>
-      <c r="CP34" s="6"/>
-      <c r="CQ34" s="6"/>
-      <c r="CR34" s="6"/>
-      <c r="CS34" s="6"/>
-      <c r="CT34" s="6"/>
-      <c r="CU34" s="6"/>
-      <c r="CV34" s="6"/>
-      <c r="CW34" s="6"/>
-      <c r="CX34" s="6"/>
-      <c r="CY34" s="6"/>
-      <c r="CZ34" s="6"/>
-      <c r="DA34" s="6"/>
-      <c r="DB34" s="6"/>
-      <c r="DC34" s="6"/>
-      <c r="DD34" s="6"/>
-      <c r="DE34" s="6"/>
-      <c r="DF34" s="6"/>
-      <c r="DG34" s="6"/>
-      <c r="DH34" s="6"/>
-      <c r="DI34" s="6"/>
-      <c r="DJ34" s="6"/>
-      <c r="DK34" s="6"/>
-      <c r="DL34" s="6"/>
-      <c r="DM34" s="6"/>
-      <c r="DN34" s="6"/>
-      <c r="DO34" s="6"/>
-      <c r="DP34" s="6"/>
-      <c r="DQ34" s="6"/>
-      <c r="DR34" s="6"/>
-      <c r="DS34" s="6"/>
-      <c r="DT34" s="6"/>
-      <c r="DU34" s="6"/>
-      <c r="DV34" s="6"/>
-      <c r="DW34" s="6"/>
-      <c r="DX34" s="6"/>
-      <c r="DY34" s="6"/>
-      <c r="DZ34" s="6"/>
-      <c r="EA34" s="6"/>
-      <c r="EB34" s="6"/>
-      <c r="EC34" s="6"/>
-      <c r="ED34" s="6"/>
-      <c r="EE34" s="6"/>
-      <c r="EF34" s="6"/>
-      <c r="EG34" s="6"/>
-      <c r="EH34" s="6"/>
-      <c r="EI34" s="6"/>
-      <c r="EJ34" s="6"/>
-      <c r="EK34" s="6"/>
-      <c r="EL34" s="6"/>
-      <c r="EM34" s="6"/>
-      <c r="EN34" s="6"/>
-      <c r="EO34" s="6"/>
-      <c r="EP34" s="6"/>
-      <c r="EQ34" s="6"/>
-      <c r="ER34" s="6"/>
-      <c r="ES34" s="6"/>
-      <c r="ET34" s="6"/>
-      <c r="EU34" s="6"/>
-      <c r="EV34" s="6"/>
-      <c r="EW34" s="6"/>
-      <c r="EX34" s="6"/>
-      <c r="EY34" s="6"/>
-      <c r="EZ34" s="6"/>
-      <c r="FA34" s="6"/>
-      <c r="FB34" s="6"/>
-      <c r="FC34" s="6"/>
-      <c r="FD34" s="6"/>
-      <c r="FE34" s="6"/>
-      <c r="FF34" s="6"/>
-      <c r="FG34" s="6"/>
-      <c r="FH34" s="6"/>
-      <c r="FI34" s="6"/>
-      <c r="FJ34" s="6"/>
-      <c r="FK34" s="6"/>
-      <c r="FL34" s="6"/>
-      <c r="FM34" s="6"/>
-      <c r="FN34" s="6"/>
-      <c r="FO34" s="6"/>
-      <c r="FP34" s="6"/>
-      <c r="FQ34" s="6"/>
-      <c r="FR34" s="6"/>
-      <c r="FS34" s="6"/>
-      <c r="FT34" s="6"/>
-      <c r="FU34" s="6"/>
-      <c r="FV34" s="6"/>
-      <c r="FW34" s="6"/>
-      <c r="FX34" s="6"/>
-      <c r="FY34" s="6"/>
-      <c r="FZ34" s="6"/>
-      <c r="GA34" s="6"/>
-      <c r="GB34" s="6"/>
-      <c r="GC34" s="6"/>
-      <c r="GD34" s="6"/>
-      <c r="GE34" s="6"/>
-      <c r="GF34" s="6"/>
-      <c r="GG34" s="6"/>
-      <c r="GH34" s="6"/>
-      <c r="GI34" s="6"/>
-      <c r="GJ34" s="6"/>
-      <c r="GK34" s="6"/>
-      <c r="GL34" s="6"/>
-      <c r="GM34" s="6"/>
-      <c r="GN34" s="6"/>
-      <c r="GO34" s="6"/>
-      <c r="GP34" s="6"/>
-      <c r="GQ34" s="6"/>
-      <c r="GR34" s="6"/>
-      <c r="GS34" s="6"/>
-      <c r="GT34" s="6"/>
-      <c r="GU34" s="6"/>
-      <c r="GV34" s="6"/>
-      <c r="GW34" s="6"/>
-      <c r="GX34" s="6"/>
-      <c r="GY34" s="6"/>
-      <c r="GZ34" s="6"/>
-      <c r="HA34" s="6"/>
-      <c r="HB34" s="6"/>
-      <c r="HC34" s="6"/>
-      <c r="HD34" s="6"/>
-      <c r="HE34" s="6"/>
-      <c r="HF34" s="6"/>
-      <c r="HG34" s="6"/>
-      <c r="HH34" s="6"/>
-      <c r="HI34" s="6"/>
-      <c r="HJ34" s="6"/>
-      <c r="HK34" s="6"/>
-      <c r="HL34" s="6"/>
-      <c r="HM34" s="6"/>
-      <c r="HN34" s="6"/>
-      <c r="HO34" s="6"/>
-      <c r="HP34" s="6"/>
-      <c r="HQ34" s="6"/>
-      <c r="HR34" s="6"/>
-      <c r="HS34" s="6"/>
-      <c r="HT34" s="6"/>
-      <c r="HU34" s="6"/>
-      <c r="HV34" s="6"/>
-      <c r="HW34" s="6"/>
-      <c r="HX34" s="6"/>
-      <c r="HY34" s="6"/>
-      <c r="HZ34" s="6"/>
-      <c r="IA34" s="6"/>
-      <c r="IB34" s="6"/>
-      <c r="IC34" s="6"/>
-      <c r="ID34" s="6"/>
-      <c r="IE34" s="6"/>
-      <c r="IF34" s="6"/>
-      <c r="IG34" s="6"/>
-      <c r="IH34" s="6"/>
-      <c r="II34" s="6"/>
-      <c r="IJ34" s="6"/>
-      <c r="IK34" s="6"/>
-      <c r="IL34" s="6"/>
-      <c r="IM34" s="6"/>
-      <c r="IN34" s="6"/>
-      <c r="IO34" s="6"/>
-      <c r="IP34" s="6"/>
-      <c r="IQ34" s="6"/>
-      <c r="IR34" s="6"/>
-      <c r="IS34" s="6"/>
-      <c r="IT34" s="6"/>
-      <c r="IU34" s="6"/>
-      <c r="IV34" s="6"/>
-      <c r="IW34" s="6"/>
-      <c r="IX34" s="6"/>
-      <c r="IY34" s="6"/>
-      <c r="IZ34" s="6"/>
-      <c r="JA34" s="6"/>
+      <c r="J34" s="2" t="str">
+        <f>"--"</f>
+        <v>--</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="35" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B35" s="7" t="str">
-        <f>"VX"&amp;D35&amp;F35</f>
-        <v>VXM</v>
+        <f t="shared" si="0"/>
+        <v>VXMQ</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>143</v>
@@ -6306,380 +6550,884 @@
       <c r="E35" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G35" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>113</v>
+      <c r="H35" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="6"/>
-      <c r="AR35" s="6"/>
-      <c r="AS35" s="6"/>
-      <c r="AT35" s="6"/>
-      <c r="AU35" s="6"/>
-      <c r="AV35" s="6"/>
-      <c r="AW35" s="6"/>
-      <c r="AX35" s="6"/>
-      <c r="AY35" s="6"/>
-      <c r="AZ35" s="6"/>
-      <c r="BA35" s="6"/>
-      <c r="BB35" s="6"/>
-      <c r="BC35" s="6"/>
-      <c r="BD35" s="6"/>
-      <c r="BE35" s="6"/>
-      <c r="BF35" s="6"/>
-      <c r="BG35" s="6"/>
-      <c r="BH35" s="6"/>
-      <c r="BI35" s="6"/>
-      <c r="BJ35" s="6"/>
-      <c r="BK35" s="6"/>
-      <c r="BL35" s="6"/>
-      <c r="BM35" s="6"/>
-      <c r="BN35" s="6"/>
-      <c r="BO35" s="6"/>
-      <c r="BP35" s="6"/>
-      <c r="BQ35" s="6"/>
-      <c r="BR35" s="6"/>
-      <c r="BS35" s="6"/>
-      <c r="BT35" s="6"/>
-      <c r="BU35" s="6"/>
-      <c r="BV35" s="6"/>
-      <c r="BW35" s="6"/>
-      <c r="BX35" s="6"/>
-      <c r="BY35" s="6"/>
-      <c r="BZ35" s="6"/>
-      <c r="CA35" s="6"/>
-      <c r="CB35" s="6"/>
-      <c r="CC35" s="6"/>
-      <c r="CD35" s="6"/>
-      <c r="CE35" s="6"/>
-      <c r="CF35" s="6"/>
-      <c r="CG35" s="6"/>
-      <c r="CH35" s="6"/>
-      <c r="CI35" s="6"/>
-      <c r="CJ35" s="6"/>
-      <c r="CK35" s="6"/>
-      <c r="CL35" s="6"/>
-      <c r="CM35" s="6"/>
-      <c r="CN35" s="6"/>
-      <c r="CO35" s="6"/>
-      <c r="CP35" s="6"/>
-      <c r="CQ35" s="6"/>
-      <c r="CR35" s="6"/>
-      <c r="CS35" s="6"/>
-      <c r="CT35" s="6"/>
-      <c r="CU35" s="6"/>
-      <c r="CV35" s="6"/>
-      <c r="CW35" s="6"/>
-      <c r="CX35" s="6"/>
-      <c r="CY35" s="6"/>
-      <c r="CZ35" s="6"/>
-      <c r="DA35" s="6"/>
-      <c r="DB35" s="6"/>
-      <c r="DC35" s="6"/>
-      <c r="DD35" s="6"/>
-      <c r="DE35" s="6"/>
-      <c r="DF35" s="6"/>
-      <c r="DG35" s="6"/>
-      <c r="DH35" s="6"/>
-      <c r="DI35" s="6"/>
-      <c r="DJ35" s="6"/>
-      <c r="DK35" s="6"/>
-      <c r="DL35" s="6"/>
-      <c r="DM35" s="6"/>
-      <c r="DN35" s="6"/>
-      <c r="DO35" s="6"/>
-      <c r="DP35" s="6"/>
-      <c r="DQ35" s="6"/>
-      <c r="DR35" s="6"/>
-      <c r="DS35" s="6"/>
-      <c r="DT35" s="6"/>
-      <c r="DU35" s="6"/>
-      <c r="DV35" s="6"/>
-      <c r="DW35" s="6"/>
-      <c r="DX35" s="6"/>
-      <c r="DY35" s="6"/>
-      <c r="DZ35" s="6"/>
-      <c r="EA35" s="6"/>
-      <c r="EB35" s="6"/>
-      <c r="EC35" s="6"/>
-      <c r="ED35" s="6"/>
-      <c r="EE35" s="6"/>
-      <c r="EF35" s="6"/>
-      <c r="EG35" s="6"/>
-      <c r="EH35" s="6"/>
-      <c r="EI35" s="6"/>
-      <c r="EJ35" s="6"/>
-      <c r="EK35" s="6"/>
-      <c r="EL35" s="6"/>
-      <c r="EM35" s="6"/>
-      <c r="EN35" s="6"/>
-      <c r="EO35" s="6"/>
-      <c r="EP35" s="6"/>
-      <c r="EQ35" s="6"/>
-      <c r="ER35" s="6"/>
-      <c r="ES35" s="6"/>
-      <c r="ET35" s="6"/>
-      <c r="EU35" s="6"/>
-      <c r="EV35" s="6"/>
-      <c r="EW35" s="6"/>
-      <c r="EX35" s="6"/>
-      <c r="EY35" s="6"/>
-      <c r="EZ35" s="6"/>
-      <c r="FA35" s="6"/>
-      <c r="FB35" s="6"/>
-      <c r="FC35" s="6"/>
-      <c r="FD35" s="6"/>
-      <c r="FE35" s="6"/>
-      <c r="FF35" s="6"/>
-      <c r="FG35" s="6"/>
-      <c r="FH35" s="6"/>
-      <c r="FI35" s="6"/>
-      <c r="FJ35" s="6"/>
-      <c r="FK35" s="6"/>
-      <c r="FL35" s="6"/>
-      <c r="FM35" s="6"/>
-      <c r="FN35" s="6"/>
-      <c r="FO35" s="6"/>
-      <c r="FP35" s="6"/>
-      <c r="FQ35" s="6"/>
-      <c r="FR35" s="6"/>
-      <c r="FS35" s="6"/>
-      <c r="FT35" s="6"/>
-      <c r="FU35" s="6"/>
-      <c r="FV35" s="6"/>
-      <c r="FW35" s="6"/>
-      <c r="FX35" s="6"/>
-      <c r="FY35" s="6"/>
-      <c r="FZ35" s="6"/>
-      <c r="GA35" s="6"/>
-      <c r="GB35" s="6"/>
-      <c r="GC35" s="6"/>
-      <c r="GD35" s="6"/>
-      <c r="GE35" s="6"/>
-      <c r="GF35" s="6"/>
-      <c r="GG35" s="6"/>
-      <c r="GH35" s="6"/>
-      <c r="GI35" s="6"/>
-      <c r="GJ35" s="6"/>
-      <c r="GK35" s="6"/>
-      <c r="GL35" s="6"/>
-      <c r="GM35" s="6"/>
-      <c r="GN35" s="6"/>
-      <c r="GO35" s="6"/>
-      <c r="GP35" s="6"/>
-      <c r="GQ35" s="6"/>
-      <c r="GR35" s="6"/>
-      <c r="GS35" s="6"/>
-      <c r="GT35" s="6"/>
-      <c r="GU35" s="6"/>
-      <c r="GV35" s="6"/>
-      <c r="GW35" s="6"/>
-      <c r="GX35" s="6"/>
-      <c r="GY35" s="6"/>
-      <c r="GZ35" s="6"/>
-      <c r="HA35" s="6"/>
-      <c r="HB35" s="6"/>
-      <c r="HC35" s="6"/>
-      <c r="HD35" s="6"/>
-      <c r="HE35" s="6"/>
-      <c r="HF35" s="6"/>
-      <c r="HG35" s="6"/>
-      <c r="HH35" s="6"/>
-      <c r="HI35" s="6"/>
-      <c r="HJ35" s="6"/>
-      <c r="HK35" s="6"/>
-      <c r="HL35" s="6"/>
-      <c r="HM35" s="6"/>
-      <c r="HN35" s="6"/>
-      <c r="HO35" s="6"/>
-      <c r="HP35" s="6"/>
-      <c r="HQ35" s="6"/>
-      <c r="HR35" s="6"/>
-      <c r="HS35" s="6"/>
-      <c r="HT35" s="6"/>
-      <c r="HU35" s="6"/>
-      <c r="HV35" s="6"/>
-      <c r="HW35" s="6"/>
-      <c r="HX35" s="6"/>
-      <c r="HY35" s="6"/>
-      <c r="HZ35" s="6"/>
-      <c r="IA35" s="6"/>
-      <c r="IB35" s="6"/>
-      <c r="IC35" s="6"/>
-      <c r="ID35" s="6"/>
-      <c r="IE35" s="6"/>
-      <c r="IF35" s="6"/>
-      <c r="IG35" s="6"/>
-      <c r="IH35" s="6"/>
-      <c r="II35" s="6"/>
-      <c r="IJ35" s="6"/>
-      <c r="IK35" s="6"/>
-      <c r="IL35" s="6"/>
-      <c r="IM35" s="6"/>
-      <c r="IN35" s="6"/>
-      <c r="IO35" s="6"/>
-      <c r="IP35" s="6"/>
-      <c r="IQ35" s="6"/>
-      <c r="IR35" s="6"/>
-      <c r="IS35" s="6"/>
-      <c r="IT35" s="6"/>
-      <c r="IU35" s="6"/>
-      <c r="IV35" s="6"/>
-      <c r="IW35" s="6"/>
-      <c r="IX35" s="6"/>
-      <c r="IY35" s="6"/>
-      <c r="IZ35" s="6"/>
-      <c r="JA35" s="6"/>
+      <c r="J35" s="2" t="str">
+        <f>"--"</f>
+        <v>--</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="36" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B36" s="7" t="str">
-        <f>"VX"&amp;D36&amp;F36</f>
-        <v>VXP?</v>
+        <f t="shared" si="0"/>
+        <v>VXMR</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="J36" s="2" t="str">
+        <f>"--"</f>
+        <v>--</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="6"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="6"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="6"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="6"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="6"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="6"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="6"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="6"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="6"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="6"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="6"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="6"/>
+      <c r="BL36" s="6"/>
+      <c r="BM36" s="6"/>
+      <c r="BN36" s="6"/>
+      <c r="BO36" s="6"/>
+      <c r="BP36" s="6"/>
+      <c r="BQ36" s="6"/>
+      <c r="BR36" s="6"/>
+      <c r="BS36" s="6"/>
+      <c r="BT36" s="6"/>
+      <c r="BU36" s="6"/>
+      <c r="BV36" s="6"/>
+      <c r="BW36" s="6"/>
+      <c r="BX36" s="6"/>
+      <c r="BY36" s="6"/>
+      <c r="BZ36" s="6"/>
+      <c r="CA36" s="6"/>
+      <c r="CB36" s="6"/>
+      <c r="CC36" s="6"/>
+      <c r="CD36" s="6"/>
+      <c r="CE36" s="6"/>
+      <c r="CF36" s="6"/>
+      <c r="CG36" s="6"/>
+      <c r="CH36" s="6"/>
+      <c r="CI36" s="6"/>
+      <c r="CJ36" s="6"/>
+      <c r="CK36" s="6"/>
+      <c r="CL36" s="6"/>
+      <c r="CM36" s="6"/>
+      <c r="CN36" s="6"/>
+      <c r="CO36" s="6"/>
+      <c r="CP36" s="6"/>
+      <c r="CQ36" s="6"/>
+      <c r="CR36" s="6"/>
+      <c r="CS36" s="6"/>
+      <c r="CT36" s="6"/>
+      <c r="CU36" s="6"/>
+      <c r="CV36" s="6"/>
+      <c r="CW36" s="6"/>
+      <c r="CX36" s="6"/>
+      <c r="CY36" s="6"/>
+      <c r="CZ36" s="6"/>
+      <c r="DA36" s="6"/>
+      <c r="DB36" s="6"/>
+      <c r="DC36" s="6"/>
+      <c r="DD36" s="6"/>
+      <c r="DE36" s="6"/>
+      <c r="DF36" s="6"/>
+      <c r="DG36" s="6"/>
+      <c r="DH36" s="6"/>
+      <c r="DI36" s="6"/>
+      <c r="DJ36" s="6"/>
+      <c r="DK36" s="6"/>
+      <c r="DL36" s="6"/>
+      <c r="DM36" s="6"/>
+      <c r="DN36" s="6"/>
+      <c r="DO36" s="6"/>
+      <c r="DP36" s="6"/>
+      <c r="DQ36" s="6"/>
+      <c r="DR36" s="6"/>
+      <c r="DS36" s="6"/>
+      <c r="DT36" s="6"/>
+      <c r="DU36" s="6"/>
+      <c r="DV36" s="6"/>
+      <c r="DW36" s="6"/>
+      <c r="DX36" s="6"/>
+      <c r="DY36" s="6"/>
+      <c r="DZ36" s="6"/>
+      <c r="EA36" s="6"/>
+      <c r="EB36" s="6"/>
+      <c r="EC36" s="6"/>
+      <c r="ED36" s="6"/>
+      <c r="EE36" s="6"/>
+      <c r="EF36" s="6"/>
+      <c r="EG36" s="6"/>
+      <c r="EH36" s="6"/>
+      <c r="EI36" s="6"/>
+      <c r="EJ36" s="6"/>
+      <c r="EK36" s="6"/>
+      <c r="EL36" s="6"/>
+      <c r="EM36" s="6"/>
+      <c r="EN36" s="6"/>
+      <c r="EO36" s="6"/>
+      <c r="EP36" s="6"/>
+      <c r="EQ36" s="6"/>
+      <c r="ER36" s="6"/>
+      <c r="ES36" s="6"/>
+      <c r="ET36" s="6"/>
+      <c r="EU36" s="6"/>
+      <c r="EV36" s="6"/>
+      <c r="EW36" s="6"/>
+      <c r="EX36" s="6"/>
+      <c r="EY36" s="6"/>
+      <c r="EZ36" s="6"/>
+      <c r="FA36" s="6"/>
+      <c r="FB36" s="6"/>
+      <c r="FC36" s="6"/>
+      <c r="FD36" s="6"/>
+      <c r="FE36" s="6"/>
+      <c r="FF36" s="6"/>
+      <c r="FG36" s="6"/>
+      <c r="FH36" s="6"/>
+      <c r="FI36" s="6"/>
+      <c r="FJ36" s="6"/>
+      <c r="FK36" s="6"/>
+      <c r="FL36" s="6"/>
+      <c r="FM36" s="6"/>
+      <c r="FN36" s="6"/>
+      <c r="FO36" s="6"/>
+      <c r="FP36" s="6"/>
+      <c r="FQ36" s="6"/>
+      <c r="FR36" s="6"/>
+      <c r="FS36" s="6"/>
+      <c r="FT36" s="6"/>
+      <c r="FU36" s="6"/>
+      <c r="FV36" s="6"/>
+      <c r="FW36" s="6"/>
+      <c r="FX36" s="6"/>
+      <c r="FY36" s="6"/>
+      <c r="FZ36" s="6"/>
+      <c r="GA36" s="6"/>
+      <c r="GB36" s="6"/>
+      <c r="GC36" s="6"/>
+      <c r="GD36" s="6"/>
+      <c r="GE36" s="6"/>
+      <c r="GF36" s="6"/>
+      <c r="GG36" s="6"/>
+      <c r="GH36" s="6"/>
+      <c r="GI36" s="6"/>
+      <c r="GJ36" s="6"/>
+      <c r="GK36" s="6"/>
+      <c r="GL36" s="6"/>
+      <c r="GM36" s="6"/>
+      <c r="GN36" s="6"/>
+      <c r="GO36" s="6"/>
+      <c r="GP36" s="6"/>
+      <c r="GQ36" s="6"/>
+      <c r="GR36" s="6"/>
+      <c r="GS36" s="6"/>
+      <c r="GT36" s="6"/>
+      <c r="GU36" s="6"/>
+      <c r="GV36" s="6"/>
+      <c r="GW36" s="6"/>
+      <c r="GX36" s="6"/>
+      <c r="GY36" s="6"/>
+      <c r="GZ36" s="6"/>
+      <c r="HA36" s="6"/>
+      <c r="HB36" s="6"/>
+      <c r="HC36" s="6"/>
+      <c r="HD36" s="6"/>
+      <c r="HE36" s="6"/>
+      <c r="HF36" s="6"/>
+      <c r="HG36" s="6"/>
+      <c r="HH36" s="6"/>
+      <c r="HI36" s="6"/>
+      <c r="HJ36" s="6"/>
+      <c r="HK36" s="6"/>
+      <c r="HL36" s="6"/>
+      <c r="HM36" s="6"/>
+      <c r="HN36" s="6"/>
+      <c r="HO36" s="6"/>
+      <c r="HP36" s="6"/>
+      <c r="HQ36" s="6"/>
+      <c r="HR36" s="6"/>
+      <c r="HS36" s="6"/>
+      <c r="HT36" s="6"/>
+      <c r="HU36" s="6"/>
+      <c r="HV36" s="6"/>
+      <c r="HW36" s="6"/>
+      <c r="HX36" s="6"/>
+      <c r="HY36" s="6"/>
+      <c r="HZ36" s="6"/>
+      <c r="IA36" s="6"/>
+      <c r="IB36" s="6"/>
+      <c r="IC36" s="6"/>
+      <c r="ID36" s="6"/>
+      <c r="IE36" s="6"/>
+      <c r="IF36" s="6"/>
+      <c r="IG36" s="6"/>
+      <c r="IH36" s="6"/>
+      <c r="II36" s="6"/>
+      <c r="IJ36" s="6"/>
+      <c r="IK36" s="6"/>
+      <c r="IL36" s="6"/>
+      <c r="IM36" s="6"/>
+      <c r="IN36" s="6"/>
+      <c r="IO36" s="6"/>
+      <c r="IP36" s="6"/>
+      <c r="IQ36" s="6"/>
+      <c r="IR36" s="6"/>
+      <c r="IS36" s="6"/>
+      <c r="IT36" s="6"/>
+      <c r="IU36" s="6"/>
+      <c r="IV36" s="6"/>
+      <c r="IW36" s="6"/>
+      <c r="IX36" s="6"/>
+      <c r="IY36" s="6"/>
+      <c r="IZ36" s="6"/>
+      <c r="JA36" s="6"/>
     </row>
     <row r="37" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B37" s="7" t="str">
-        <f>"VX"&amp;D37&amp;F37</f>
-        <v>VXPD3</v>
+        <f t="shared" ref="B37:B68" si="2">"VX"&amp;D37&amp;F37</f>
+        <v>VXMXttt</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="6"/>
+      <c r="AK37" s="6"/>
+      <c r="AL37" s="6"/>
+      <c r="AM37" s="6"/>
+      <c r="AN37" s="6"/>
+      <c r="AO37" s="6"/>
+      <c r="AP37" s="6"/>
+      <c r="AQ37" s="6"/>
+      <c r="AR37" s="6"/>
+      <c r="AS37" s="6"/>
+      <c r="AT37" s="6"/>
+      <c r="AU37" s="6"/>
+      <c r="AV37" s="6"/>
+      <c r="AW37" s="6"/>
+      <c r="AX37" s="6"/>
+      <c r="AY37" s="6"/>
+      <c r="AZ37" s="6"/>
+      <c r="BA37" s="6"/>
+      <c r="BB37" s="6"/>
+      <c r="BC37" s="6"/>
+      <c r="BD37" s="6"/>
+      <c r="BE37" s="6"/>
+      <c r="BF37" s="6"/>
+      <c r="BG37" s="6"/>
+      <c r="BH37" s="6"/>
+      <c r="BI37" s="6"/>
+      <c r="BJ37" s="6"/>
+      <c r="BK37" s="6"/>
+      <c r="BL37" s="6"/>
+      <c r="BM37" s="6"/>
+      <c r="BN37" s="6"/>
+      <c r="BO37" s="6"/>
+      <c r="BP37" s="6"/>
+      <c r="BQ37" s="6"/>
+      <c r="BR37" s="6"/>
+      <c r="BS37" s="6"/>
+      <c r="BT37" s="6"/>
+      <c r="BU37" s="6"/>
+      <c r="BV37" s="6"/>
+      <c r="BW37" s="6"/>
+      <c r="BX37" s="6"/>
+      <c r="BY37" s="6"/>
+      <c r="BZ37" s="6"/>
+      <c r="CA37" s="6"/>
+      <c r="CB37" s="6"/>
+      <c r="CC37" s="6"/>
+      <c r="CD37" s="6"/>
+      <c r="CE37" s="6"/>
+      <c r="CF37" s="6"/>
+      <c r="CG37" s="6"/>
+      <c r="CH37" s="6"/>
+      <c r="CI37" s="6"/>
+      <c r="CJ37" s="6"/>
+      <c r="CK37" s="6"/>
+      <c r="CL37" s="6"/>
+      <c r="CM37" s="6"/>
+      <c r="CN37" s="6"/>
+      <c r="CO37" s="6"/>
+      <c r="CP37" s="6"/>
+      <c r="CQ37" s="6"/>
+      <c r="CR37" s="6"/>
+      <c r="CS37" s="6"/>
+      <c r="CT37" s="6"/>
+      <c r="CU37" s="6"/>
+      <c r="CV37" s="6"/>
+      <c r="CW37" s="6"/>
+      <c r="CX37" s="6"/>
+      <c r="CY37" s="6"/>
+      <c r="CZ37" s="6"/>
+      <c r="DA37" s="6"/>
+      <c r="DB37" s="6"/>
+      <c r="DC37" s="6"/>
+      <c r="DD37" s="6"/>
+      <c r="DE37" s="6"/>
+      <c r="DF37" s="6"/>
+      <c r="DG37" s="6"/>
+      <c r="DH37" s="6"/>
+      <c r="DI37" s="6"/>
+      <c r="DJ37" s="6"/>
+      <c r="DK37" s="6"/>
+      <c r="DL37" s="6"/>
+      <c r="DM37" s="6"/>
+      <c r="DN37" s="6"/>
+      <c r="DO37" s="6"/>
+      <c r="DP37" s="6"/>
+      <c r="DQ37" s="6"/>
+      <c r="DR37" s="6"/>
+      <c r="DS37" s="6"/>
+      <c r="DT37" s="6"/>
+      <c r="DU37" s="6"/>
+      <c r="DV37" s="6"/>
+      <c r="DW37" s="6"/>
+      <c r="DX37" s="6"/>
+      <c r="DY37" s="6"/>
+      <c r="DZ37" s="6"/>
+      <c r="EA37" s="6"/>
+      <c r="EB37" s="6"/>
+      <c r="EC37" s="6"/>
+      <c r="ED37" s="6"/>
+      <c r="EE37" s="6"/>
+      <c r="EF37" s="6"/>
+      <c r="EG37" s="6"/>
+      <c r="EH37" s="6"/>
+      <c r="EI37" s="6"/>
+      <c r="EJ37" s="6"/>
+      <c r="EK37" s="6"/>
+      <c r="EL37" s="6"/>
+      <c r="EM37" s="6"/>
+      <c r="EN37" s="6"/>
+      <c r="EO37" s="6"/>
+      <c r="EP37" s="6"/>
+      <c r="EQ37" s="6"/>
+      <c r="ER37" s="6"/>
+      <c r="ES37" s="6"/>
+      <c r="ET37" s="6"/>
+      <c r="EU37" s="6"/>
+      <c r="EV37" s="6"/>
+      <c r="EW37" s="6"/>
+      <c r="EX37" s="6"/>
+      <c r="EY37" s="6"/>
+      <c r="EZ37" s="6"/>
+      <c r="FA37" s="6"/>
+      <c r="FB37" s="6"/>
+      <c r="FC37" s="6"/>
+      <c r="FD37" s="6"/>
+      <c r="FE37" s="6"/>
+      <c r="FF37" s="6"/>
+      <c r="FG37" s="6"/>
+      <c r="FH37" s="6"/>
+      <c r="FI37" s="6"/>
+      <c r="FJ37" s="6"/>
+      <c r="FK37" s="6"/>
+      <c r="FL37" s="6"/>
+      <c r="FM37" s="6"/>
+      <c r="FN37" s="6"/>
+      <c r="FO37" s="6"/>
+      <c r="FP37" s="6"/>
+      <c r="FQ37" s="6"/>
+      <c r="FR37" s="6"/>
+      <c r="FS37" s="6"/>
+      <c r="FT37" s="6"/>
+      <c r="FU37" s="6"/>
+      <c r="FV37" s="6"/>
+      <c r="FW37" s="6"/>
+      <c r="FX37" s="6"/>
+      <c r="FY37" s="6"/>
+      <c r="FZ37" s="6"/>
+      <c r="GA37" s="6"/>
+      <c r="GB37" s="6"/>
+      <c r="GC37" s="6"/>
+      <c r="GD37" s="6"/>
+      <c r="GE37" s="6"/>
+      <c r="GF37" s="6"/>
+      <c r="GG37" s="6"/>
+      <c r="GH37" s="6"/>
+      <c r="GI37" s="6"/>
+      <c r="GJ37" s="6"/>
+      <c r="GK37" s="6"/>
+      <c r="GL37" s="6"/>
+      <c r="GM37" s="6"/>
+      <c r="GN37" s="6"/>
+      <c r="GO37" s="6"/>
+      <c r="GP37" s="6"/>
+      <c r="GQ37" s="6"/>
+      <c r="GR37" s="6"/>
+      <c r="GS37" s="6"/>
+      <c r="GT37" s="6"/>
+      <c r="GU37" s="6"/>
+      <c r="GV37" s="6"/>
+      <c r="GW37" s="6"/>
+      <c r="GX37" s="6"/>
+      <c r="GY37" s="6"/>
+      <c r="GZ37" s="6"/>
+      <c r="HA37" s="6"/>
+      <c r="HB37" s="6"/>
+      <c r="HC37" s="6"/>
+      <c r="HD37" s="6"/>
+      <c r="HE37" s="6"/>
+      <c r="HF37" s="6"/>
+      <c r="HG37" s="6"/>
+      <c r="HH37" s="6"/>
+      <c r="HI37" s="6"/>
+      <c r="HJ37" s="6"/>
+      <c r="HK37" s="6"/>
+      <c r="HL37" s="6"/>
+      <c r="HM37" s="6"/>
+      <c r="HN37" s="6"/>
+      <c r="HO37" s="6"/>
+      <c r="HP37" s="6"/>
+      <c r="HQ37" s="6"/>
+      <c r="HR37" s="6"/>
+      <c r="HS37" s="6"/>
+      <c r="HT37" s="6"/>
+      <c r="HU37" s="6"/>
+      <c r="HV37" s="6"/>
+      <c r="HW37" s="6"/>
+      <c r="HX37" s="6"/>
+      <c r="HY37" s="6"/>
+      <c r="HZ37" s="6"/>
+      <c r="IA37" s="6"/>
+      <c r="IB37" s="6"/>
+      <c r="IC37" s="6"/>
+      <c r="ID37" s="6"/>
+      <c r="IE37" s="6"/>
+      <c r="IF37" s="6"/>
+      <c r="IG37" s="6"/>
+      <c r="IH37" s="6"/>
+      <c r="II37" s="6"/>
+      <c r="IJ37" s="6"/>
+      <c r="IK37" s="6"/>
+      <c r="IL37" s="6"/>
+      <c r="IM37" s="6"/>
+      <c r="IN37" s="6"/>
+      <c r="IO37" s="6"/>
+      <c r="IP37" s="6"/>
+      <c r="IQ37" s="6"/>
+      <c r="IR37" s="6"/>
+      <c r="IS37" s="6"/>
+      <c r="IT37" s="6"/>
+      <c r="IU37" s="6"/>
+      <c r="IV37" s="6"/>
+      <c r="IW37" s="6"/>
+      <c r="IX37" s="6"/>
+      <c r="IY37" s="6"/>
+      <c r="IZ37" s="6"/>
+      <c r="JA37" s="6"/>
     </row>
     <row r="38" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B38" s="7" t="str">
-        <f>"VX"&amp;D38&amp;F38</f>
-        <v>VXPD4</v>
+        <f t="shared" si="2"/>
+        <v>VXM</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F38" s="2"/>
       <c r="G38" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>51</v>
+      <c r="H38" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="6"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="6"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="6"/>
+      <c r="BN38" s="6"/>
+      <c r="BO38" s="6"/>
+      <c r="BP38" s="6"/>
+      <c r="BQ38" s="6"/>
+      <c r="BR38" s="6"/>
+      <c r="BS38" s="6"/>
+      <c r="BT38" s="6"/>
+      <c r="BU38" s="6"/>
+      <c r="BV38" s="6"/>
+      <c r="BW38" s="6"/>
+      <c r="BX38" s="6"/>
+      <c r="BY38" s="6"/>
+      <c r="BZ38" s="6"/>
+      <c r="CA38" s="6"/>
+      <c r="CB38" s="6"/>
+      <c r="CC38" s="6"/>
+      <c r="CD38" s="6"/>
+      <c r="CE38" s="6"/>
+      <c r="CF38" s="6"/>
+      <c r="CG38" s="6"/>
+      <c r="CH38" s="6"/>
+      <c r="CI38" s="6"/>
+      <c r="CJ38" s="6"/>
+      <c r="CK38" s="6"/>
+      <c r="CL38" s="6"/>
+      <c r="CM38" s="6"/>
+      <c r="CN38" s="6"/>
+      <c r="CO38" s="6"/>
+      <c r="CP38" s="6"/>
+      <c r="CQ38" s="6"/>
+      <c r="CR38" s="6"/>
+      <c r="CS38" s="6"/>
+      <c r="CT38" s="6"/>
+      <c r="CU38" s="6"/>
+      <c r="CV38" s="6"/>
+      <c r="CW38" s="6"/>
+      <c r="CX38" s="6"/>
+      <c r="CY38" s="6"/>
+      <c r="CZ38" s="6"/>
+      <c r="DA38" s="6"/>
+      <c r="DB38" s="6"/>
+      <c r="DC38" s="6"/>
+      <c r="DD38" s="6"/>
+      <c r="DE38" s="6"/>
+      <c r="DF38" s="6"/>
+      <c r="DG38" s="6"/>
+      <c r="DH38" s="6"/>
+      <c r="DI38" s="6"/>
+      <c r="DJ38" s="6"/>
+      <c r="DK38" s="6"/>
+      <c r="DL38" s="6"/>
+      <c r="DM38" s="6"/>
+      <c r="DN38" s="6"/>
+      <c r="DO38" s="6"/>
+      <c r="DP38" s="6"/>
+      <c r="DQ38" s="6"/>
+      <c r="DR38" s="6"/>
+      <c r="DS38" s="6"/>
+      <c r="DT38" s="6"/>
+      <c r="DU38" s="6"/>
+      <c r="DV38" s="6"/>
+      <c r="DW38" s="6"/>
+      <c r="DX38" s="6"/>
+      <c r="DY38" s="6"/>
+      <c r="DZ38" s="6"/>
+      <c r="EA38" s="6"/>
+      <c r="EB38" s="6"/>
+      <c r="EC38" s="6"/>
+      <c r="ED38" s="6"/>
+      <c r="EE38" s="6"/>
+      <c r="EF38" s="6"/>
+      <c r="EG38" s="6"/>
+      <c r="EH38" s="6"/>
+      <c r="EI38" s="6"/>
+      <c r="EJ38" s="6"/>
+      <c r="EK38" s="6"/>
+      <c r="EL38" s="6"/>
+      <c r="EM38" s="6"/>
+      <c r="EN38" s="6"/>
+      <c r="EO38" s="6"/>
+      <c r="EP38" s="6"/>
+      <c r="EQ38" s="6"/>
+      <c r="ER38" s="6"/>
+      <c r="ES38" s="6"/>
+      <c r="ET38" s="6"/>
+      <c r="EU38" s="6"/>
+      <c r="EV38" s="6"/>
+      <c r="EW38" s="6"/>
+      <c r="EX38" s="6"/>
+      <c r="EY38" s="6"/>
+      <c r="EZ38" s="6"/>
+      <c r="FA38" s="6"/>
+      <c r="FB38" s="6"/>
+      <c r="FC38" s="6"/>
+      <c r="FD38" s="6"/>
+      <c r="FE38" s="6"/>
+      <c r="FF38" s="6"/>
+      <c r="FG38" s="6"/>
+      <c r="FH38" s="6"/>
+      <c r="FI38" s="6"/>
+      <c r="FJ38" s="6"/>
+      <c r="FK38" s="6"/>
+      <c r="FL38" s="6"/>
+      <c r="FM38" s="6"/>
+      <c r="FN38" s="6"/>
+      <c r="FO38" s="6"/>
+      <c r="FP38" s="6"/>
+      <c r="FQ38" s="6"/>
+      <c r="FR38" s="6"/>
+      <c r="FS38" s="6"/>
+      <c r="FT38" s="6"/>
+      <c r="FU38" s="6"/>
+      <c r="FV38" s="6"/>
+      <c r="FW38" s="6"/>
+      <c r="FX38" s="6"/>
+      <c r="FY38" s="6"/>
+      <c r="FZ38" s="6"/>
+      <c r="GA38" s="6"/>
+      <c r="GB38" s="6"/>
+      <c r="GC38" s="6"/>
+      <c r="GD38" s="6"/>
+      <c r="GE38" s="6"/>
+      <c r="GF38" s="6"/>
+      <c r="GG38" s="6"/>
+      <c r="GH38" s="6"/>
+      <c r="GI38" s="6"/>
+      <c r="GJ38" s="6"/>
+      <c r="GK38" s="6"/>
+      <c r="GL38" s="6"/>
+      <c r="GM38" s="6"/>
+      <c r="GN38" s="6"/>
+      <c r="GO38" s="6"/>
+      <c r="GP38" s="6"/>
+      <c r="GQ38" s="6"/>
+      <c r="GR38" s="6"/>
+      <c r="GS38" s="6"/>
+      <c r="GT38" s="6"/>
+      <c r="GU38" s="6"/>
+      <c r="GV38" s="6"/>
+      <c r="GW38" s="6"/>
+      <c r="GX38" s="6"/>
+      <c r="GY38" s="6"/>
+      <c r="GZ38" s="6"/>
+      <c r="HA38" s="6"/>
+      <c r="HB38" s="6"/>
+      <c r="HC38" s="6"/>
+      <c r="HD38" s="6"/>
+      <c r="HE38" s="6"/>
+      <c r="HF38" s="6"/>
+      <c r="HG38" s="6"/>
+      <c r="HH38" s="6"/>
+      <c r="HI38" s="6"/>
+      <c r="HJ38" s="6"/>
+      <c r="HK38" s="6"/>
+      <c r="HL38" s="6"/>
+      <c r="HM38" s="6"/>
+      <c r="HN38" s="6"/>
+      <c r="HO38" s="6"/>
+      <c r="HP38" s="6"/>
+      <c r="HQ38" s="6"/>
+      <c r="HR38" s="6"/>
+      <c r="HS38" s="6"/>
+      <c r="HT38" s="6"/>
+      <c r="HU38" s="6"/>
+      <c r="HV38" s="6"/>
+      <c r="HW38" s="6"/>
+      <c r="HX38" s="6"/>
+      <c r="HY38" s="6"/>
+      <c r="HZ38" s="6"/>
+      <c r="IA38" s="6"/>
+      <c r="IB38" s="6"/>
+      <c r="IC38" s="6"/>
+      <c r="ID38" s="6"/>
+      <c r="IE38" s="6"/>
+      <c r="IF38" s="6"/>
+      <c r="IG38" s="6"/>
+      <c r="IH38" s="6"/>
+      <c r="II38" s="6"/>
+      <c r="IJ38" s="6"/>
+      <c r="IK38" s="6"/>
+      <c r="IL38" s="6"/>
+      <c r="IM38" s="6"/>
+      <c r="IN38" s="6"/>
+      <c r="IO38" s="6"/>
+      <c r="IP38" s="6"/>
+      <c r="IQ38" s="6"/>
+      <c r="IR38" s="6"/>
+      <c r="IS38" s="6"/>
+      <c r="IT38" s="6"/>
+      <c r="IU38" s="6"/>
+      <c r="IV38" s="6"/>
+      <c r="IW38" s="6"/>
+      <c r="IX38" s="6"/>
+      <c r="IY38" s="6"/>
+      <c r="IZ38" s="6"/>
+      <c r="JA38" s="6"/>
     </row>
     <row r="39" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B39" s="7" t="str">
-        <f>"VX"&amp;D39&amp;F39</f>
-        <v>VXPD5</v>
+        <f t="shared" si="2"/>
+        <v>VXP?</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>143</v>
@@ -6691,31 +7439,27 @@
         <v>143</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B40" s="7" t="str">
-        <f>"VX"&amp;D40&amp;F40</f>
-        <v>VXPDA</v>
+        <f t="shared" si="2"/>
+        <v>VXPD3</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>143</v>
@@ -6727,13 +7471,13 @@
         <v>143</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>143</v>
@@ -6741,15 +7485,17 @@
       <c r="J40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B41" s="7" t="str">
-        <f>"VX"&amp;D41&amp;F41</f>
-        <v>VXPDDx</v>
+        <f t="shared" si="2"/>
+        <v>VXPD4</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>143</v>
@@ -6761,22 +7507,22 @@
         <v>143</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6784,8 +7530,8 @@
         <v>143</v>
       </c>
       <c r="B42" s="7" t="str">
-        <f>"VX"&amp;D42&amp;F42</f>
-        <v>VXPDH</v>
+        <f t="shared" si="2"/>
+        <v>VXPD5</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>143</v>
@@ -6797,13 +7543,13 @@
         <v>143</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I42" s="7" t="s">
         <v>143</v>
@@ -6814,264 +7560,14 @@
       <c r="K42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="6"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="6"/>
-      <c r="AQ42" s="6"/>
-      <c r="AR42" s="6"/>
-      <c r="AS42" s="6"/>
-      <c r="AT42" s="6"/>
-      <c r="AU42" s="6"/>
-      <c r="AV42" s="6"/>
-      <c r="AW42" s="6"/>
-      <c r="AX42" s="6"/>
-      <c r="AY42" s="6"/>
-      <c r="AZ42" s="6"/>
-      <c r="BA42" s="6"/>
-      <c r="BB42" s="6"/>
-      <c r="BC42" s="6"/>
-      <c r="BD42" s="6"/>
-      <c r="BE42" s="6"/>
-      <c r="BF42" s="6"/>
-      <c r="BG42" s="6"/>
-      <c r="BH42" s="6"/>
-      <c r="BI42" s="6"/>
-      <c r="BJ42" s="6"/>
-      <c r="BK42" s="6"/>
-      <c r="BL42" s="6"/>
-      <c r="BM42" s="6"/>
-      <c r="BN42" s="6"/>
-      <c r="BO42" s="6"/>
-      <c r="BP42" s="6"/>
-      <c r="BQ42" s="6"/>
-      <c r="BR42" s="6"/>
-      <c r="BS42" s="6"/>
-      <c r="BT42" s="6"/>
-      <c r="BU42" s="6"/>
-      <c r="BV42" s="6"/>
-      <c r="BW42" s="6"/>
-      <c r="BX42" s="6"/>
-      <c r="BY42" s="6"/>
-      <c r="BZ42" s="6"/>
-      <c r="CA42" s="6"/>
-      <c r="CB42" s="6"/>
-      <c r="CC42" s="6"/>
-      <c r="CD42" s="6"/>
-      <c r="CE42" s="6"/>
-      <c r="CF42" s="6"/>
-      <c r="CG42" s="6"/>
-      <c r="CH42" s="6"/>
-      <c r="CI42" s="6"/>
-      <c r="CJ42" s="6"/>
-      <c r="CK42" s="6"/>
-      <c r="CL42" s="6"/>
-      <c r="CM42" s="6"/>
-      <c r="CN42" s="6"/>
-      <c r="CO42" s="6"/>
-      <c r="CP42" s="6"/>
-      <c r="CQ42" s="6"/>
-      <c r="CR42" s="6"/>
-      <c r="CS42" s="6"/>
-      <c r="CT42" s="6"/>
-      <c r="CU42" s="6"/>
-      <c r="CV42" s="6"/>
-      <c r="CW42" s="6"/>
-      <c r="CX42" s="6"/>
-      <c r="CY42" s="6"/>
-      <c r="CZ42" s="6"/>
-      <c r="DA42" s="6"/>
-      <c r="DB42" s="6"/>
-      <c r="DC42" s="6"/>
-      <c r="DD42" s="6"/>
-      <c r="DE42" s="6"/>
-      <c r="DF42" s="6"/>
-      <c r="DG42" s="6"/>
-      <c r="DH42" s="6"/>
-      <c r="DI42" s="6"/>
-      <c r="DJ42" s="6"/>
-      <c r="DK42" s="6"/>
-      <c r="DL42" s="6"/>
-      <c r="DM42" s="6"/>
-      <c r="DN42" s="6"/>
-      <c r="DO42" s="6"/>
-      <c r="DP42" s="6"/>
-      <c r="DQ42" s="6"/>
-      <c r="DR42" s="6"/>
-      <c r="DS42" s="6"/>
-      <c r="DT42" s="6"/>
-      <c r="DU42" s="6"/>
-      <c r="DV42" s="6"/>
-      <c r="DW42" s="6"/>
-      <c r="DX42" s="6"/>
-      <c r="DY42" s="6"/>
-      <c r="DZ42" s="6"/>
-      <c r="EA42" s="6"/>
-      <c r="EB42" s="6"/>
-      <c r="EC42" s="6"/>
-      <c r="ED42" s="6"/>
-      <c r="EE42" s="6"/>
-      <c r="EF42" s="6"/>
-      <c r="EG42" s="6"/>
-      <c r="EH42" s="6"/>
-      <c r="EI42" s="6"/>
-      <c r="EJ42" s="6"/>
-      <c r="EK42" s="6"/>
-      <c r="EL42" s="6"/>
-      <c r="EM42" s="6"/>
-      <c r="EN42" s="6"/>
-      <c r="EO42" s="6"/>
-      <c r="EP42" s="6"/>
-      <c r="EQ42" s="6"/>
-      <c r="ER42" s="6"/>
-      <c r="ES42" s="6"/>
-      <c r="ET42" s="6"/>
-      <c r="EU42" s="6"/>
-      <c r="EV42" s="6"/>
-      <c r="EW42" s="6"/>
-      <c r="EX42" s="6"/>
-      <c r="EY42" s="6"/>
-      <c r="EZ42" s="6"/>
-      <c r="FA42" s="6"/>
-      <c r="FB42" s="6"/>
-      <c r="FC42" s="6"/>
-      <c r="FD42" s="6"/>
-      <c r="FE42" s="6"/>
-      <c r="FF42" s="6"/>
-      <c r="FG42" s="6"/>
-      <c r="FH42" s="6"/>
-      <c r="FI42" s="6"/>
-      <c r="FJ42" s="6"/>
-      <c r="FK42" s="6"/>
-      <c r="FL42" s="6"/>
-      <c r="FM42" s="6"/>
-      <c r="FN42" s="6"/>
-      <c r="FO42" s="6"/>
-      <c r="FP42" s="6"/>
-      <c r="FQ42" s="6"/>
-      <c r="FR42" s="6"/>
-      <c r="FS42" s="6"/>
-      <c r="FT42" s="6"/>
-      <c r="FU42" s="6"/>
-      <c r="FV42" s="6"/>
-      <c r="FW42" s="6"/>
-      <c r="FX42" s="6"/>
-      <c r="FY42" s="6"/>
-      <c r="FZ42" s="6"/>
-      <c r="GA42" s="6"/>
-      <c r="GB42" s="6"/>
-      <c r="GC42" s="6"/>
-      <c r="GD42" s="6"/>
-      <c r="GE42" s="6"/>
-      <c r="GF42" s="6"/>
-      <c r="GG42" s="6"/>
-      <c r="GH42" s="6"/>
-      <c r="GI42" s="6"/>
-      <c r="GJ42" s="6"/>
-      <c r="GK42" s="6"/>
-      <c r="GL42" s="6"/>
-      <c r="GM42" s="6"/>
-      <c r="GN42" s="6"/>
-      <c r="GO42" s="6"/>
-      <c r="GP42" s="6"/>
-      <c r="GQ42" s="6"/>
-      <c r="GR42" s="6"/>
-      <c r="GS42" s="6"/>
-      <c r="GT42" s="6"/>
-      <c r="GU42" s="6"/>
-      <c r="GV42" s="6"/>
-      <c r="GW42" s="6"/>
-      <c r="GX42" s="6"/>
-      <c r="GY42" s="6"/>
-      <c r="GZ42" s="6"/>
-      <c r="HA42" s="6"/>
-      <c r="HB42" s="6"/>
-      <c r="HC42" s="6"/>
-      <c r="HD42" s="6"/>
-      <c r="HE42" s="6"/>
-      <c r="HF42" s="6"/>
-      <c r="HG42" s="6"/>
-      <c r="HH42" s="6"/>
-      <c r="HI42" s="6"/>
-      <c r="HJ42" s="6"/>
-      <c r="HK42" s="6"/>
-      <c r="HL42" s="6"/>
-      <c r="HM42" s="6"/>
-      <c r="HN42" s="6"/>
-      <c r="HO42" s="6"/>
-      <c r="HP42" s="6"/>
-      <c r="HQ42" s="6"/>
-      <c r="HR42" s="6"/>
-      <c r="HS42" s="6"/>
-      <c r="HT42" s="6"/>
-      <c r="HU42" s="6"/>
-      <c r="HV42" s="6"/>
-      <c r="HW42" s="6"/>
-      <c r="HX42" s="6"/>
-      <c r="HY42" s="6"/>
-      <c r="HZ42" s="6"/>
-      <c r="IA42" s="6"/>
-      <c r="IB42" s="6"/>
-      <c r="IC42" s="6"/>
-      <c r="ID42" s="6"/>
-      <c r="IE42" s="6"/>
-      <c r="IF42" s="6"/>
-      <c r="IG42" s="6"/>
-      <c r="IH42" s="6"/>
-      <c r="II42" s="6"/>
-      <c r="IJ42" s="6"/>
-      <c r="IK42" s="6"/>
-      <c r="IL42" s="6"/>
-      <c r="IM42" s="6"/>
-      <c r="IN42" s="6"/>
-      <c r="IO42" s="6"/>
-      <c r="IP42" s="6"/>
-      <c r="IQ42" s="6"/>
-      <c r="IR42" s="6"/>
-      <c r="IS42" s="6"/>
-      <c r="IT42" s="6"/>
-      <c r="IU42" s="6"/>
-      <c r="IV42" s="6"/>
-      <c r="IW42" s="6"/>
-      <c r="IX42" s="6"/>
-      <c r="IY42" s="6"/>
-      <c r="IZ42" s="6"/>
-      <c r="JA42" s="6"/>
     </row>
     <row r="43" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B43" s="7" t="str">
-        <f>"VX"&amp;D43&amp;F43</f>
-        <v>VXPE3</v>
+        <f t="shared" si="2"/>
+        <v>VXPDA</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>143</v>
@@ -7083,29 +7579,29 @@
         <v>143</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B44" s="7" t="str">
-        <f>"VX"&amp;D44&amp;F44</f>
-        <v>VXPE4</v>
+        <f t="shared" si="2"/>
+        <v>VXPDDx</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>143</v>
@@ -7117,20 +7613,22 @@
         <v>143</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J44" s="3"/>
+      <c r="J44" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="K44" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7138,8 +7636,8 @@
         <v>143</v>
       </c>
       <c r="B45" s="7" t="str">
-        <f>"VX"&amp;D45&amp;F45</f>
-        <v>VXPE5</v>
+        <f t="shared" si="2"/>
+        <v>VXPDH</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>143</v>
@@ -7151,29 +7649,281 @@
         <v>143</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J45" s="3"/>
+      <c r="J45" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="K45" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="6"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AJ45" s="6"/>
+      <c r="AK45" s="6"/>
+      <c r="AL45" s="6"/>
+      <c r="AM45" s="6"/>
+      <c r="AN45" s="6"/>
+      <c r="AO45" s="6"/>
+      <c r="AP45" s="6"/>
+      <c r="AQ45" s="6"/>
+      <c r="AR45" s="6"/>
+      <c r="AS45" s="6"/>
+      <c r="AT45" s="6"/>
+      <c r="AU45" s="6"/>
+      <c r="AV45" s="6"/>
+      <c r="AW45" s="6"/>
+      <c r="AX45" s="6"/>
+      <c r="AY45" s="6"/>
+      <c r="AZ45" s="6"/>
+      <c r="BA45" s="6"/>
+      <c r="BB45" s="6"/>
+      <c r="BC45" s="6"/>
+      <c r="BD45" s="6"/>
+      <c r="BE45" s="6"/>
+      <c r="BF45" s="6"/>
+      <c r="BG45" s="6"/>
+      <c r="BH45" s="6"/>
+      <c r="BI45" s="6"/>
+      <c r="BJ45" s="6"/>
+      <c r="BK45" s="6"/>
+      <c r="BL45" s="6"/>
+      <c r="BM45" s="6"/>
+      <c r="BN45" s="6"/>
+      <c r="BO45" s="6"/>
+      <c r="BP45" s="6"/>
+      <c r="BQ45" s="6"/>
+      <c r="BR45" s="6"/>
+      <c r="BS45" s="6"/>
+      <c r="BT45" s="6"/>
+      <c r="BU45" s="6"/>
+      <c r="BV45" s="6"/>
+      <c r="BW45" s="6"/>
+      <c r="BX45" s="6"/>
+      <c r="BY45" s="6"/>
+      <c r="BZ45" s="6"/>
+      <c r="CA45" s="6"/>
+      <c r="CB45" s="6"/>
+      <c r="CC45" s="6"/>
+      <c r="CD45" s="6"/>
+      <c r="CE45" s="6"/>
+      <c r="CF45" s="6"/>
+      <c r="CG45" s="6"/>
+      <c r="CH45" s="6"/>
+      <c r="CI45" s="6"/>
+      <c r="CJ45" s="6"/>
+      <c r="CK45" s="6"/>
+      <c r="CL45" s="6"/>
+      <c r="CM45" s="6"/>
+      <c r="CN45" s="6"/>
+      <c r="CO45" s="6"/>
+      <c r="CP45" s="6"/>
+      <c r="CQ45" s="6"/>
+      <c r="CR45" s="6"/>
+      <c r="CS45" s="6"/>
+      <c r="CT45" s="6"/>
+      <c r="CU45" s="6"/>
+      <c r="CV45" s="6"/>
+      <c r="CW45" s="6"/>
+      <c r="CX45" s="6"/>
+      <c r="CY45" s="6"/>
+      <c r="CZ45" s="6"/>
+      <c r="DA45" s="6"/>
+      <c r="DB45" s="6"/>
+      <c r="DC45" s="6"/>
+      <c r="DD45" s="6"/>
+      <c r="DE45" s="6"/>
+      <c r="DF45" s="6"/>
+      <c r="DG45" s="6"/>
+      <c r="DH45" s="6"/>
+      <c r="DI45" s="6"/>
+      <c r="DJ45" s="6"/>
+      <c r="DK45" s="6"/>
+      <c r="DL45" s="6"/>
+      <c r="DM45" s="6"/>
+      <c r="DN45" s="6"/>
+      <c r="DO45" s="6"/>
+      <c r="DP45" s="6"/>
+      <c r="DQ45" s="6"/>
+      <c r="DR45" s="6"/>
+      <c r="DS45" s="6"/>
+      <c r="DT45" s="6"/>
+      <c r="DU45" s="6"/>
+      <c r="DV45" s="6"/>
+      <c r="DW45" s="6"/>
+      <c r="DX45" s="6"/>
+      <c r="DY45" s="6"/>
+      <c r="DZ45" s="6"/>
+      <c r="EA45" s="6"/>
+      <c r="EB45" s="6"/>
+      <c r="EC45" s="6"/>
+      <c r="ED45" s="6"/>
+      <c r="EE45" s="6"/>
+      <c r="EF45" s="6"/>
+      <c r="EG45" s="6"/>
+      <c r="EH45" s="6"/>
+      <c r="EI45" s="6"/>
+      <c r="EJ45" s="6"/>
+      <c r="EK45" s="6"/>
+      <c r="EL45" s="6"/>
+      <c r="EM45" s="6"/>
+      <c r="EN45" s="6"/>
+      <c r="EO45" s="6"/>
+      <c r="EP45" s="6"/>
+      <c r="EQ45" s="6"/>
+      <c r="ER45" s="6"/>
+      <c r="ES45" s="6"/>
+      <c r="ET45" s="6"/>
+      <c r="EU45" s="6"/>
+      <c r="EV45" s="6"/>
+      <c r="EW45" s="6"/>
+      <c r="EX45" s="6"/>
+      <c r="EY45" s="6"/>
+      <c r="EZ45" s="6"/>
+      <c r="FA45" s="6"/>
+      <c r="FB45" s="6"/>
+      <c r="FC45" s="6"/>
+      <c r="FD45" s="6"/>
+      <c r="FE45" s="6"/>
+      <c r="FF45" s="6"/>
+      <c r="FG45" s="6"/>
+      <c r="FH45" s="6"/>
+      <c r="FI45" s="6"/>
+      <c r="FJ45" s="6"/>
+      <c r="FK45" s="6"/>
+      <c r="FL45" s="6"/>
+      <c r="FM45" s="6"/>
+      <c r="FN45" s="6"/>
+      <c r="FO45" s="6"/>
+      <c r="FP45" s="6"/>
+      <c r="FQ45" s="6"/>
+      <c r="FR45" s="6"/>
+      <c r="FS45" s="6"/>
+      <c r="FT45" s="6"/>
+      <c r="FU45" s="6"/>
+      <c r="FV45" s="6"/>
+      <c r="FW45" s="6"/>
+      <c r="FX45" s="6"/>
+      <c r="FY45" s="6"/>
+      <c r="FZ45" s="6"/>
+      <c r="GA45" s="6"/>
+      <c r="GB45" s="6"/>
+      <c r="GC45" s="6"/>
+      <c r="GD45" s="6"/>
+      <c r="GE45" s="6"/>
+      <c r="GF45" s="6"/>
+      <c r="GG45" s="6"/>
+      <c r="GH45" s="6"/>
+      <c r="GI45" s="6"/>
+      <c r="GJ45" s="6"/>
+      <c r="GK45" s="6"/>
+      <c r="GL45" s="6"/>
+      <c r="GM45" s="6"/>
+      <c r="GN45" s="6"/>
+      <c r="GO45" s="6"/>
+      <c r="GP45" s="6"/>
+      <c r="GQ45" s="6"/>
+      <c r="GR45" s="6"/>
+      <c r="GS45" s="6"/>
+      <c r="GT45" s="6"/>
+      <c r="GU45" s="6"/>
+      <c r="GV45" s="6"/>
+      <c r="GW45" s="6"/>
+      <c r="GX45" s="6"/>
+      <c r="GY45" s="6"/>
+      <c r="GZ45" s="6"/>
+      <c r="HA45" s="6"/>
+      <c r="HB45" s="6"/>
+      <c r="HC45" s="6"/>
+      <c r="HD45" s="6"/>
+      <c r="HE45" s="6"/>
+      <c r="HF45" s="6"/>
+      <c r="HG45" s="6"/>
+      <c r="HH45" s="6"/>
+      <c r="HI45" s="6"/>
+      <c r="HJ45" s="6"/>
+      <c r="HK45" s="6"/>
+      <c r="HL45" s="6"/>
+      <c r="HM45" s="6"/>
+      <c r="HN45" s="6"/>
+      <c r="HO45" s="6"/>
+      <c r="HP45" s="6"/>
+      <c r="HQ45" s="6"/>
+      <c r="HR45" s="6"/>
+      <c r="HS45" s="6"/>
+      <c r="HT45" s="6"/>
+      <c r="HU45" s="6"/>
+      <c r="HV45" s="6"/>
+      <c r="HW45" s="6"/>
+      <c r="HX45" s="6"/>
+      <c r="HY45" s="6"/>
+      <c r="HZ45" s="6"/>
+      <c r="IA45" s="6"/>
+      <c r="IB45" s="6"/>
+      <c r="IC45" s="6"/>
+      <c r="ID45" s="6"/>
+      <c r="IE45" s="6"/>
+      <c r="IF45" s="6"/>
+      <c r="IG45" s="6"/>
+      <c r="IH45" s="6"/>
+      <c r="II45" s="6"/>
+      <c r="IJ45" s="6"/>
+      <c r="IK45" s="6"/>
+      <c r="IL45" s="6"/>
+      <c r="IM45" s="6"/>
+      <c r="IN45" s="6"/>
+      <c r="IO45" s="6"/>
+      <c r="IP45" s="6"/>
+      <c r="IQ45" s="6"/>
+      <c r="IR45" s="6"/>
+      <c r="IS45" s="6"/>
+      <c r="IT45" s="6"/>
+      <c r="IU45" s="6"/>
+      <c r="IV45" s="6"/>
+      <c r="IW45" s="6"/>
+      <c r="IX45" s="6"/>
+      <c r="IY45" s="6"/>
+      <c r="IZ45" s="6"/>
+      <c r="JA45" s="6"/>
     </row>
     <row r="46" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="7" t="str">
-        <f>"VX"&amp;D46&amp;F46</f>
-        <v>VXPEH</v>
+        <f t="shared" si="2"/>
+        <v>VXPE3</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>143</v>
@@ -7185,13 +7935,13 @@
         <v>143</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>143</v>
@@ -7206,8 +7956,8 @@
         <v>143</v>
       </c>
       <c r="B47" s="7" t="str">
-        <f>"VX"&amp;D47&amp;F47</f>
-        <v>VXPH</v>
+        <f t="shared" si="2"/>
+        <v>VXPE4</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>143</v>
@@ -7219,27 +7969,29 @@
         <v>143</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="7" t="str">
-        <f>"VX"&amp;D48&amp;F48</f>
-        <v>VXPL</v>
+        <f t="shared" si="2"/>
+        <v>VXPE5</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>143</v>
@@ -7251,27 +8003,29 @@
         <v>143</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="49" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B49" s="7" t="str">
-        <f>"VX"&amp;D49&amp;F49</f>
-        <v>VXPQ</v>
+        <f t="shared" si="2"/>
+        <v>VXPEH</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>143</v>
@@ -7283,279 +8037,29 @@
         <v>143</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-      <c r="AB49" s="6"/>
-      <c r="AC49" s="6"/>
-      <c r="AD49" s="6"/>
-      <c r="AE49" s="6"/>
-      <c r="AF49" s="6"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="6"/>
-      <c r="AI49" s="6"/>
-      <c r="AJ49" s="6"/>
-      <c r="AK49" s="6"/>
-      <c r="AL49" s="6"/>
-      <c r="AM49" s="6"/>
-      <c r="AN49" s="6"/>
-      <c r="AO49" s="6"/>
-      <c r="AP49" s="6"/>
-      <c r="AQ49" s="6"/>
-      <c r="AR49" s="6"/>
-      <c r="AS49" s="6"/>
-      <c r="AT49" s="6"/>
-      <c r="AU49" s="6"/>
-      <c r="AV49" s="6"/>
-      <c r="AW49" s="6"/>
-      <c r="AX49" s="6"/>
-      <c r="AY49" s="6"/>
-      <c r="AZ49" s="6"/>
-      <c r="BA49" s="6"/>
-      <c r="BB49" s="6"/>
-      <c r="BC49" s="6"/>
-      <c r="BD49" s="6"/>
-      <c r="BE49" s="6"/>
-      <c r="BF49" s="6"/>
-      <c r="BG49" s="6"/>
-      <c r="BH49" s="6"/>
-      <c r="BI49" s="6"/>
-      <c r="BJ49" s="6"/>
-      <c r="BK49" s="6"/>
-      <c r="BL49" s="6"/>
-      <c r="BM49" s="6"/>
-      <c r="BN49" s="6"/>
-      <c r="BO49" s="6"/>
-      <c r="BP49" s="6"/>
-      <c r="BQ49" s="6"/>
-      <c r="BR49" s="6"/>
-      <c r="BS49" s="6"/>
-      <c r="BT49" s="6"/>
-      <c r="BU49" s="6"/>
-      <c r="BV49" s="6"/>
-      <c r="BW49" s="6"/>
-      <c r="BX49" s="6"/>
-      <c r="BY49" s="6"/>
-      <c r="BZ49" s="6"/>
-      <c r="CA49" s="6"/>
-      <c r="CB49" s="6"/>
-      <c r="CC49" s="6"/>
-      <c r="CD49" s="6"/>
-      <c r="CE49" s="6"/>
-      <c r="CF49" s="6"/>
-      <c r="CG49" s="6"/>
-      <c r="CH49" s="6"/>
-      <c r="CI49" s="6"/>
-      <c r="CJ49" s="6"/>
-      <c r="CK49" s="6"/>
-      <c r="CL49" s="6"/>
-      <c r="CM49" s="6"/>
-      <c r="CN49" s="6"/>
-      <c r="CO49" s="6"/>
-      <c r="CP49" s="6"/>
-      <c r="CQ49" s="6"/>
-      <c r="CR49" s="6"/>
-      <c r="CS49" s="6"/>
-      <c r="CT49" s="6"/>
-      <c r="CU49" s="6"/>
-      <c r="CV49" s="6"/>
-      <c r="CW49" s="6"/>
-      <c r="CX49" s="6"/>
-      <c r="CY49" s="6"/>
-      <c r="CZ49" s="6"/>
-      <c r="DA49" s="6"/>
-      <c r="DB49" s="6"/>
-      <c r="DC49" s="6"/>
-      <c r="DD49" s="6"/>
-      <c r="DE49" s="6"/>
-      <c r="DF49" s="6"/>
-      <c r="DG49" s="6"/>
-      <c r="DH49" s="6"/>
-      <c r="DI49" s="6"/>
-      <c r="DJ49" s="6"/>
-      <c r="DK49" s="6"/>
-      <c r="DL49" s="6"/>
-      <c r="DM49" s="6"/>
-      <c r="DN49" s="6"/>
-      <c r="DO49" s="6"/>
-      <c r="DP49" s="6"/>
-      <c r="DQ49" s="6"/>
-      <c r="DR49" s="6"/>
-      <c r="DS49" s="6"/>
-      <c r="DT49" s="6"/>
-      <c r="DU49" s="6"/>
-      <c r="DV49" s="6"/>
-      <c r="DW49" s="6"/>
-      <c r="DX49" s="6"/>
-      <c r="DY49" s="6"/>
-      <c r="DZ49" s="6"/>
-      <c r="EA49" s="6"/>
-      <c r="EB49" s="6"/>
-      <c r="EC49" s="6"/>
-      <c r="ED49" s="6"/>
-      <c r="EE49" s="6"/>
-      <c r="EF49" s="6"/>
-      <c r="EG49" s="6"/>
-      <c r="EH49" s="6"/>
-      <c r="EI49" s="6"/>
-      <c r="EJ49" s="6"/>
-      <c r="EK49" s="6"/>
-      <c r="EL49" s="6"/>
-      <c r="EM49" s="6"/>
-      <c r="EN49" s="6"/>
-      <c r="EO49" s="6"/>
-      <c r="EP49" s="6"/>
-      <c r="EQ49" s="6"/>
-      <c r="ER49" s="6"/>
-      <c r="ES49" s="6"/>
-      <c r="ET49" s="6"/>
-      <c r="EU49" s="6"/>
-      <c r="EV49" s="6"/>
-      <c r="EW49" s="6"/>
-      <c r="EX49" s="6"/>
-      <c r="EY49" s="6"/>
-      <c r="EZ49" s="6"/>
-      <c r="FA49" s="6"/>
-      <c r="FB49" s="6"/>
-      <c r="FC49" s="6"/>
-      <c r="FD49" s="6"/>
-      <c r="FE49" s="6"/>
-      <c r="FF49" s="6"/>
-      <c r="FG49" s="6"/>
-      <c r="FH49" s="6"/>
-      <c r="FI49" s="6"/>
-      <c r="FJ49" s="6"/>
-      <c r="FK49" s="6"/>
-      <c r="FL49" s="6"/>
-      <c r="FM49" s="6"/>
-      <c r="FN49" s="6"/>
-      <c r="FO49" s="6"/>
-      <c r="FP49" s="6"/>
-      <c r="FQ49" s="6"/>
-      <c r="FR49" s="6"/>
-      <c r="FS49" s="6"/>
-      <c r="FT49" s="6"/>
-      <c r="FU49" s="6"/>
-      <c r="FV49" s="6"/>
-      <c r="FW49" s="6"/>
-      <c r="FX49" s="6"/>
-      <c r="FY49" s="6"/>
-      <c r="FZ49" s="6"/>
-      <c r="GA49" s="6"/>
-      <c r="GB49" s="6"/>
-      <c r="GC49" s="6"/>
-      <c r="GD49" s="6"/>
-      <c r="GE49" s="6"/>
-      <c r="GF49" s="6"/>
-      <c r="GG49" s="6"/>
-      <c r="GH49" s="6"/>
-      <c r="GI49" s="6"/>
-      <c r="GJ49" s="6"/>
-      <c r="GK49" s="6"/>
-      <c r="GL49" s="6"/>
-      <c r="GM49" s="6"/>
-      <c r="GN49" s="6"/>
-      <c r="GO49" s="6"/>
-      <c r="GP49" s="6"/>
-      <c r="GQ49" s="6"/>
-      <c r="GR49" s="6"/>
-      <c r="GS49" s="6"/>
-      <c r="GT49" s="6"/>
-      <c r="GU49" s="6"/>
-      <c r="GV49" s="6"/>
-      <c r="GW49" s="6"/>
-      <c r="GX49" s="6"/>
-      <c r="GY49" s="6"/>
-      <c r="GZ49" s="6"/>
-      <c r="HA49" s="6"/>
-      <c r="HB49" s="6"/>
-      <c r="HC49" s="6"/>
-      <c r="HD49" s="6"/>
-      <c r="HE49" s="6"/>
-      <c r="HF49" s="6"/>
-      <c r="HG49" s="6"/>
-      <c r="HH49" s="6"/>
-      <c r="HI49" s="6"/>
-      <c r="HJ49" s="6"/>
-      <c r="HK49" s="6"/>
-      <c r="HL49" s="6"/>
-      <c r="HM49" s="6"/>
-      <c r="HN49" s="6"/>
-      <c r="HO49" s="6"/>
-      <c r="HP49" s="6"/>
-      <c r="HQ49" s="6"/>
-      <c r="HR49" s="6"/>
-      <c r="HS49" s="6"/>
-      <c r="HT49" s="6"/>
-      <c r="HU49" s="6"/>
-      <c r="HV49" s="6"/>
-      <c r="HW49" s="6"/>
-      <c r="HX49" s="6"/>
-      <c r="HY49" s="6"/>
-      <c r="HZ49" s="6"/>
-      <c r="IA49" s="6"/>
-      <c r="IB49" s="6"/>
-      <c r="IC49" s="6"/>
-      <c r="ID49" s="6"/>
-      <c r="IE49" s="6"/>
-      <c r="IF49" s="6"/>
-      <c r="IG49" s="6"/>
-      <c r="IH49" s="6"/>
-      <c r="II49" s="6"/>
-      <c r="IJ49" s="6"/>
-      <c r="IK49" s="6"/>
-      <c r="IL49" s="6"/>
-      <c r="IM49" s="6"/>
-      <c r="IN49" s="6"/>
-      <c r="IO49" s="6"/>
-      <c r="IP49" s="6"/>
-      <c r="IQ49" s="6"/>
-      <c r="IR49" s="6"/>
-      <c r="IS49" s="6"/>
-      <c r="IT49" s="6"/>
-      <c r="IU49" s="6"/>
-      <c r="IV49" s="6"/>
-      <c r="IW49" s="6"/>
-      <c r="IX49" s="6"/>
-      <c r="IY49" s="6"/>
-      <c r="IZ49" s="6"/>
-      <c r="JA49" s="6"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B50" s="7" t="str">
-        <f>"VX"&amp;D50&amp;F50</f>
-        <v>VXPR</v>
+        <f t="shared" si="2"/>
+        <v>VXPH</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>143</v>
@@ -7567,277 +8071,27 @@
         <v>143</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="I50" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="6"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="6"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="6"/>
-      <c r="AQ50" s="6"/>
-      <c r="AR50" s="6"/>
-      <c r="AS50" s="6"/>
-      <c r="AT50" s="6"/>
-      <c r="AU50" s="6"/>
-      <c r="AV50" s="6"/>
-      <c r="AW50" s="6"/>
-      <c r="AX50" s="6"/>
-      <c r="AY50" s="6"/>
-      <c r="AZ50" s="6"/>
-      <c r="BA50" s="6"/>
-      <c r="BB50" s="6"/>
-      <c r="BC50" s="6"/>
-      <c r="BD50" s="6"/>
-      <c r="BE50" s="6"/>
-      <c r="BF50" s="6"/>
-      <c r="BG50" s="6"/>
-      <c r="BH50" s="6"/>
-      <c r="BI50" s="6"/>
-      <c r="BJ50" s="6"/>
-      <c r="BK50" s="6"/>
-      <c r="BL50" s="6"/>
-      <c r="BM50" s="6"/>
-      <c r="BN50" s="6"/>
-      <c r="BO50" s="6"/>
-      <c r="BP50" s="6"/>
-      <c r="BQ50" s="6"/>
-      <c r="BR50" s="6"/>
-      <c r="BS50" s="6"/>
-      <c r="BT50" s="6"/>
-      <c r="BU50" s="6"/>
-      <c r="BV50" s="6"/>
-      <c r="BW50" s="6"/>
-      <c r="BX50" s="6"/>
-      <c r="BY50" s="6"/>
-      <c r="BZ50" s="6"/>
-      <c r="CA50" s="6"/>
-      <c r="CB50" s="6"/>
-      <c r="CC50" s="6"/>
-      <c r="CD50" s="6"/>
-      <c r="CE50" s="6"/>
-      <c r="CF50" s="6"/>
-      <c r="CG50" s="6"/>
-      <c r="CH50" s="6"/>
-      <c r="CI50" s="6"/>
-      <c r="CJ50" s="6"/>
-      <c r="CK50" s="6"/>
-      <c r="CL50" s="6"/>
-      <c r="CM50" s="6"/>
-      <c r="CN50" s="6"/>
-      <c r="CO50" s="6"/>
-      <c r="CP50" s="6"/>
-      <c r="CQ50" s="6"/>
-      <c r="CR50" s="6"/>
-      <c r="CS50" s="6"/>
-      <c r="CT50" s="6"/>
-      <c r="CU50" s="6"/>
-      <c r="CV50" s="6"/>
-      <c r="CW50" s="6"/>
-      <c r="CX50" s="6"/>
-      <c r="CY50" s="6"/>
-      <c r="CZ50" s="6"/>
-      <c r="DA50" s="6"/>
-      <c r="DB50" s="6"/>
-      <c r="DC50" s="6"/>
-      <c r="DD50" s="6"/>
-      <c r="DE50" s="6"/>
-      <c r="DF50" s="6"/>
-      <c r="DG50" s="6"/>
-      <c r="DH50" s="6"/>
-      <c r="DI50" s="6"/>
-      <c r="DJ50" s="6"/>
-      <c r="DK50" s="6"/>
-      <c r="DL50" s="6"/>
-      <c r="DM50" s="6"/>
-      <c r="DN50" s="6"/>
-      <c r="DO50" s="6"/>
-      <c r="DP50" s="6"/>
-      <c r="DQ50" s="6"/>
-      <c r="DR50" s="6"/>
-      <c r="DS50" s="6"/>
-      <c r="DT50" s="6"/>
-      <c r="DU50" s="6"/>
-      <c r="DV50" s="6"/>
-      <c r="DW50" s="6"/>
-      <c r="DX50" s="6"/>
-      <c r="DY50" s="6"/>
-      <c r="DZ50" s="6"/>
-      <c r="EA50" s="6"/>
-      <c r="EB50" s="6"/>
-      <c r="EC50" s="6"/>
-      <c r="ED50" s="6"/>
-      <c r="EE50" s="6"/>
-      <c r="EF50" s="6"/>
-      <c r="EG50" s="6"/>
-      <c r="EH50" s="6"/>
-      <c r="EI50" s="6"/>
-      <c r="EJ50" s="6"/>
-      <c r="EK50" s="6"/>
-      <c r="EL50" s="6"/>
-      <c r="EM50" s="6"/>
-      <c r="EN50" s="6"/>
-      <c r="EO50" s="6"/>
-      <c r="EP50" s="6"/>
-      <c r="EQ50" s="6"/>
-      <c r="ER50" s="6"/>
-      <c r="ES50" s="6"/>
-      <c r="ET50" s="6"/>
-      <c r="EU50" s="6"/>
-      <c r="EV50" s="6"/>
-      <c r="EW50" s="6"/>
-      <c r="EX50" s="6"/>
-      <c r="EY50" s="6"/>
-      <c r="EZ50" s="6"/>
-      <c r="FA50" s="6"/>
-      <c r="FB50" s="6"/>
-      <c r="FC50" s="6"/>
-      <c r="FD50" s="6"/>
-      <c r="FE50" s="6"/>
-      <c r="FF50" s="6"/>
-      <c r="FG50" s="6"/>
-      <c r="FH50" s="6"/>
-      <c r="FI50" s="6"/>
-      <c r="FJ50" s="6"/>
-      <c r="FK50" s="6"/>
-      <c r="FL50" s="6"/>
-      <c r="FM50" s="6"/>
-      <c r="FN50" s="6"/>
-      <c r="FO50" s="6"/>
-      <c r="FP50" s="6"/>
-      <c r="FQ50" s="6"/>
-      <c r="FR50" s="6"/>
-      <c r="FS50" s="6"/>
-      <c r="FT50" s="6"/>
-      <c r="FU50" s="6"/>
-      <c r="FV50" s="6"/>
-      <c r="FW50" s="6"/>
-      <c r="FX50" s="6"/>
-      <c r="FY50" s="6"/>
-      <c r="FZ50" s="6"/>
-      <c r="GA50" s="6"/>
-      <c r="GB50" s="6"/>
-      <c r="GC50" s="6"/>
-      <c r="GD50" s="6"/>
-      <c r="GE50" s="6"/>
-      <c r="GF50" s="6"/>
-      <c r="GG50" s="6"/>
-      <c r="GH50" s="6"/>
-      <c r="GI50" s="6"/>
-      <c r="GJ50" s="6"/>
-      <c r="GK50" s="6"/>
-      <c r="GL50" s="6"/>
-      <c r="GM50" s="6"/>
-      <c r="GN50" s="6"/>
-      <c r="GO50" s="6"/>
-      <c r="GP50" s="6"/>
-      <c r="GQ50" s="6"/>
-      <c r="GR50" s="6"/>
-      <c r="GS50" s="6"/>
-      <c r="GT50" s="6"/>
-      <c r="GU50" s="6"/>
-      <c r="GV50" s="6"/>
-      <c r="GW50" s="6"/>
-      <c r="GX50" s="6"/>
-      <c r="GY50" s="6"/>
-      <c r="GZ50" s="6"/>
-      <c r="HA50" s="6"/>
-      <c r="HB50" s="6"/>
-      <c r="HC50" s="6"/>
-      <c r="HD50" s="6"/>
-      <c r="HE50" s="6"/>
-      <c r="HF50" s="6"/>
-      <c r="HG50" s="6"/>
-      <c r="HH50" s="6"/>
-      <c r="HI50" s="6"/>
-      <c r="HJ50" s="6"/>
-      <c r="HK50" s="6"/>
-      <c r="HL50" s="6"/>
-      <c r="HM50" s="6"/>
-      <c r="HN50" s="6"/>
-      <c r="HO50" s="6"/>
-      <c r="HP50" s="6"/>
-      <c r="HQ50" s="6"/>
-      <c r="HR50" s="6"/>
-      <c r="HS50" s="6"/>
-      <c r="HT50" s="6"/>
-      <c r="HU50" s="6"/>
-      <c r="HV50" s="6"/>
-      <c r="HW50" s="6"/>
-      <c r="HX50" s="6"/>
-      <c r="HY50" s="6"/>
-      <c r="HZ50" s="6"/>
-      <c r="IA50" s="6"/>
-      <c r="IB50" s="6"/>
-      <c r="IC50" s="6"/>
-      <c r="ID50" s="6"/>
-      <c r="IE50" s="6"/>
-      <c r="IF50" s="6"/>
-      <c r="IG50" s="6"/>
-      <c r="IH50" s="6"/>
-      <c r="II50" s="6"/>
-      <c r="IJ50" s="6"/>
-      <c r="IK50" s="6"/>
-      <c r="IL50" s="6"/>
-      <c r="IM50" s="6"/>
-      <c r="IN50" s="6"/>
-      <c r="IO50" s="6"/>
-      <c r="IP50" s="6"/>
-      <c r="IQ50" s="6"/>
-      <c r="IR50" s="6"/>
-      <c r="IS50" s="6"/>
-      <c r="IT50" s="6"/>
-      <c r="IU50" s="6"/>
-      <c r="IV50" s="6"/>
-      <c r="IW50" s="6"/>
-      <c r="IX50" s="6"/>
-      <c r="IY50" s="6"/>
-      <c r="IZ50" s="6"/>
-      <c r="JA50" s="6"/>
+      <c r="K50" s="2"/>
     </row>
     <row r="51" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B51" s="7" t="str">
-        <f>"VX"&amp;D51&amp;F51</f>
-        <v>VXPY</v>
+        <f t="shared" si="2"/>
+        <v>VXPL</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>143</v>
@@ -7849,277 +8103,27 @@
         <v>143</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="6"/>
-      <c r="AB51" s="6"/>
-      <c r="AC51" s="6"/>
-      <c r="AD51" s="6"/>
-      <c r="AE51" s="6"/>
-      <c r="AF51" s="6"/>
-      <c r="AG51" s="6"/>
-      <c r="AH51" s="6"/>
-      <c r="AI51" s="6"/>
-      <c r="AJ51" s="6"/>
-      <c r="AK51" s="6"/>
-      <c r="AL51" s="6"/>
-      <c r="AM51" s="6"/>
-      <c r="AN51" s="6"/>
-      <c r="AO51" s="6"/>
-      <c r="AP51" s="6"/>
-      <c r="AQ51" s="6"/>
-      <c r="AR51" s="6"/>
-      <c r="AS51" s="6"/>
-      <c r="AT51" s="6"/>
-      <c r="AU51" s="6"/>
-      <c r="AV51" s="6"/>
-      <c r="AW51" s="6"/>
-      <c r="AX51" s="6"/>
-      <c r="AY51" s="6"/>
-      <c r="AZ51" s="6"/>
-      <c r="BA51" s="6"/>
-      <c r="BB51" s="6"/>
-      <c r="BC51" s="6"/>
-      <c r="BD51" s="6"/>
-      <c r="BE51" s="6"/>
-      <c r="BF51" s="6"/>
-      <c r="BG51" s="6"/>
-      <c r="BH51" s="6"/>
-      <c r="BI51" s="6"/>
-      <c r="BJ51" s="6"/>
-      <c r="BK51" s="6"/>
-      <c r="BL51" s="6"/>
-      <c r="BM51" s="6"/>
-      <c r="BN51" s="6"/>
-      <c r="BO51" s="6"/>
-      <c r="BP51" s="6"/>
-      <c r="BQ51" s="6"/>
-      <c r="BR51" s="6"/>
-      <c r="BS51" s="6"/>
-      <c r="BT51" s="6"/>
-      <c r="BU51" s="6"/>
-      <c r="BV51" s="6"/>
-      <c r="BW51" s="6"/>
-      <c r="BX51" s="6"/>
-      <c r="BY51" s="6"/>
-      <c r="BZ51" s="6"/>
-      <c r="CA51" s="6"/>
-      <c r="CB51" s="6"/>
-      <c r="CC51" s="6"/>
-      <c r="CD51" s="6"/>
-      <c r="CE51" s="6"/>
-      <c r="CF51" s="6"/>
-      <c r="CG51" s="6"/>
-      <c r="CH51" s="6"/>
-      <c r="CI51" s="6"/>
-      <c r="CJ51" s="6"/>
-      <c r="CK51" s="6"/>
-      <c r="CL51" s="6"/>
-      <c r="CM51" s="6"/>
-      <c r="CN51" s="6"/>
-      <c r="CO51" s="6"/>
-      <c r="CP51" s="6"/>
-      <c r="CQ51" s="6"/>
-      <c r="CR51" s="6"/>
-      <c r="CS51" s="6"/>
-      <c r="CT51" s="6"/>
-      <c r="CU51" s="6"/>
-      <c r="CV51" s="6"/>
-      <c r="CW51" s="6"/>
-      <c r="CX51" s="6"/>
-      <c r="CY51" s="6"/>
-      <c r="CZ51" s="6"/>
-      <c r="DA51" s="6"/>
-      <c r="DB51" s="6"/>
-      <c r="DC51" s="6"/>
-      <c r="DD51" s="6"/>
-      <c r="DE51" s="6"/>
-      <c r="DF51" s="6"/>
-      <c r="DG51" s="6"/>
-      <c r="DH51" s="6"/>
-      <c r="DI51" s="6"/>
-      <c r="DJ51" s="6"/>
-      <c r="DK51" s="6"/>
-      <c r="DL51" s="6"/>
-      <c r="DM51" s="6"/>
-      <c r="DN51" s="6"/>
-      <c r="DO51" s="6"/>
-      <c r="DP51" s="6"/>
-      <c r="DQ51" s="6"/>
-      <c r="DR51" s="6"/>
-      <c r="DS51" s="6"/>
-      <c r="DT51" s="6"/>
-      <c r="DU51" s="6"/>
-      <c r="DV51" s="6"/>
-      <c r="DW51" s="6"/>
-      <c r="DX51" s="6"/>
-      <c r="DY51" s="6"/>
-      <c r="DZ51" s="6"/>
-      <c r="EA51" s="6"/>
-      <c r="EB51" s="6"/>
-      <c r="EC51" s="6"/>
-      <c r="ED51" s="6"/>
-      <c r="EE51" s="6"/>
-      <c r="EF51" s="6"/>
-      <c r="EG51" s="6"/>
-      <c r="EH51" s="6"/>
-      <c r="EI51" s="6"/>
-      <c r="EJ51" s="6"/>
-      <c r="EK51" s="6"/>
-      <c r="EL51" s="6"/>
-      <c r="EM51" s="6"/>
-      <c r="EN51" s="6"/>
-      <c r="EO51" s="6"/>
-      <c r="EP51" s="6"/>
-      <c r="EQ51" s="6"/>
-      <c r="ER51" s="6"/>
-      <c r="ES51" s="6"/>
-      <c r="ET51" s="6"/>
-      <c r="EU51" s="6"/>
-      <c r="EV51" s="6"/>
-      <c r="EW51" s="6"/>
-      <c r="EX51" s="6"/>
-      <c r="EY51" s="6"/>
-      <c r="EZ51" s="6"/>
-      <c r="FA51" s="6"/>
-      <c r="FB51" s="6"/>
-      <c r="FC51" s="6"/>
-      <c r="FD51" s="6"/>
-      <c r="FE51" s="6"/>
-      <c r="FF51" s="6"/>
-      <c r="FG51" s="6"/>
-      <c r="FH51" s="6"/>
-      <c r="FI51" s="6"/>
-      <c r="FJ51" s="6"/>
-      <c r="FK51" s="6"/>
-      <c r="FL51" s="6"/>
-      <c r="FM51" s="6"/>
-      <c r="FN51" s="6"/>
-      <c r="FO51" s="6"/>
-      <c r="FP51" s="6"/>
-      <c r="FQ51" s="6"/>
-      <c r="FR51" s="6"/>
-      <c r="FS51" s="6"/>
-      <c r="FT51" s="6"/>
-      <c r="FU51" s="6"/>
-      <c r="FV51" s="6"/>
-      <c r="FW51" s="6"/>
-      <c r="FX51" s="6"/>
-      <c r="FY51" s="6"/>
-      <c r="FZ51" s="6"/>
-      <c r="GA51" s="6"/>
-      <c r="GB51" s="6"/>
-      <c r="GC51" s="6"/>
-      <c r="GD51" s="6"/>
-      <c r="GE51" s="6"/>
-      <c r="GF51" s="6"/>
-      <c r="GG51" s="6"/>
-      <c r="GH51" s="6"/>
-      <c r="GI51" s="6"/>
-      <c r="GJ51" s="6"/>
-      <c r="GK51" s="6"/>
-      <c r="GL51" s="6"/>
-      <c r="GM51" s="6"/>
-      <c r="GN51" s="6"/>
-      <c r="GO51" s="6"/>
-      <c r="GP51" s="6"/>
-      <c r="GQ51" s="6"/>
-      <c r="GR51" s="6"/>
-      <c r="GS51" s="6"/>
-      <c r="GT51" s="6"/>
-      <c r="GU51" s="6"/>
-      <c r="GV51" s="6"/>
-      <c r="GW51" s="6"/>
-      <c r="GX51" s="6"/>
-      <c r="GY51" s="6"/>
-      <c r="GZ51" s="6"/>
-      <c r="HA51" s="6"/>
-      <c r="HB51" s="6"/>
-      <c r="HC51" s="6"/>
-      <c r="HD51" s="6"/>
-      <c r="HE51" s="6"/>
-      <c r="HF51" s="6"/>
-      <c r="HG51" s="6"/>
-      <c r="HH51" s="6"/>
-      <c r="HI51" s="6"/>
-      <c r="HJ51" s="6"/>
-      <c r="HK51" s="6"/>
-      <c r="HL51" s="6"/>
-      <c r="HM51" s="6"/>
-      <c r="HN51" s="6"/>
-      <c r="HO51" s="6"/>
-      <c r="HP51" s="6"/>
-      <c r="HQ51" s="6"/>
-      <c r="HR51" s="6"/>
-      <c r="HS51" s="6"/>
-      <c r="HT51" s="6"/>
-      <c r="HU51" s="6"/>
-      <c r="HV51" s="6"/>
-      <c r="HW51" s="6"/>
-      <c r="HX51" s="6"/>
-      <c r="HY51" s="6"/>
-      <c r="HZ51" s="6"/>
-      <c r="IA51" s="6"/>
-      <c r="IB51" s="6"/>
-      <c r="IC51" s="6"/>
-      <c r="ID51" s="6"/>
-      <c r="IE51" s="6"/>
-      <c r="IF51" s="6"/>
-      <c r="IG51" s="6"/>
-      <c r="IH51" s="6"/>
-      <c r="II51" s="6"/>
-      <c r="IJ51" s="6"/>
-      <c r="IK51" s="6"/>
-      <c r="IL51" s="6"/>
-      <c r="IM51" s="6"/>
-      <c r="IN51" s="6"/>
-      <c r="IO51" s="6"/>
-      <c r="IP51" s="6"/>
-      <c r="IQ51" s="6"/>
-      <c r="IR51" s="6"/>
-      <c r="IS51" s="6"/>
-      <c r="IT51" s="6"/>
-      <c r="IU51" s="6"/>
-      <c r="IV51" s="6"/>
-      <c r="IW51" s="6"/>
-      <c r="IX51" s="6"/>
-      <c r="IY51" s="6"/>
-      <c r="IZ51" s="6"/>
-      <c r="JA51" s="6"/>
+      <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B52" s="7" t="str">
-        <f>"VX"&amp;D52&amp;F52</f>
-        <v>VXP</v>
+        <f t="shared" si="2"/>
+        <v>VXPQ</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>143</v>
@@ -8130,18 +8134,22 @@
       <c r="E52" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G52" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
@@ -8398,25 +8406,27 @@
         <v>143</v>
       </c>
       <c r="B53" s="7" t="str">
-        <f>"VX"&amp;D53&amp;F53</f>
-        <v>VXS?</v>
+        <f t="shared" si="2"/>
+        <v>VXPR</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H53" s="2"/>
+      <c r="H53" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="I53" s="7" t="s">
         <v>143</v>
       </c>
@@ -8678,36 +8688,32 @@
         <v>143</v>
       </c>
       <c r="B54" s="7" t="str">
-        <f>"VX"&amp;D54&amp;F54</f>
-        <v>VXSDx</v>
+        <f t="shared" si="2"/>
+        <v>VXPY</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
@@ -8964,36 +8970,30 @@
         <v>143</v>
       </c>
       <c r="B55" s="7" t="str">
-        <f>"VX"&amp;D55&amp;F55</f>
-        <v>VXSEx</v>
+        <f t="shared" si="2"/>
+        <v>VXP</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="F55" s="2"/>
       <c r="G55" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
@@ -9250,8 +9250,8 @@
         <v>143</v>
       </c>
       <c r="B56" s="7" t="str">
-        <f>"VX"&amp;D56&amp;F56</f>
-        <v>VXSI</v>
+        <f t="shared" si="2"/>
+        <v>VXS?</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>143</v>
@@ -9263,14 +9263,12 @@
         <v>143</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="H56" s="2"/>
       <c r="I56" s="7" t="s">
         <v>143</v>
       </c>
@@ -9532,8 +9530,8 @@
         <v>143</v>
       </c>
       <c r="B57" s="7" t="str">
-        <f>"VX"&amp;D57&amp;F57</f>
-        <v>VXSQ</v>
+        <f t="shared" si="2"/>
+        <v>VXSDx</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>143</v>
@@ -9545,29 +9543,281 @@
         <v>143</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J57" s="3"/>
+      <c r="J57" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="K57" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="6"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="6"/>
+      <c r="AJ57" s="6"/>
+      <c r="AK57" s="6"/>
+      <c r="AL57" s="6"/>
+      <c r="AM57" s="6"/>
+      <c r="AN57" s="6"/>
+      <c r="AO57" s="6"/>
+      <c r="AP57" s="6"/>
+      <c r="AQ57" s="6"/>
+      <c r="AR57" s="6"/>
+      <c r="AS57" s="6"/>
+      <c r="AT57" s="6"/>
+      <c r="AU57" s="6"/>
+      <c r="AV57" s="6"/>
+      <c r="AW57" s="6"/>
+      <c r="AX57" s="6"/>
+      <c r="AY57" s="6"/>
+      <c r="AZ57" s="6"/>
+      <c r="BA57" s="6"/>
+      <c r="BB57" s="6"/>
+      <c r="BC57" s="6"/>
+      <c r="BD57" s="6"/>
+      <c r="BE57" s="6"/>
+      <c r="BF57" s="6"/>
+      <c r="BG57" s="6"/>
+      <c r="BH57" s="6"/>
+      <c r="BI57" s="6"/>
+      <c r="BJ57" s="6"/>
+      <c r="BK57" s="6"/>
+      <c r="BL57" s="6"/>
+      <c r="BM57" s="6"/>
+      <c r="BN57" s="6"/>
+      <c r="BO57" s="6"/>
+      <c r="BP57" s="6"/>
+      <c r="BQ57" s="6"/>
+      <c r="BR57" s="6"/>
+      <c r="BS57" s="6"/>
+      <c r="BT57" s="6"/>
+      <c r="BU57" s="6"/>
+      <c r="BV57" s="6"/>
+      <c r="BW57" s="6"/>
+      <c r="BX57" s="6"/>
+      <c r="BY57" s="6"/>
+      <c r="BZ57" s="6"/>
+      <c r="CA57" s="6"/>
+      <c r="CB57" s="6"/>
+      <c r="CC57" s="6"/>
+      <c r="CD57" s="6"/>
+      <c r="CE57" s="6"/>
+      <c r="CF57" s="6"/>
+      <c r="CG57" s="6"/>
+      <c r="CH57" s="6"/>
+      <c r="CI57" s="6"/>
+      <c r="CJ57" s="6"/>
+      <c r="CK57" s="6"/>
+      <c r="CL57" s="6"/>
+      <c r="CM57" s="6"/>
+      <c r="CN57" s="6"/>
+      <c r="CO57" s="6"/>
+      <c r="CP57" s="6"/>
+      <c r="CQ57" s="6"/>
+      <c r="CR57" s="6"/>
+      <c r="CS57" s="6"/>
+      <c r="CT57" s="6"/>
+      <c r="CU57" s="6"/>
+      <c r="CV57" s="6"/>
+      <c r="CW57" s="6"/>
+      <c r="CX57" s="6"/>
+      <c r="CY57" s="6"/>
+      <c r="CZ57" s="6"/>
+      <c r="DA57" s="6"/>
+      <c r="DB57" s="6"/>
+      <c r="DC57" s="6"/>
+      <c r="DD57" s="6"/>
+      <c r="DE57" s="6"/>
+      <c r="DF57" s="6"/>
+      <c r="DG57" s="6"/>
+      <c r="DH57" s="6"/>
+      <c r="DI57" s="6"/>
+      <c r="DJ57" s="6"/>
+      <c r="DK57" s="6"/>
+      <c r="DL57" s="6"/>
+      <c r="DM57" s="6"/>
+      <c r="DN57" s="6"/>
+      <c r="DO57" s="6"/>
+      <c r="DP57" s="6"/>
+      <c r="DQ57" s="6"/>
+      <c r="DR57" s="6"/>
+      <c r="DS57" s="6"/>
+      <c r="DT57" s="6"/>
+      <c r="DU57" s="6"/>
+      <c r="DV57" s="6"/>
+      <c r="DW57" s="6"/>
+      <c r="DX57" s="6"/>
+      <c r="DY57" s="6"/>
+      <c r="DZ57" s="6"/>
+      <c r="EA57" s="6"/>
+      <c r="EB57" s="6"/>
+      <c r="EC57" s="6"/>
+      <c r="ED57" s="6"/>
+      <c r="EE57" s="6"/>
+      <c r="EF57" s="6"/>
+      <c r="EG57" s="6"/>
+      <c r="EH57" s="6"/>
+      <c r="EI57" s="6"/>
+      <c r="EJ57" s="6"/>
+      <c r="EK57" s="6"/>
+      <c r="EL57" s="6"/>
+      <c r="EM57" s="6"/>
+      <c r="EN57" s="6"/>
+      <c r="EO57" s="6"/>
+      <c r="EP57" s="6"/>
+      <c r="EQ57" s="6"/>
+      <c r="ER57" s="6"/>
+      <c r="ES57" s="6"/>
+      <c r="ET57" s="6"/>
+      <c r="EU57" s="6"/>
+      <c r="EV57" s="6"/>
+      <c r="EW57" s="6"/>
+      <c r="EX57" s="6"/>
+      <c r="EY57" s="6"/>
+      <c r="EZ57" s="6"/>
+      <c r="FA57" s="6"/>
+      <c r="FB57" s="6"/>
+      <c r="FC57" s="6"/>
+      <c r="FD57" s="6"/>
+      <c r="FE57" s="6"/>
+      <c r="FF57" s="6"/>
+      <c r="FG57" s="6"/>
+      <c r="FH57" s="6"/>
+      <c r="FI57" s="6"/>
+      <c r="FJ57" s="6"/>
+      <c r="FK57" s="6"/>
+      <c r="FL57" s="6"/>
+      <c r="FM57" s="6"/>
+      <c r="FN57" s="6"/>
+      <c r="FO57" s="6"/>
+      <c r="FP57" s="6"/>
+      <c r="FQ57" s="6"/>
+      <c r="FR57" s="6"/>
+      <c r="FS57" s="6"/>
+      <c r="FT57" s="6"/>
+      <c r="FU57" s="6"/>
+      <c r="FV57" s="6"/>
+      <c r="FW57" s="6"/>
+      <c r="FX57" s="6"/>
+      <c r="FY57" s="6"/>
+      <c r="FZ57" s="6"/>
+      <c r="GA57" s="6"/>
+      <c r="GB57" s="6"/>
+      <c r="GC57" s="6"/>
+      <c r="GD57" s="6"/>
+      <c r="GE57" s="6"/>
+      <c r="GF57" s="6"/>
+      <c r="GG57" s="6"/>
+      <c r="GH57" s="6"/>
+      <c r="GI57" s="6"/>
+      <c r="GJ57" s="6"/>
+      <c r="GK57" s="6"/>
+      <c r="GL57" s="6"/>
+      <c r="GM57" s="6"/>
+      <c r="GN57" s="6"/>
+      <c r="GO57" s="6"/>
+      <c r="GP57" s="6"/>
+      <c r="GQ57" s="6"/>
+      <c r="GR57" s="6"/>
+      <c r="GS57" s="6"/>
+      <c r="GT57" s="6"/>
+      <c r="GU57" s="6"/>
+      <c r="GV57" s="6"/>
+      <c r="GW57" s="6"/>
+      <c r="GX57" s="6"/>
+      <c r="GY57" s="6"/>
+      <c r="GZ57" s="6"/>
+      <c r="HA57" s="6"/>
+      <c r="HB57" s="6"/>
+      <c r="HC57" s="6"/>
+      <c r="HD57" s="6"/>
+      <c r="HE57" s="6"/>
+      <c r="HF57" s="6"/>
+      <c r="HG57" s="6"/>
+      <c r="HH57" s="6"/>
+      <c r="HI57" s="6"/>
+      <c r="HJ57" s="6"/>
+      <c r="HK57" s="6"/>
+      <c r="HL57" s="6"/>
+      <c r="HM57" s="6"/>
+      <c r="HN57" s="6"/>
+      <c r="HO57" s="6"/>
+      <c r="HP57" s="6"/>
+      <c r="HQ57" s="6"/>
+      <c r="HR57" s="6"/>
+      <c r="HS57" s="6"/>
+      <c r="HT57" s="6"/>
+      <c r="HU57" s="6"/>
+      <c r="HV57" s="6"/>
+      <c r="HW57" s="6"/>
+      <c r="HX57" s="6"/>
+      <c r="HY57" s="6"/>
+      <c r="HZ57" s="6"/>
+      <c r="IA57" s="6"/>
+      <c r="IB57" s="6"/>
+      <c r="IC57" s="6"/>
+      <c r="ID57" s="6"/>
+      <c r="IE57" s="6"/>
+      <c r="IF57" s="6"/>
+      <c r="IG57" s="6"/>
+      <c r="IH57" s="6"/>
+      <c r="II57" s="6"/>
+      <c r="IJ57" s="6"/>
+      <c r="IK57" s="6"/>
+      <c r="IL57" s="6"/>
+      <c r="IM57" s="6"/>
+      <c r="IN57" s="6"/>
+      <c r="IO57" s="6"/>
+      <c r="IP57" s="6"/>
+      <c r="IQ57" s="6"/>
+      <c r="IR57" s="6"/>
+      <c r="IS57" s="6"/>
+      <c r="IT57" s="6"/>
+      <c r="IU57" s="6"/>
+      <c r="IV57" s="6"/>
+      <c r="IW57" s="6"/>
+      <c r="IX57" s="6"/>
+      <c r="IY57" s="6"/>
+      <c r="IZ57" s="6"/>
+      <c r="JA57" s="6"/>
     </row>
     <row r="58" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="7" t="str">
-        <f>"VX"&amp;D58&amp;F58</f>
-        <v>VXSTHxxxxx</v>
+        <f t="shared" si="2"/>
+        <v>VXSEx</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>143</v>
@@ -9579,29 +9829,281 @@
         <v>143</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K58" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="6"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="6"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="6"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="6"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="6"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="6"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="6"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="6"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="6"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="6"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="6"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="6"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="6"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="6"/>
+      <c r="BL58" s="6"/>
+      <c r="BM58" s="6"/>
+      <c r="BN58" s="6"/>
+      <c r="BO58" s="6"/>
+      <c r="BP58" s="6"/>
+      <c r="BQ58" s="6"/>
+      <c r="BR58" s="6"/>
+      <c r="BS58" s="6"/>
+      <c r="BT58" s="6"/>
+      <c r="BU58" s="6"/>
+      <c r="BV58" s="6"/>
+      <c r="BW58" s="6"/>
+      <c r="BX58" s="6"/>
+      <c r="BY58" s="6"/>
+      <c r="BZ58" s="6"/>
+      <c r="CA58" s="6"/>
+      <c r="CB58" s="6"/>
+      <c r="CC58" s="6"/>
+      <c r="CD58" s="6"/>
+      <c r="CE58" s="6"/>
+      <c r="CF58" s="6"/>
+      <c r="CG58" s="6"/>
+      <c r="CH58" s="6"/>
+      <c r="CI58" s="6"/>
+      <c r="CJ58" s="6"/>
+      <c r="CK58" s="6"/>
+      <c r="CL58" s="6"/>
+      <c r="CM58" s="6"/>
+      <c r="CN58" s="6"/>
+      <c r="CO58" s="6"/>
+      <c r="CP58" s="6"/>
+      <c r="CQ58" s="6"/>
+      <c r="CR58" s="6"/>
+      <c r="CS58" s="6"/>
+      <c r="CT58" s="6"/>
+      <c r="CU58" s="6"/>
+      <c r="CV58" s="6"/>
+      <c r="CW58" s="6"/>
+      <c r="CX58" s="6"/>
+      <c r="CY58" s="6"/>
+      <c r="CZ58" s="6"/>
+      <c r="DA58" s="6"/>
+      <c r="DB58" s="6"/>
+      <c r="DC58" s="6"/>
+      <c r="DD58" s="6"/>
+      <c r="DE58" s="6"/>
+      <c r="DF58" s="6"/>
+      <c r="DG58" s="6"/>
+      <c r="DH58" s="6"/>
+      <c r="DI58" s="6"/>
+      <c r="DJ58" s="6"/>
+      <c r="DK58" s="6"/>
+      <c r="DL58" s="6"/>
+      <c r="DM58" s="6"/>
+      <c r="DN58" s="6"/>
+      <c r="DO58" s="6"/>
+      <c r="DP58" s="6"/>
+      <c r="DQ58" s="6"/>
+      <c r="DR58" s="6"/>
+      <c r="DS58" s="6"/>
+      <c r="DT58" s="6"/>
+      <c r="DU58" s="6"/>
+      <c r="DV58" s="6"/>
+      <c r="DW58" s="6"/>
+      <c r="DX58" s="6"/>
+      <c r="DY58" s="6"/>
+      <c r="DZ58" s="6"/>
+      <c r="EA58" s="6"/>
+      <c r="EB58" s="6"/>
+      <c r="EC58" s="6"/>
+      <c r="ED58" s="6"/>
+      <c r="EE58" s="6"/>
+      <c r="EF58" s="6"/>
+      <c r="EG58" s="6"/>
+      <c r="EH58" s="6"/>
+      <c r="EI58" s="6"/>
+      <c r="EJ58" s="6"/>
+      <c r="EK58" s="6"/>
+      <c r="EL58" s="6"/>
+      <c r="EM58" s="6"/>
+      <c r="EN58" s="6"/>
+      <c r="EO58" s="6"/>
+      <c r="EP58" s="6"/>
+      <c r="EQ58" s="6"/>
+      <c r="ER58" s="6"/>
+      <c r="ES58" s="6"/>
+      <c r="ET58" s="6"/>
+      <c r="EU58" s="6"/>
+      <c r="EV58" s="6"/>
+      <c r="EW58" s="6"/>
+      <c r="EX58" s="6"/>
+      <c r="EY58" s="6"/>
+      <c r="EZ58" s="6"/>
+      <c r="FA58" s="6"/>
+      <c r="FB58" s="6"/>
+      <c r="FC58" s="6"/>
+      <c r="FD58" s="6"/>
+      <c r="FE58" s="6"/>
+      <c r="FF58" s="6"/>
+      <c r="FG58" s="6"/>
+      <c r="FH58" s="6"/>
+      <c r="FI58" s="6"/>
+      <c r="FJ58" s="6"/>
+      <c r="FK58" s="6"/>
+      <c r="FL58" s="6"/>
+      <c r="FM58" s="6"/>
+      <c r="FN58" s="6"/>
+      <c r="FO58" s="6"/>
+      <c r="FP58" s="6"/>
+      <c r="FQ58" s="6"/>
+      <c r="FR58" s="6"/>
+      <c r="FS58" s="6"/>
+      <c r="FT58" s="6"/>
+      <c r="FU58" s="6"/>
+      <c r="FV58" s="6"/>
+      <c r="FW58" s="6"/>
+      <c r="FX58" s="6"/>
+      <c r="FY58" s="6"/>
+      <c r="FZ58" s="6"/>
+      <c r="GA58" s="6"/>
+      <c r="GB58" s="6"/>
+      <c r="GC58" s="6"/>
+      <c r="GD58" s="6"/>
+      <c r="GE58" s="6"/>
+      <c r="GF58" s="6"/>
+      <c r="GG58" s="6"/>
+      <c r="GH58" s="6"/>
+      <c r="GI58" s="6"/>
+      <c r="GJ58" s="6"/>
+      <c r="GK58" s="6"/>
+      <c r="GL58" s="6"/>
+      <c r="GM58" s="6"/>
+      <c r="GN58" s="6"/>
+      <c r="GO58" s="6"/>
+      <c r="GP58" s="6"/>
+      <c r="GQ58" s="6"/>
+      <c r="GR58" s="6"/>
+      <c r="GS58" s="6"/>
+      <c r="GT58" s="6"/>
+      <c r="GU58" s="6"/>
+      <c r="GV58" s="6"/>
+      <c r="GW58" s="6"/>
+      <c r="GX58" s="6"/>
+      <c r="GY58" s="6"/>
+      <c r="GZ58" s="6"/>
+      <c r="HA58" s="6"/>
+      <c r="HB58" s="6"/>
+      <c r="HC58" s="6"/>
+      <c r="HD58" s="6"/>
+      <c r="HE58" s="6"/>
+      <c r="HF58" s="6"/>
+      <c r="HG58" s="6"/>
+      <c r="HH58" s="6"/>
+      <c r="HI58" s="6"/>
+      <c r="HJ58" s="6"/>
+      <c r="HK58" s="6"/>
+      <c r="HL58" s="6"/>
+      <c r="HM58" s="6"/>
+      <c r="HN58" s="6"/>
+      <c r="HO58" s="6"/>
+      <c r="HP58" s="6"/>
+      <c r="HQ58" s="6"/>
+      <c r="HR58" s="6"/>
+      <c r="HS58" s="6"/>
+      <c r="HT58" s="6"/>
+      <c r="HU58" s="6"/>
+      <c r="HV58" s="6"/>
+      <c r="HW58" s="6"/>
+      <c r="HX58" s="6"/>
+      <c r="HY58" s="6"/>
+      <c r="HZ58" s="6"/>
+      <c r="IA58" s="6"/>
+      <c r="IB58" s="6"/>
+      <c r="IC58" s="6"/>
+      <c r="ID58" s="6"/>
+      <c r="IE58" s="6"/>
+      <c r="IF58" s="6"/>
+      <c r="IG58" s="6"/>
+      <c r="IH58" s="6"/>
+      <c r="II58" s="6"/>
+      <c r="IJ58" s="6"/>
+      <c r="IK58" s="6"/>
+      <c r="IL58" s="6"/>
+      <c r="IM58" s="6"/>
+      <c r="IN58" s="6"/>
+      <c r="IO58" s="6"/>
+      <c r="IP58" s="6"/>
+      <c r="IQ58" s="6"/>
+      <c r="IR58" s="6"/>
+      <c r="IS58" s="6"/>
+      <c r="IT58" s="6"/>
+      <c r="IU58" s="6"/>
+      <c r="IV58" s="6"/>
+      <c r="IW58" s="6"/>
+      <c r="IX58" s="6"/>
+      <c r="IY58" s="6"/>
+      <c r="IZ58" s="6"/>
+      <c r="JA58" s="6"/>
     </row>
     <row r="59" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B59" s="7" t="str">
-        <f>"VX"&amp;D59&amp;F59</f>
-        <v>VXSTLxxxxx</v>
+        <f t="shared" si="2"/>
+        <v>VXSI</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>143</v>
@@ -9613,29 +10115,277 @@
         <v>143</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="6"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AJ59" s="6"/>
+      <c r="AK59" s="6"/>
+      <c r="AL59" s="6"/>
+      <c r="AM59" s="6"/>
+      <c r="AN59" s="6"/>
+      <c r="AO59" s="6"/>
+      <c r="AP59" s="6"/>
+      <c r="AQ59" s="6"/>
+      <c r="AR59" s="6"/>
+      <c r="AS59" s="6"/>
+      <c r="AT59" s="6"/>
+      <c r="AU59" s="6"/>
+      <c r="AV59" s="6"/>
+      <c r="AW59" s="6"/>
+      <c r="AX59" s="6"/>
+      <c r="AY59" s="6"/>
+      <c r="AZ59" s="6"/>
+      <c r="BA59" s="6"/>
+      <c r="BB59" s="6"/>
+      <c r="BC59" s="6"/>
+      <c r="BD59" s="6"/>
+      <c r="BE59" s="6"/>
+      <c r="BF59" s="6"/>
+      <c r="BG59" s="6"/>
+      <c r="BH59" s="6"/>
+      <c r="BI59" s="6"/>
+      <c r="BJ59" s="6"/>
+      <c r="BK59" s="6"/>
+      <c r="BL59" s="6"/>
+      <c r="BM59" s="6"/>
+      <c r="BN59" s="6"/>
+      <c r="BO59" s="6"/>
+      <c r="BP59" s="6"/>
+      <c r="BQ59" s="6"/>
+      <c r="BR59" s="6"/>
+      <c r="BS59" s="6"/>
+      <c r="BT59" s="6"/>
+      <c r="BU59" s="6"/>
+      <c r="BV59" s="6"/>
+      <c r="BW59" s="6"/>
+      <c r="BX59" s="6"/>
+      <c r="BY59" s="6"/>
+      <c r="BZ59" s="6"/>
+      <c r="CA59" s="6"/>
+      <c r="CB59" s="6"/>
+      <c r="CC59" s="6"/>
+      <c r="CD59" s="6"/>
+      <c r="CE59" s="6"/>
+      <c r="CF59" s="6"/>
+      <c r="CG59" s="6"/>
+      <c r="CH59" s="6"/>
+      <c r="CI59" s="6"/>
+      <c r="CJ59" s="6"/>
+      <c r="CK59" s="6"/>
+      <c r="CL59" s="6"/>
+      <c r="CM59" s="6"/>
+      <c r="CN59" s="6"/>
+      <c r="CO59" s="6"/>
+      <c r="CP59" s="6"/>
+      <c r="CQ59" s="6"/>
+      <c r="CR59" s="6"/>
+      <c r="CS59" s="6"/>
+      <c r="CT59" s="6"/>
+      <c r="CU59" s="6"/>
+      <c r="CV59" s="6"/>
+      <c r="CW59" s="6"/>
+      <c r="CX59" s="6"/>
+      <c r="CY59" s="6"/>
+      <c r="CZ59" s="6"/>
+      <c r="DA59" s="6"/>
+      <c r="DB59" s="6"/>
+      <c r="DC59" s="6"/>
+      <c r="DD59" s="6"/>
+      <c r="DE59" s="6"/>
+      <c r="DF59" s="6"/>
+      <c r="DG59" s="6"/>
+      <c r="DH59" s="6"/>
+      <c r="DI59" s="6"/>
+      <c r="DJ59" s="6"/>
+      <c r="DK59" s="6"/>
+      <c r="DL59" s="6"/>
+      <c r="DM59" s="6"/>
+      <c r="DN59" s="6"/>
+      <c r="DO59" s="6"/>
+      <c r="DP59" s="6"/>
+      <c r="DQ59" s="6"/>
+      <c r="DR59" s="6"/>
+      <c r="DS59" s="6"/>
+      <c r="DT59" s="6"/>
+      <c r="DU59" s="6"/>
+      <c r="DV59" s="6"/>
+      <c r="DW59" s="6"/>
+      <c r="DX59" s="6"/>
+      <c r="DY59" s="6"/>
+      <c r="DZ59" s="6"/>
+      <c r="EA59" s="6"/>
+      <c r="EB59" s="6"/>
+      <c r="EC59" s="6"/>
+      <c r="ED59" s="6"/>
+      <c r="EE59" s="6"/>
+      <c r="EF59" s="6"/>
+      <c r="EG59" s="6"/>
+      <c r="EH59" s="6"/>
+      <c r="EI59" s="6"/>
+      <c r="EJ59" s="6"/>
+      <c r="EK59" s="6"/>
+      <c r="EL59" s="6"/>
+      <c r="EM59" s="6"/>
+      <c r="EN59" s="6"/>
+      <c r="EO59" s="6"/>
+      <c r="EP59" s="6"/>
+      <c r="EQ59" s="6"/>
+      <c r="ER59" s="6"/>
+      <c r="ES59" s="6"/>
+      <c r="ET59" s="6"/>
+      <c r="EU59" s="6"/>
+      <c r="EV59" s="6"/>
+      <c r="EW59" s="6"/>
+      <c r="EX59" s="6"/>
+      <c r="EY59" s="6"/>
+      <c r="EZ59" s="6"/>
+      <c r="FA59" s="6"/>
+      <c r="FB59" s="6"/>
+      <c r="FC59" s="6"/>
+      <c r="FD59" s="6"/>
+      <c r="FE59" s="6"/>
+      <c r="FF59" s="6"/>
+      <c r="FG59" s="6"/>
+      <c r="FH59" s="6"/>
+      <c r="FI59" s="6"/>
+      <c r="FJ59" s="6"/>
+      <c r="FK59" s="6"/>
+      <c r="FL59" s="6"/>
+      <c r="FM59" s="6"/>
+      <c r="FN59" s="6"/>
+      <c r="FO59" s="6"/>
+      <c r="FP59" s="6"/>
+      <c r="FQ59" s="6"/>
+      <c r="FR59" s="6"/>
+      <c r="FS59" s="6"/>
+      <c r="FT59" s="6"/>
+      <c r="FU59" s="6"/>
+      <c r="FV59" s="6"/>
+      <c r="FW59" s="6"/>
+      <c r="FX59" s="6"/>
+      <c r="FY59" s="6"/>
+      <c r="FZ59" s="6"/>
+      <c r="GA59" s="6"/>
+      <c r="GB59" s="6"/>
+      <c r="GC59" s="6"/>
+      <c r="GD59" s="6"/>
+      <c r="GE59" s="6"/>
+      <c r="GF59" s="6"/>
+      <c r="GG59" s="6"/>
+      <c r="GH59" s="6"/>
+      <c r="GI59" s="6"/>
+      <c r="GJ59" s="6"/>
+      <c r="GK59" s="6"/>
+      <c r="GL59" s="6"/>
+      <c r="GM59" s="6"/>
+      <c r="GN59" s="6"/>
+      <c r="GO59" s="6"/>
+      <c r="GP59" s="6"/>
+      <c r="GQ59" s="6"/>
+      <c r="GR59" s="6"/>
+      <c r="GS59" s="6"/>
+      <c r="GT59" s="6"/>
+      <c r="GU59" s="6"/>
+      <c r="GV59" s="6"/>
+      <c r="GW59" s="6"/>
+      <c r="GX59" s="6"/>
+      <c r="GY59" s="6"/>
+      <c r="GZ59" s="6"/>
+      <c r="HA59" s="6"/>
+      <c r="HB59" s="6"/>
+      <c r="HC59" s="6"/>
+      <c r="HD59" s="6"/>
+      <c r="HE59" s="6"/>
+      <c r="HF59" s="6"/>
+      <c r="HG59" s="6"/>
+      <c r="HH59" s="6"/>
+      <c r="HI59" s="6"/>
+      <c r="HJ59" s="6"/>
+      <c r="HK59" s="6"/>
+      <c r="HL59" s="6"/>
+      <c r="HM59" s="6"/>
+      <c r="HN59" s="6"/>
+      <c r="HO59" s="6"/>
+      <c r="HP59" s="6"/>
+      <c r="HQ59" s="6"/>
+      <c r="HR59" s="6"/>
+      <c r="HS59" s="6"/>
+      <c r="HT59" s="6"/>
+      <c r="HU59" s="6"/>
+      <c r="HV59" s="6"/>
+      <c r="HW59" s="6"/>
+      <c r="HX59" s="6"/>
+      <c r="HY59" s="6"/>
+      <c r="HZ59" s="6"/>
+      <c r="IA59" s="6"/>
+      <c r="IB59" s="6"/>
+      <c r="IC59" s="6"/>
+      <c r="ID59" s="6"/>
+      <c r="IE59" s="6"/>
+      <c r="IF59" s="6"/>
+      <c r="IG59" s="6"/>
+      <c r="IH59" s="6"/>
+      <c r="II59" s="6"/>
+      <c r="IJ59" s="6"/>
+      <c r="IK59" s="6"/>
+      <c r="IL59" s="6"/>
+      <c r="IM59" s="6"/>
+      <c r="IN59" s="6"/>
+      <c r="IO59" s="6"/>
+      <c r="IP59" s="6"/>
+      <c r="IQ59" s="6"/>
+      <c r="IR59" s="6"/>
+      <c r="IS59" s="6"/>
+      <c r="IT59" s="6"/>
+      <c r="IU59" s="6"/>
+      <c r="IV59" s="6"/>
+      <c r="IW59" s="6"/>
+      <c r="IX59" s="6"/>
+      <c r="IY59" s="6"/>
+      <c r="IZ59" s="6"/>
+      <c r="JA59" s="6"/>
     </row>
     <row r="60" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B60" s="7" t="str">
-        <f>"VX"&amp;D60&amp;F60</f>
-        <v>VXS</v>
+        <f t="shared" si="2"/>
+        <v>VXSQ</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>143</v>
@@ -9646,47 +10396,55 @@
       <c r="E60" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G60" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H60" s="2"/>
+      <c r="H60" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="I60" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="K60" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="61" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B61" s="7" t="str">
-        <f>"VX"&amp;D61&amp;F61</f>
-        <v>VXT?</v>
+        <f t="shared" si="2"/>
+        <v>VXSTHxxxxx</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J61" s="3"/>
+      <c r="J61" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9694,32 +10452,32 @@
         <v>143</v>
       </c>
       <c r="B62" s="7" t="str">
-        <f>"VX"&amp;D62&amp;F62</f>
-        <v>VXTA</v>
+        <f t="shared" si="2"/>
+        <v>VXSTLxxxxx</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="I62" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>131</v>
+      <c r="J62" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -9728,290 +10486,36 @@
         <v>143</v>
       </c>
       <c r="B63" s="7" t="str">
-        <f>"VX"&amp;D63&amp;F63</f>
-        <v>VXTD</v>
+        <f t="shared" si="2"/>
+        <v>VXS</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-      <c r="AE63" s="6"/>
-      <c r="AF63" s="6"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
-      <c r="AI63" s="6"/>
-      <c r="AJ63" s="6"/>
-      <c r="AK63" s="6"/>
-      <c r="AL63" s="6"/>
-      <c r="AM63" s="6"/>
-      <c r="AN63" s="6"/>
-      <c r="AO63" s="6"/>
-      <c r="AP63" s="6"/>
-      <c r="AQ63" s="6"/>
-      <c r="AR63" s="6"/>
-      <c r="AS63" s="6"/>
-      <c r="AT63" s="6"/>
-      <c r="AU63" s="6"/>
-      <c r="AV63" s="6"/>
-      <c r="AW63" s="6"/>
-      <c r="AX63" s="6"/>
-      <c r="AY63" s="6"/>
-      <c r="AZ63" s="6"/>
-      <c r="BA63" s="6"/>
-      <c r="BB63" s="6"/>
-      <c r="BC63" s="6"/>
-      <c r="BD63" s="6"/>
-      <c r="BE63" s="6"/>
-      <c r="BF63" s="6"/>
-      <c r="BG63" s="6"/>
-      <c r="BH63" s="6"/>
-      <c r="BI63" s="6"/>
-      <c r="BJ63" s="6"/>
-      <c r="BK63" s="6"/>
-      <c r="BL63" s="6"/>
-      <c r="BM63" s="6"/>
-      <c r="BN63" s="6"/>
-      <c r="BO63" s="6"/>
-      <c r="BP63" s="6"/>
-      <c r="BQ63" s="6"/>
-      <c r="BR63" s="6"/>
-      <c r="BS63" s="6"/>
-      <c r="BT63" s="6"/>
-      <c r="BU63" s="6"/>
-      <c r="BV63" s="6"/>
-      <c r="BW63" s="6"/>
-      <c r="BX63" s="6"/>
-      <c r="BY63" s="6"/>
-      <c r="BZ63" s="6"/>
-      <c r="CA63" s="6"/>
-      <c r="CB63" s="6"/>
-      <c r="CC63" s="6"/>
-      <c r="CD63" s="6"/>
-      <c r="CE63" s="6"/>
-      <c r="CF63" s="6"/>
-      <c r="CG63" s="6"/>
-      <c r="CH63" s="6"/>
-      <c r="CI63" s="6"/>
-      <c r="CJ63" s="6"/>
-      <c r="CK63" s="6"/>
-      <c r="CL63" s="6"/>
-      <c r="CM63" s="6"/>
-      <c r="CN63" s="6"/>
-      <c r="CO63" s="6"/>
-      <c r="CP63" s="6"/>
-      <c r="CQ63" s="6"/>
-      <c r="CR63" s="6"/>
-      <c r="CS63" s="6"/>
-      <c r="CT63" s="6"/>
-      <c r="CU63" s="6"/>
-      <c r="CV63" s="6"/>
-      <c r="CW63" s="6"/>
-      <c r="CX63" s="6"/>
-      <c r="CY63" s="6"/>
-      <c r="CZ63" s="6"/>
-      <c r="DA63" s="6"/>
-      <c r="DB63" s="6"/>
-      <c r="DC63" s="6"/>
-      <c r="DD63" s="6"/>
-      <c r="DE63" s="6"/>
-      <c r="DF63" s="6"/>
-      <c r="DG63" s="6"/>
-      <c r="DH63" s="6"/>
-      <c r="DI63" s="6"/>
-      <c r="DJ63" s="6"/>
-      <c r="DK63" s="6"/>
-      <c r="DL63" s="6"/>
-      <c r="DM63" s="6"/>
-      <c r="DN63" s="6"/>
-      <c r="DO63" s="6"/>
-      <c r="DP63" s="6"/>
-      <c r="DQ63" s="6"/>
-      <c r="DR63" s="6"/>
-      <c r="DS63" s="6"/>
-      <c r="DT63" s="6"/>
-      <c r="DU63" s="6"/>
-      <c r="DV63" s="6"/>
-      <c r="DW63" s="6"/>
-      <c r="DX63" s="6"/>
-      <c r="DY63" s="6"/>
-      <c r="DZ63" s="6"/>
-      <c r="EA63" s="6"/>
-      <c r="EB63" s="6"/>
-      <c r="EC63" s="6"/>
-      <c r="ED63" s="6"/>
-      <c r="EE63" s="6"/>
-      <c r="EF63" s="6"/>
-      <c r="EG63" s="6"/>
-      <c r="EH63" s="6"/>
-      <c r="EI63" s="6"/>
-      <c r="EJ63" s="6"/>
-      <c r="EK63" s="6"/>
-      <c r="EL63" s="6"/>
-      <c r="EM63" s="6"/>
-      <c r="EN63" s="6"/>
-      <c r="EO63" s="6"/>
-      <c r="EP63" s="6"/>
-      <c r="EQ63" s="6"/>
-      <c r="ER63" s="6"/>
-      <c r="ES63" s="6"/>
-      <c r="ET63" s="6"/>
-      <c r="EU63" s="6"/>
-      <c r="EV63" s="6"/>
-      <c r="EW63" s="6"/>
-      <c r="EX63" s="6"/>
-      <c r="EY63" s="6"/>
-      <c r="EZ63" s="6"/>
-      <c r="FA63" s="6"/>
-      <c r="FB63" s="6"/>
-      <c r="FC63" s="6"/>
-      <c r="FD63" s="6"/>
-      <c r="FE63" s="6"/>
-      <c r="FF63" s="6"/>
-      <c r="FG63" s="6"/>
-      <c r="FH63" s="6"/>
-      <c r="FI63" s="6"/>
-      <c r="FJ63" s="6"/>
-      <c r="FK63" s="6"/>
-      <c r="FL63" s="6"/>
-      <c r="FM63" s="6"/>
-      <c r="FN63" s="6"/>
-      <c r="FO63" s="6"/>
-      <c r="FP63" s="6"/>
-      <c r="FQ63" s="6"/>
-      <c r="FR63" s="6"/>
-      <c r="FS63" s="6"/>
-      <c r="FT63" s="6"/>
-      <c r="FU63" s="6"/>
-      <c r="FV63" s="6"/>
-      <c r="FW63" s="6"/>
-      <c r="FX63" s="6"/>
-      <c r="FY63" s="6"/>
-      <c r="FZ63" s="6"/>
-      <c r="GA63" s="6"/>
-      <c r="GB63" s="6"/>
-      <c r="GC63" s="6"/>
-      <c r="GD63" s="6"/>
-      <c r="GE63" s="6"/>
-      <c r="GF63" s="6"/>
-      <c r="GG63" s="6"/>
-      <c r="GH63" s="6"/>
-      <c r="GI63" s="6"/>
-      <c r="GJ63" s="6"/>
-      <c r="GK63" s="6"/>
-      <c r="GL63" s="6"/>
-      <c r="GM63" s="6"/>
-      <c r="GN63" s="6"/>
-      <c r="GO63" s="6"/>
-      <c r="GP63" s="6"/>
-      <c r="GQ63" s="6"/>
-      <c r="GR63" s="6"/>
-      <c r="GS63" s="6"/>
-      <c r="GT63" s="6"/>
-      <c r="GU63" s="6"/>
-      <c r="GV63" s="6"/>
-      <c r="GW63" s="6"/>
-      <c r="GX63" s="6"/>
-      <c r="GY63" s="6"/>
-      <c r="GZ63" s="6"/>
-      <c r="HA63" s="6"/>
-      <c r="HB63" s="6"/>
-      <c r="HC63" s="6"/>
-      <c r="HD63" s="6"/>
-      <c r="HE63" s="6"/>
-      <c r="HF63" s="6"/>
-      <c r="HG63" s="6"/>
-      <c r="HH63" s="6"/>
-      <c r="HI63" s="6"/>
-      <c r="HJ63" s="6"/>
-      <c r="HK63" s="6"/>
-      <c r="HL63" s="6"/>
-      <c r="HM63" s="6"/>
-      <c r="HN63" s="6"/>
-      <c r="HO63" s="6"/>
-      <c r="HP63" s="6"/>
-      <c r="HQ63" s="6"/>
-      <c r="HR63" s="6"/>
-      <c r="HS63" s="6"/>
-      <c r="HT63" s="6"/>
-      <c r="HU63" s="6"/>
-      <c r="HV63" s="6"/>
-      <c r="HW63" s="6"/>
-      <c r="HX63" s="6"/>
-      <c r="HY63" s="6"/>
-      <c r="HZ63" s="6"/>
-      <c r="IA63" s="6"/>
-      <c r="IB63" s="6"/>
-      <c r="IC63" s="6"/>
-      <c r="ID63" s="6"/>
-      <c r="IE63" s="6"/>
-      <c r="IF63" s="6"/>
-      <c r="IG63" s="6"/>
-      <c r="IH63" s="6"/>
-      <c r="II63" s="6"/>
-      <c r="IJ63" s="6"/>
-      <c r="IK63" s="6"/>
-      <c r="IL63" s="6"/>
-      <c r="IM63" s="6"/>
-      <c r="IN63" s="6"/>
-      <c r="IO63" s="6"/>
-      <c r="IP63" s="6"/>
-      <c r="IQ63" s="6"/>
-      <c r="IR63" s="6"/>
-      <c r="IS63" s="6"/>
-      <c r="IT63" s="6"/>
-      <c r="IU63" s="6"/>
-      <c r="IV63" s="6"/>
-      <c r="IW63" s="6"/>
-      <c r="IX63" s="6"/>
-      <c r="IY63" s="6"/>
-      <c r="IZ63" s="6"/>
-      <c r="JA63" s="6"/>
     </row>
     <row r="64" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B64" s="7" t="str">
-        <f>"VX"&amp;D64&amp;F64</f>
-        <v>VXTDn</v>
+        <f t="shared" si="2"/>
+        <v>VXT?</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>143</v>
@@ -10023,279 +10527,27 @@
         <v>143</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="6"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="6"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="6"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="6"/>
-      <c r="AI64" s="6"/>
-      <c r="AJ64" s="6"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="6"/>
-      <c r="AM64" s="6"/>
-      <c r="AN64" s="6"/>
-      <c r="AO64" s="6"/>
-      <c r="AP64" s="6"/>
-      <c r="AQ64" s="6"/>
-      <c r="AR64" s="6"/>
-      <c r="AS64" s="6"/>
-      <c r="AT64" s="6"/>
-      <c r="AU64" s="6"/>
-      <c r="AV64" s="6"/>
-      <c r="AW64" s="6"/>
-      <c r="AX64" s="6"/>
-      <c r="AY64" s="6"/>
-      <c r="AZ64" s="6"/>
-      <c r="BA64" s="6"/>
-      <c r="BB64" s="6"/>
-      <c r="BC64" s="6"/>
-      <c r="BD64" s="6"/>
-      <c r="BE64" s="6"/>
-      <c r="BF64" s="6"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="6"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="6"/>
-      <c r="BK64" s="6"/>
-      <c r="BL64" s="6"/>
-      <c r="BM64" s="6"/>
-      <c r="BN64" s="6"/>
-      <c r="BO64" s="6"/>
-      <c r="BP64" s="6"/>
-      <c r="BQ64" s="6"/>
-      <c r="BR64" s="6"/>
-      <c r="BS64" s="6"/>
-      <c r="BT64" s="6"/>
-      <c r="BU64" s="6"/>
-      <c r="BV64" s="6"/>
-      <c r="BW64" s="6"/>
-      <c r="BX64" s="6"/>
-      <c r="BY64" s="6"/>
-      <c r="BZ64" s="6"/>
-      <c r="CA64" s="6"/>
-      <c r="CB64" s="6"/>
-      <c r="CC64" s="6"/>
-      <c r="CD64" s="6"/>
-      <c r="CE64" s="6"/>
-      <c r="CF64" s="6"/>
-      <c r="CG64" s="6"/>
-      <c r="CH64" s="6"/>
-      <c r="CI64" s="6"/>
-      <c r="CJ64" s="6"/>
-      <c r="CK64" s="6"/>
-      <c r="CL64" s="6"/>
-      <c r="CM64" s="6"/>
-      <c r="CN64" s="6"/>
-      <c r="CO64" s="6"/>
-      <c r="CP64" s="6"/>
-      <c r="CQ64" s="6"/>
-      <c r="CR64" s="6"/>
-      <c r="CS64" s="6"/>
-      <c r="CT64" s="6"/>
-      <c r="CU64" s="6"/>
-      <c r="CV64" s="6"/>
-      <c r="CW64" s="6"/>
-      <c r="CX64" s="6"/>
-      <c r="CY64" s="6"/>
-      <c r="CZ64" s="6"/>
-      <c r="DA64" s="6"/>
-      <c r="DB64" s="6"/>
-      <c r="DC64" s="6"/>
-      <c r="DD64" s="6"/>
-      <c r="DE64" s="6"/>
-      <c r="DF64" s="6"/>
-      <c r="DG64" s="6"/>
-      <c r="DH64" s="6"/>
-      <c r="DI64" s="6"/>
-      <c r="DJ64" s="6"/>
-      <c r="DK64" s="6"/>
-      <c r="DL64" s="6"/>
-      <c r="DM64" s="6"/>
-      <c r="DN64" s="6"/>
-      <c r="DO64" s="6"/>
-      <c r="DP64" s="6"/>
-      <c r="DQ64" s="6"/>
-      <c r="DR64" s="6"/>
-      <c r="DS64" s="6"/>
-      <c r="DT64" s="6"/>
-      <c r="DU64" s="6"/>
-      <c r="DV64" s="6"/>
-      <c r="DW64" s="6"/>
-      <c r="DX64" s="6"/>
-      <c r="DY64" s="6"/>
-      <c r="DZ64" s="6"/>
-      <c r="EA64" s="6"/>
-      <c r="EB64" s="6"/>
-      <c r="EC64" s="6"/>
-      <c r="ED64" s="6"/>
-      <c r="EE64" s="6"/>
-      <c r="EF64" s="6"/>
-      <c r="EG64" s="6"/>
-      <c r="EH64" s="6"/>
-      <c r="EI64" s="6"/>
-      <c r="EJ64" s="6"/>
-      <c r="EK64" s="6"/>
-      <c r="EL64" s="6"/>
-      <c r="EM64" s="6"/>
-      <c r="EN64" s="6"/>
-      <c r="EO64" s="6"/>
-      <c r="EP64" s="6"/>
-      <c r="EQ64" s="6"/>
-      <c r="ER64" s="6"/>
-      <c r="ES64" s="6"/>
-      <c r="ET64" s="6"/>
-      <c r="EU64" s="6"/>
-      <c r="EV64" s="6"/>
-      <c r="EW64" s="6"/>
-      <c r="EX64" s="6"/>
-      <c r="EY64" s="6"/>
-      <c r="EZ64" s="6"/>
-      <c r="FA64" s="6"/>
-      <c r="FB64" s="6"/>
-      <c r="FC64" s="6"/>
-      <c r="FD64" s="6"/>
-      <c r="FE64" s="6"/>
-      <c r="FF64" s="6"/>
-      <c r="FG64" s="6"/>
-      <c r="FH64" s="6"/>
-      <c r="FI64" s="6"/>
-      <c r="FJ64" s="6"/>
-      <c r="FK64" s="6"/>
-      <c r="FL64" s="6"/>
-      <c r="FM64" s="6"/>
-      <c r="FN64" s="6"/>
-      <c r="FO64" s="6"/>
-      <c r="FP64" s="6"/>
-      <c r="FQ64" s="6"/>
-      <c r="FR64" s="6"/>
-      <c r="FS64" s="6"/>
-      <c r="FT64" s="6"/>
-      <c r="FU64" s="6"/>
-      <c r="FV64" s="6"/>
-      <c r="FW64" s="6"/>
-      <c r="FX64" s="6"/>
-      <c r="FY64" s="6"/>
-      <c r="FZ64" s="6"/>
-      <c r="GA64" s="6"/>
-      <c r="GB64" s="6"/>
-      <c r="GC64" s="6"/>
-      <c r="GD64" s="6"/>
-      <c r="GE64" s="6"/>
-      <c r="GF64" s="6"/>
-      <c r="GG64" s="6"/>
-      <c r="GH64" s="6"/>
-      <c r="GI64" s="6"/>
-      <c r="GJ64" s="6"/>
-      <c r="GK64" s="6"/>
-      <c r="GL64" s="6"/>
-      <c r="GM64" s="6"/>
-      <c r="GN64" s="6"/>
-      <c r="GO64" s="6"/>
-      <c r="GP64" s="6"/>
-      <c r="GQ64" s="6"/>
-      <c r="GR64" s="6"/>
-      <c r="GS64" s="6"/>
-      <c r="GT64" s="6"/>
-      <c r="GU64" s="6"/>
-      <c r="GV64" s="6"/>
-      <c r="GW64" s="6"/>
-      <c r="GX64" s="6"/>
-      <c r="GY64" s="6"/>
-      <c r="GZ64" s="6"/>
-      <c r="HA64" s="6"/>
-      <c r="HB64" s="6"/>
-      <c r="HC64" s="6"/>
-      <c r="HD64" s="6"/>
-      <c r="HE64" s="6"/>
-      <c r="HF64" s="6"/>
-      <c r="HG64" s="6"/>
-      <c r="HH64" s="6"/>
-      <c r="HI64" s="6"/>
-      <c r="HJ64" s="6"/>
-      <c r="HK64" s="6"/>
-      <c r="HL64" s="6"/>
-      <c r="HM64" s="6"/>
-      <c r="HN64" s="6"/>
-      <c r="HO64" s="6"/>
-      <c r="HP64" s="6"/>
-      <c r="HQ64" s="6"/>
-      <c r="HR64" s="6"/>
-      <c r="HS64" s="6"/>
-      <c r="HT64" s="6"/>
-      <c r="HU64" s="6"/>
-      <c r="HV64" s="6"/>
-      <c r="HW64" s="6"/>
-      <c r="HX64" s="6"/>
-      <c r="HY64" s="6"/>
-      <c r="HZ64" s="6"/>
-      <c r="IA64" s="6"/>
-      <c r="IB64" s="6"/>
-      <c r="IC64" s="6"/>
-      <c r="ID64" s="6"/>
-      <c r="IE64" s="6"/>
-      <c r="IF64" s="6"/>
-      <c r="IG64" s="6"/>
-      <c r="IH64" s="6"/>
-      <c r="II64" s="6"/>
-      <c r="IJ64" s="6"/>
-      <c r="IK64" s="6"/>
-      <c r="IL64" s="6"/>
-      <c r="IM64" s="6"/>
-      <c r="IN64" s="6"/>
-      <c r="IO64" s="6"/>
-      <c r="IP64" s="6"/>
-      <c r="IQ64" s="6"/>
-      <c r="IR64" s="6"/>
-      <c r="IS64" s="6"/>
-      <c r="IT64" s="6"/>
-      <c r="IU64" s="6"/>
-      <c r="IV64" s="6"/>
-      <c r="IW64" s="6"/>
-      <c r="IX64" s="6"/>
-      <c r="IY64" s="6"/>
-      <c r="IZ64" s="6"/>
-      <c r="JA64" s="6"/>
     </row>
     <row r="65" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B65" s="7" t="str">
-        <f>"VX"&amp;D65&amp;F65</f>
-        <v>VXTG</v>
+        <f t="shared" si="2"/>
+        <v>VXTA</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>143</v>
@@ -10307,277 +10559,29 @@
         <v>143</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I65" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="K65" s="3"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6"/>
-      <c r="AM65" s="6"/>
-      <c r="AN65" s="6"/>
-      <c r="AO65" s="6"/>
-      <c r="AP65" s="6"/>
-      <c r="AQ65" s="6"/>
-      <c r="AR65" s="6"/>
-      <c r="AS65" s="6"/>
-      <c r="AT65" s="6"/>
-      <c r="AU65" s="6"/>
-      <c r="AV65" s="6"/>
-      <c r="AW65" s="6"/>
-      <c r="AX65" s="6"/>
-      <c r="AY65" s="6"/>
-      <c r="AZ65" s="6"/>
-      <c r="BA65" s="6"/>
-      <c r="BB65" s="6"/>
-      <c r="BC65" s="6"/>
-      <c r="BD65" s="6"/>
-      <c r="BE65" s="6"/>
-      <c r="BF65" s="6"/>
-      <c r="BG65" s="6"/>
-      <c r="BH65" s="6"/>
-      <c r="BI65" s="6"/>
-      <c r="BJ65" s="6"/>
-      <c r="BK65" s="6"/>
-      <c r="BL65" s="6"/>
-      <c r="BM65" s="6"/>
-      <c r="BN65" s="6"/>
-      <c r="BO65" s="6"/>
-      <c r="BP65" s="6"/>
-      <c r="BQ65" s="6"/>
-      <c r="BR65" s="6"/>
-      <c r="BS65" s="6"/>
-      <c r="BT65" s="6"/>
-      <c r="BU65" s="6"/>
-      <c r="BV65" s="6"/>
-      <c r="BW65" s="6"/>
-      <c r="BX65" s="6"/>
-      <c r="BY65" s="6"/>
-      <c r="BZ65" s="6"/>
-      <c r="CA65" s="6"/>
-      <c r="CB65" s="6"/>
-      <c r="CC65" s="6"/>
-      <c r="CD65" s="6"/>
-      <c r="CE65" s="6"/>
-      <c r="CF65" s="6"/>
-      <c r="CG65" s="6"/>
-      <c r="CH65" s="6"/>
-      <c r="CI65" s="6"/>
-      <c r="CJ65" s="6"/>
-      <c r="CK65" s="6"/>
-      <c r="CL65" s="6"/>
-      <c r="CM65" s="6"/>
-      <c r="CN65" s="6"/>
-      <c r="CO65" s="6"/>
-      <c r="CP65" s="6"/>
-      <c r="CQ65" s="6"/>
-      <c r="CR65" s="6"/>
-      <c r="CS65" s="6"/>
-      <c r="CT65" s="6"/>
-      <c r="CU65" s="6"/>
-      <c r="CV65" s="6"/>
-      <c r="CW65" s="6"/>
-      <c r="CX65" s="6"/>
-      <c r="CY65" s="6"/>
-      <c r="CZ65" s="6"/>
-      <c r="DA65" s="6"/>
-      <c r="DB65" s="6"/>
-      <c r="DC65" s="6"/>
-      <c r="DD65" s="6"/>
-      <c r="DE65" s="6"/>
-      <c r="DF65" s="6"/>
-      <c r="DG65" s="6"/>
-      <c r="DH65" s="6"/>
-      <c r="DI65" s="6"/>
-      <c r="DJ65" s="6"/>
-      <c r="DK65" s="6"/>
-      <c r="DL65" s="6"/>
-      <c r="DM65" s="6"/>
-      <c r="DN65" s="6"/>
-      <c r="DO65" s="6"/>
-      <c r="DP65" s="6"/>
-      <c r="DQ65" s="6"/>
-      <c r="DR65" s="6"/>
-      <c r="DS65" s="6"/>
-      <c r="DT65" s="6"/>
-      <c r="DU65" s="6"/>
-      <c r="DV65" s="6"/>
-      <c r="DW65" s="6"/>
-      <c r="DX65" s="6"/>
-      <c r="DY65" s="6"/>
-      <c r="DZ65" s="6"/>
-      <c r="EA65" s="6"/>
-      <c r="EB65" s="6"/>
-      <c r="EC65" s="6"/>
-      <c r="ED65" s="6"/>
-      <c r="EE65" s="6"/>
-      <c r="EF65" s="6"/>
-      <c r="EG65" s="6"/>
-      <c r="EH65" s="6"/>
-      <c r="EI65" s="6"/>
-      <c r="EJ65" s="6"/>
-      <c r="EK65" s="6"/>
-      <c r="EL65" s="6"/>
-      <c r="EM65" s="6"/>
-      <c r="EN65" s="6"/>
-      <c r="EO65" s="6"/>
-      <c r="EP65" s="6"/>
-      <c r="EQ65" s="6"/>
-      <c r="ER65" s="6"/>
-      <c r="ES65" s="6"/>
-      <c r="ET65" s="6"/>
-      <c r="EU65" s="6"/>
-      <c r="EV65" s="6"/>
-      <c r="EW65" s="6"/>
-      <c r="EX65" s="6"/>
-      <c r="EY65" s="6"/>
-      <c r="EZ65" s="6"/>
-      <c r="FA65" s="6"/>
-      <c r="FB65" s="6"/>
-      <c r="FC65" s="6"/>
-      <c r="FD65" s="6"/>
-      <c r="FE65" s="6"/>
-      <c r="FF65" s="6"/>
-      <c r="FG65" s="6"/>
-      <c r="FH65" s="6"/>
-      <c r="FI65" s="6"/>
-      <c r="FJ65" s="6"/>
-      <c r="FK65" s="6"/>
-      <c r="FL65" s="6"/>
-      <c r="FM65" s="6"/>
-      <c r="FN65" s="6"/>
-      <c r="FO65" s="6"/>
-      <c r="FP65" s="6"/>
-      <c r="FQ65" s="6"/>
-      <c r="FR65" s="6"/>
-      <c r="FS65" s="6"/>
-      <c r="FT65" s="6"/>
-      <c r="FU65" s="6"/>
-      <c r="FV65" s="6"/>
-      <c r="FW65" s="6"/>
-      <c r="FX65" s="6"/>
-      <c r="FY65" s="6"/>
-      <c r="FZ65" s="6"/>
-      <c r="GA65" s="6"/>
-      <c r="GB65" s="6"/>
-      <c r="GC65" s="6"/>
-      <c r="GD65" s="6"/>
-      <c r="GE65" s="6"/>
-      <c r="GF65" s="6"/>
-      <c r="GG65" s="6"/>
-      <c r="GH65" s="6"/>
-      <c r="GI65" s="6"/>
-      <c r="GJ65" s="6"/>
-      <c r="GK65" s="6"/>
-      <c r="GL65" s="6"/>
-      <c r="GM65" s="6"/>
-      <c r="GN65" s="6"/>
-      <c r="GO65" s="6"/>
-      <c r="GP65" s="6"/>
-      <c r="GQ65" s="6"/>
-      <c r="GR65" s="6"/>
-      <c r="GS65" s="6"/>
-      <c r="GT65" s="6"/>
-      <c r="GU65" s="6"/>
-      <c r="GV65" s="6"/>
-      <c r="GW65" s="6"/>
-      <c r="GX65" s="6"/>
-      <c r="GY65" s="6"/>
-      <c r="GZ65" s="6"/>
-      <c r="HA65" s="6"/>
-      <c r="HB65" s="6"/>
-      <c r="HC65" s="6"/>
-      <c r="HD65" s="6"/>
-      <c r="HE65" s="6"/>
-      <c r="HF65" s="6"/>
-      <c r="HG65" s="6"/>
-      <c r="HH65" s="6"/>
-      <c r="HI65" s="6"/>
-      <c r="HJ65" s="6"/>
-      <c r="HK65" s="6"/>
-      <c r="HL65" s="6"/>
-      <c r="HM65" s="6"/>
-      <c r="HN65" s="6"/>
-      <c r="HO65" s="6"/>
-      <c r="HP65" s="6"/>
-      <c r="HQ65" s="6"/>
-      <c r="HR65" s="6"/>
-      <c r="HS65" s="6"/>
-      <c r="HT65" s="6"/>
-      <c r="HU65" s="6"/>
-      <c r="HV65" s="6"/>
-      <c r="HW65" s="6"/>
-      <c r="HX65" s="6"/>
-      <c r="HY65" s="6"/>
-      <c r="HZ65" s="6"/>
-      <c r="IA65" s="6"/>
-      <c r="IB65" s="6"/>
-      <c r="IC65" s="6"/>
-      <c r="ID65" s="6"/>
-      <c r="IE65" s="6"/>
-      <c r="IF65" s="6"/>
-      <c r="IG65" s="6"/>
-      <c r="IH65" s="6"/>
-      <c r="II65" s="6"/>
-      <c r="IJ65" s="6"/>
-      <c r="IK65" s="6"/>
-      <c r="IL65" s="6"/>
-      <c r="IM65" s="6"/>
-      <c r="IN65" s="6"/>
-      <c r="IO65" s="6"/>
-      <c r="IP65" s="6"/>
-      <c r="IQ65" s="6"/>
-      <c r="IR65" s="6"/>
-      <c r="IS65" s="6"/>
-      <c r="IT65" s="6"/>
-      <c r="IU65" s="6"/>
-      <c r="IV65" s="6"/>
-      <c r="IW65" s="6"/>
-      <c r="IX65" s="6"/>
-      <c r="IY65" s="6"/>
-      <c r="IZ65" s="6"/>
-      <c r="JA65" s="6"/>
     </row>
     <row r="66" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B66" s="7" t="str">
-        <f>"VX"&amp;D66&amp;F66</f>
-        <v>VXTI</v>
+        <f t="shared" si="2"/>
+        <v>VXTD</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>143</v>
@@ -10589,13 +10593,13 @@
         <v>143</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="I66" s="7" t="s">
         <v>143</v>
@@ -10858,8 +10862,8 @@
         <v>143</v>
       </c>
       <c r="B67" s="7" t="str">
-        <f>"VX"&amp;D67&amp;F67</f>
-        <v>VXTQ</v>
+        <f t="shared" si="2"/>
+        <v>VXTDn</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>143</v>
@@ -10871,18 +10875,20 @@
         <v>143</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I67" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="K67" s="3"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -11140,8 +11146,8 @@
         <v>143</v>
       </c>
       <c r="B68" s="7" t="str">
-        <f>"VX"&amp;D68&amp;F68</f>
-        <v>VXTR</v>
+        <f t="shared" si="2"/>
+        <v>VXTG</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>143</v>
@@ -11153,20 +11159,18 @@
         <v>143</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -11424,8 +11428,8 @@
         <v>143</v>
       </c>
       <c r="B69" s="7" t="str">
-        <f>"VX"&amp;D69&amp;F69</f>
-        <v>VXTS</v>
+        <f t="shared" ref="B69:B83" si="3">"VX"&amp;D69&amp;F69</f>
+        <v>VXTI</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>143</v>
@@ -11437,13 +11441,13 @@
         <v>143</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>143</v>
@@ -11706,8 +11710,8 @@
         <v>143</v>
       </c>
       <c r="B70" s="7" t="str">
-        <f>"VX"&amp;D70&amp;F70</f>
-        <v>VXTU</v>
+        <f t="shared" si="3"/>
+        <v>VXTQ</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>143</v>
@@ -11719,13 +11723,13 @@
         <v>143</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>143</v>
@@ -11988,8 +11992,8 @@
         <v>143</v>
       </c>
       <c r="B71" s="7" t="str">
-        <f>"VX"&amp;D71&amp;F71</f>
-        <v>VXTWxxxxx</v>
+        <f t="shared" si="3"/>
+        <v>VXTR</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>143</v>
@@ -12001,18 +12005,20 @@
         <v>143</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="I71" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J71" s="3"/>
+      <c r="J71" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="K71" s="3"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -12270,8 +12276,8 @@
         <v>143</v>
       </c>
       <c r="B72" s="7" t="str">
-        <f>"VX"&amp;D72&amp;F72</f>
-        <v>VXTZnnn</v>
+        <f t="shared" si="3"/>
+        <v>VXTS</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>143</v>
@@ -12283,13 +12289,13 @@
         <v>143</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I72" s="7" t="s">
         <v>143</v>
@@ -12552,8 +12558,8 @@
         <v>143</v>
       </c>
       <c r="B73" s="7" t="str">
-        <f>"VX"&amp;D73&amp;F73</f>
-        <v>VXT</v>
+        <f t="shared" si="3"/>
+        <v>VXTU</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>143</v>
@@ -12564,12 +12570,14 @@
       <c r="E73" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="G73" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>143</v>
@@ -12832,135 +12840,882 @@
         <v>143</v>
       </c>
       <c r="B74" s="7" t="str">
-        <f>"VX"&amp;D74&amp;F74</f>
-        <v>VX?</v>
+        <f t="shared" si="3"/>
+        <v>VXTWxxxxx</v>
       </c>
       <c r="C74" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E74" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>101</v>
+      <c r="F74" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H74" s="3" t="s">
-        <v>102</v>
+      <c r="H74" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="I74" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="6"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="6"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="6"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="6"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="6"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="6"/>
+      <c r="AP74" s="6"/>
+      <c r="AQ74" s="6"/>
+      <c r="AR74" s="6"/>
+      <c r="AS74" s="6"/>
+      <c r="AT74" s="6"/>
+      <c r="AU74" s="6"/>
+      <c r="AV74" s="6"/>
+      <c r="AW74" s="6"/>
+      <c r="AX74" s="6"/>
+      <c r="AY74" s="6"/>
+      <c r="AZ74" s="6"/>
+      <c r="BA74" s="6"/>
+      <c r="BB74" s="6"/>
+      <c r="BC74" s="6"/>
+      <c r="BD74" s="6"/>
+      <c r="BE74" s="6"/>
+      <c r="BF74" s="6"/>
+      <c r="BG74" s="6"/>
+      <c r="BH74" s="6"/>
+      <c r="BI74" s="6"/>
+      <c r="BJ74" s="6"/>
+      <c r="BK74" s="6"/>
+      <c r="BL74" s="6"/>
+      <c r="BM74" s="6"/>
+      <c r="BN74" s="6"/>
+      <c r="BO74" s="6"/>
+      <c r="BP74" s="6"/>
+      <c r="BQ74" s="6"/>
+      <c r="BR74" s="6"/>
+      <c r="BS74" s="6"/>
+      <c r="BT74" s="6"/>
+      <c r="BU74" s="6"/>
+      <c r="BV74" s="6"/>
+      <c r="BW74" s="6"/>
+      <c r="BX74" s="6"/>
+      <c r="BY74" s="6"/>
+      <c r="BZ74" s="6"/>
+      <c r="CA74" s="6"/>
+      <c r="CB74" s="6"/>
+      <c r="CC74" s="6"/>
+      <c r="CD74" s="6"/>
+      <c r="CE74" s="6"/>
+      <c r="CF74" s="6"/>
+      <c r="CG74" s="6"/>
+      <c r="CH74" s="6"/>
+      <c r="CI74" s="6"/>
+      <c r="CJ74" s="6"/>
+      <c r="CK74" s="6"/>
+      <c r="CL74" s="6"/>
+      <c r="CM74" s="6"/>
+      <c r="CN74" s="6"/>
+      <c r="CO74" s="6"/>
+      <c r="CP74" s="6"/>
+      <c r="CQ74" s="6"/>
+      <c r="CR74" s="6"/>
+      <c r="CS74" s="6"/>
+      <c r="CT74" s="6"/>
+      <c r="CU74" s="6"/>
+      <c r="CV74" s="6"/>
+      <c r="CW74" s="6"/>
+      <c r="CX74" s="6"/>
+      <c r="CY74" s="6"/>
+      <c r="CZ74" s="6"/>
+      <c r="DA74" s="6"/>
+      <c r="DB74" s="6"/>
+      <c r="DC74" s="6"/>
+      <c r="DD74" s="6"/>
+      <c r="DE74" s="6"/>
+      <c r="DF74" s="6"/>
+      <c r="DG74" s="6"/>
+      <c r="DH74" s="6"/>
+      <c r="DI74" s="6"/>
+      <c r="DJ74" s="6"/>
+      <c r="DK74" s="6"/>
+      <c r="DL74" s="6"/>
+      <c r="DM74" s="6"/>
+      <c r="DN74" s="6"/>
+      <c r="DO74" s="6"/>
+      <c r="DP74" s="6"/>
+      <c r="DQ74" s="6"/>
+      <c r="DR74" s="6"/>
+      <c r="DS74" s="6"/>
+      <c r="DT74" s="6"/>
+      <c r="DU74" s="6"/>
+      <c r="DV74" s="6"/>
+      <c r="DW74" s="6"/>
+      <c r="DX74" s="6"/>
+      <c r="DY74" s="6"/>
+      <c r="DZ74" s="6"/>
+      <c r="EA74" s="6"/>
+      <c r="EB74" s="6"/>
+      <c r="EC74" s="6"/>
+      <c r="ED74" s="6"/>
+      <c r="EE74" s="6"/>
+      <c r="EF74" s="6"/>
+      <c r="EG74" s="6"/>
+      <c r="EH74" s="6"/>
+      <c r="EI74" s="6"/>
+      <c r="EJ74" s="6"/>
+      <c r="EK74" s="6"/>
+      <c r="EL74" s="6"/>
+      <c r="EM74" s="6"/>
+      <c r="EN74" s="6"/>
+      <c r="EO74" s="6"/>
+      <c r="EP74" s="6"/>
+      <c r="EQ74" s="6"/>
+      <c r="ER74" s="6"/>
+      <c r="ES74" s="6"/>
+      <c r="ET74" s="6"/>
+      <c r="EU74" s="6"/>
+      <c r="EV74" s="6"/>
+      <c r="EW74" s="6"/>
+      <c r="EX74" s="6"/>
+      <c r="EY74" s="6"/>
+      <c r="EZ74" s="6"/>
+      <c r="FA74" s="6"/>
+      <c r="FB74" s="6"/>
+      <c r="FC74" s="6"/>
+      <c r="FD74" s="6"/>
+      <c r="FE74" s="6"/>
+      <c r="FF74" s="6"/>
+      <c r="FG74" s="6"/>
+      <c r="FH74" s="6"/>
+      <c r="FI74" s="6"/>
+      <c r="FJ74" s="6"/>
+      <c r="FK74" s="6"/>
+      <c r="FL74" s="6"/>
+      <c r="FM74" s="6"/>
+      <c r="FN74" s="6"/>
+      <c r="FO74" s="6"/>
+      <c r="FP74" s="6"/>
+      <c r="FQ74" s="6"/>
+      <c r="FR74" s="6"/>
+      <c r="FS74" s="6"/>
+      <c r="FT74" s="6"/>
+      <c r="FU74" s="6"/>
+      <c r="FV74" s="6"/>
+      <c r="FW74" s="6"/>
+      <c r="FX74" s="6"/>
+      <c r="FY74" s="6"/>
+      <c r="FZ74" s="6"/>
+      <c r="GA74" s="6"/>
+      <c r="GB74" s="6"/>
+      <c r="GC74" s="6"/>
+      <c r="GD74" s="6"/>
+      <c r="GE74" s="6"/>
+      <c r="GF74" s="6"/>
+      <c r="GG74" s="6"/>
+      <c r="GH74" s="6"/>
+      <c r="GI74" s="6"/>
+      <c r="GJ74" s="6"/>
+      <c r="GK74" s="6"/>
+      <c r="GL74" s="6"/>
+      <c r="GM74" s="6"/>
+      <c r="GN74" s="6"/>
+      <c r="GO74" s="6"/>
+      <c r="GP74" s="6"/>
+      <c r="GQ74" s="6"/>
+      <c r="GR74" s="6"/>
+      <c r="GS74" s="6"/>
+      <c r="GT74" s="6"/>
+      <c r="GU74" s="6"/>
+      <c r="GV74" s="6"/>
+      <c r="GW74" s="6"/>
+      <c r="GX74" s="6"/>
+      <c r="GY74" s="6"/>
+      <c r="GZ74" s="6"/>
+      <c r="HA74" s="6"/>
+      <c r="HB74" s="6"/>
+      <c r="HC74" s="6"/>
+      <c r="HD74" s="6"/>
+      <c r="HE74" s="6"/>
+      <c r="HF74" s="6"/>
+      <c r="HG74" s="6"/>
+      <c r="HH74" s="6"/>
+      <c r="HI74" s="6"/>
+      <c r="HJ74" s="6"/>
+      <c r="HK74" s="6"/>
+      <c r="HL74" s="6"/>
+      <c r="HM74" s="6"/>
+      <c r="HN74" s="6"/>
+      <c r="HO74" s="6"/>
+      <c r="HP74" s="6"/>
+      <c r="HQ74" s="6"/>
+      <c r="HR74" s="6"/>
+      <c r="HS74" s="6"/>
+      <c r="HT74" s="6"/>
+      <c r="HU74" s="6"/>
+      <c r="HV74" s="6"/>
+      <c r="HW74" s="6"/>
+      <c r="HX74" s="6"/>
+      <c r="HY74" s="6"/>
+      <c r="HZ74" s="6"/>
+      <c r="IA74" s="6"/>
+      <c r="IB74" s="6"/>
+      <c r="IC74" s="6"/>
+      <c r="ID74" s="6"/>
+      <c r="IE74" s="6"/>
+      <c r="IF74" s="6"/>
+      <c r="IG74" s="6"/>
+      <c r="IH74" s="6"/>
+      <c r="II74" s="6"/>
+      <c r="IJ74" s="6"/>
+      <c r="IK74" s="6"/>
+      <c r="IL74" s="6"/>
+      <c r="IM74" s="6"/>
+      <c r="IN74" s="6"/>
+      <c r="IO74" s="6"/>
+      <c r="IP74" s="6"/>
+      <c r="IQ74" s="6"/>
+      <c r="IR74" s="6"/>
+      <c r="IS74" s="6"/>
+      <c r="IT74" s="6"/>
+      <c r="IU74" s="6"/>
+      <c r="IV74" s="6"/>
+      <c r="IW74" s="6"/>
+      <c r="IX74" s="6"/>
+      <c r="IY74" s="6"/>
+      <c r="IZ74" s="6"/>
+      <c r="JA74" s="6"/>
     </row>
     <row r="75" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="7" t="str">
-        <f>"VX"&amp;D75&amp;F75</f>
-        <v>VXG</v>
+        <f t="shared" si="3"/>
+        <v>VXTZnnn</v>
       </c>
       <c r="C75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>27</v>
+      <c r="F75" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="I75" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
+      <c r="AD75" s="6"/>
+      <c r="AE75" s="6"/>
+      <c r="AF75" s="6"/>
+      <c r="AG75" s="6"/>
+      <c r="AH75" s="6"/>
+      <c r="AI75" s="6"/>
+      <c r="AJ75" s="6"/>
+      <c r="AK75" s="6"/>
+      <c r="AL75" s="6"/>
+      <c r="AM75" s="6"/>
+      <c r="AN75" s="6"/>
+      <c r="AO75" s="6"/>
+      <c r="AP75" s="6"/>
+      <c r="AQ75" s="6"/>
+      <c r="AR75" s="6"/>
+      <c r="AS75" s="6"/>
+      <c r="AT75" s="6"/>
+      <c r="AU75" s="6"/>
+      <c r="AV75" s="6"/>
+      <c r="AW75" s="6"/>
+      <c r="AX75" s="6"/>
+      <c r="AY75" s="6"/>
+      <c r="AZ75" s="6"/>
+      <c r="BA75" s="6"/>
+      <c r="BB75" s="6"/>
+      <c r="BC75" s="6"/>
+      <c r="BD75" s="6"/>
+      <c r="BE75" s="6"/>
+      <c r="BF75" s="6"/>
+      <c r="BG75" s="6"/>
+      <c r="BH75" s="6"/>
+      <c r="BI75" s="6"/>
+      <c r="BJ75" s="6"/>
+      <c r="BK75" s="6"/>
+      <c r="BL75" s="6"/>
+      <c r="BM75" s="6"/>
+      <c r="BN75" s="6"/>
+      <c r="BO75" s="6"/>
+      <c r="BP75" s="6"/>
+      <c r="BQ75" s="6"/>
+      <c r="BR75" s="6"/>
+      <c r="BS75" s="6"/>
+      <c r="BT75" s="6"/>
+      <c r="BU75" s="6"/>
+      <c r="BV75" s="6"/>
+      <c r="BW75" s="6"/>
+      <c r="BX75" s="6"/>
+      <c r="BY75" s="6"/>
+      <c r="BZ75" s="6"/>
+      <c r="CA75" s="6"/>
+      <c r="CB75" s="6"/>
+      <c r="CC75" s="6"/>
+      <c r="CD75" s="6"/>
+      <c r="CE75" s="6"/>
+      <c r="CF75" s="6"/>
+      <c r="CG75" s="6"/>
+      <c r="CH75" s="6"/>
+      <c r="CI75" s="6"/>
+      <c r="CJ75" s="6"/>
+      <c r="CK75" s="6"/>
+      <c r="CL75" s="6"/>
+      <c r="CM75" s="6"/>
+      <c r="CN75" s="6"/>
+      <c r="CO75" s="6"/>
+      <c r="CP75" s="6"/>
+      <c r="CQ75" s="6"/>
+      <c r="CR75" s="6"/>
+      <c r="CS75" s="6"/>
+      <c r="CT75" s="6"/>
+      <c r="CU75" s="6"/>
+      <c r="CV75" s="6"/>
+      <c r="CW75" s="6"/>
+      <c r="CX75" s="6"/>
+      <c r="CY75" s="6"/>
+      <c r="CZ75" s="6"/>
+      <c r="DA75" s="6"/>
+      <c r="DB75" s="6"/>
+      <c r="DC75" s="6"/>
+      <c r="DD75" s="6"/>
+      <c r="DE75" s="6"/>
+      <c r="DF75" s="6"/>
+      <c r="DG75" s="6"/>
+      <c r="DH75" s="6"/>
+      <c r="DI75" s="6"/>
+      <c r="DJ75" s="6"/>
+      <c r="DK75" s="6"/>
+      <c r="DL75" s="6"/>
+      <c r="DM75" s="6"/>
+      <c r="DN75" s="6"/>
+      <c r="DO75" s="6"/>
+      <c r="DP75" s="6"/>
+      <c r="DQ75" s="6"/>
+      <c r="DR75" s="6"/>
+      <c r="DS75" s="6"/>
+      <c r="DT75" s="6"/>
+      <c r="DU75" s="6"/>
+      <c r="DV75" s="6"/>
+      <c r="DW75" s="6"/>
+      <c r="DX75" s="6"/>
+      <c r="DY75" s="6"/>
+      <c r="DZ75" s="6"/>
+      <c r="EA75" s="6"/>
+      <c r="EB75" s="6"/>
+      <c r="EC75" s="6"/>
+      <c r="ED75" s="6"/>
+      <c r="EE75" s="6"/>
+      <c r="EF75" s="6"/>
+      <c r="EG75" s="6"/>
+      <c r="EH75" s="6"/>
+      <c r="EI75" s="6"/>
+      <c r="EJ75" s="6"/>
+      <c r="EK75" s="6"/>
+      <c r="EL75" s="6"/>
+      <c r="EM75" s="6"/>
+      <c r="EN75" s="6"/>
+      <c r="EO75" s="6"/>
+      <c r="EP75" s="6"/>
+      <c r="EQ75" s="6"/>
+      <c r="ER75" s="6"/>
+      <c r="ES75" s="6"/>
+      <c r="ET75" s="6"/>
+      <c r="EU75" s="6"/>
+      <c r="EV75" s="6"/>
+      <c r="EW75" s="6"/>
+      <c r="EX75" s="6"/>
+      <c r="EY75" s="6"/>
+      <c r="EZ75" s="6"/>
+      <c r="FA75" s="6"/>
+      <c r="FB75" s="6"/>
+      <c r="FC75" s="6"/>
+      <c r="FD75" s="6"/>
+      <c r="FE75" s="6"/>
+      <c r="FF75" s="6"/>
+      <c r="FG75" s="6"/>
+      <c r="FH75" s="6"/>
+      <c r="FI75" s="6"/>
+      <c r="FJ75" s="6"/>
+      <c r="FK75" s="6"/>
+      <c r="FL75" s="6"/>
+      <c r="FM75" s="6"/>
+      <c r="FN75" s="6"/>
+      <c r="FO75" s="6"/>
+      <c r="FP75" s="6"/>
+      <c r="FQ75" s="6"/>
+      <c r="FR75" s="6"/>
+      <c r="FS75" s="6"/>
+      <c r="FT75" s="6"/>
+      <c r="FU75" s="6"/>
+      <c r="FV75" s="6"/>
+      <c r="FW75" s="6"/>
+      <c r="FX75" s="6"/>
+      <c r="FY75" s="6"/>
+      <c r="FZ75" s="6"/>
+      <c r="GA75" s="6"/>
+      <c r="GB75" s="6"/>
+      <c r="GC75" s="6"/>
+      <c r="GD75" s="6"/>
+      <c r="GE75" s="6"/>
+      <c r="GF75" s="6"/>
+      <c r="GG75" s="6"/>
+      <c r="GH75" s="6"/>
+      <c r="GI75" s="6"/>
+      <c r="GJ75" s="6"/>
+      <c r="GK75" s="6"/>
+      <c r="GL75" s="6"/>
+      <c r="GM75" s="6"/>
+      <c r="GN75" s="6"/>
+      <c r="GO75" s="6"/>
+      <c r="GP75" s="6"/>
+      <c r="GQ75" s="6"/>
+      <c r="GR75" s="6"/>
+      <c r="GS75" s="6"/>
+      <c r="GT75" s="6"/>
+      <c r="GU75" s="6"/>
+      <c r="GV75" s="6"/>
+      <c r="GW75" s="6"/>
+      <c r="GX75" s="6"/>
+      <c r="GY75" s="6"/>
+      <c r="GZ75" s="6"/>
+      <c r="HA75" s="6"/>
+      <c r="HB75" s="6"/>
+      <c r="HC75" s="6"/>
+      <c r="HD75" s="6"/>
+      <c r="HE75" s="6"/>
+      <c r="HF75" s="6"/>
+      <c r="HG75" s="6"/>
+      <c r="HH75" s="6"/>
+      <c r="HI75" s="6"/>
+      <c r="HJ75" s="6"/>
+      <c r="HK75" s="6"/>
+      <c r="HL75" s="6"/>
+      <c r="HM75" s="6"/>
+      <c r="HN75" s="6"/>
+      <c r="HO75" s="6"/>
+      <c r="HP75" s="6"/>
+      <c r="HQ75" s="6"/>
+      <c r="HR75" s="6"/>
+      <c r="HS75" s="6"/>
+      <c r="HT75" s="6"/>
+      <c r="HU75" s="6"/>
+      <c r="HV75" s="6"/>
+      <c r="HW75" s="6"/>
+      <c r="HX75" s="6"/>
+      <c r="HY75" s="6"/>
+      <c r="HZ75" s="6"/>
+      <c r="IA75" s="6"/>
+      <c r="IB75" s="6"/>
+      <c r="IC75" s="6"/>
+      <c r="ID75" s="6"/>
+      <c r="IE75" s="6"/>
+      <c r="IF75" s="6"/>
+      <c r="IG75" s="6"/>
+      <c r="IH75" s="6"/>
+      <c r="II75" s="6"/>
+      <c r="IJ75" s="6"/>
+      <c r="IK75" s="6"/>
+      <c r="IL75" s="6"/>
+      <c r="IM75" s="6"/>
+      <c r="IN75" s="6"/>
+      <c r="IO75" s="6"/>
+      <c r="IP75" s="6"/>
+      <c r="IQ75" s="6"/>
+      <c r="IR75" s="6"/>
+      <c r="IS75" s="6"/>
+      <c r="IT75" s="6"/>
+      <c r="IU75" s="6"/>
+      <c r="IV75" s="6"/>
+      <c r="IW75" s="6"/>
+      <c r="IX75" s="6"/>
+      <c r="IY75" s="6"/>
+      <c r="IZ75" s="6"/>
+      <c r="JA75" s="6"/>
     </row>
     <row r="76" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B76" s="7" t="str">
-        <f>"VX"&amp;D76&amp;F76</f>
-        <v>VXI</v>
+        <f t="shared" si="3"/>
+        <v>VXT</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E76" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="I76" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J76" s="2" t="str">
-        <f>"--"</f>
-        <v>--</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+      <c r="AN76" s="6"/>
+      <c r="AO76" s="6"/>
+      <c r="AP76" s="6"/>
+      <c r="AQ76" s="6"/>
+      <c r="AR76" s="6"/>
+      <c r="AS76" s="6"/>
+      <c r="AT76" s="6"/>
+      <c r="AU76" s="6"/>
+      <c r="AV76" s="6"/>
+      <c r="AW76" s="6"/>
+      <c r="AX76" s="6"/>
+      <c r="AY76" s="6"/>
+      <c r="AZ76" s="6"/>
+      <c r="BA76" s="6"/>
+      <c r="BB76" s="6"/>
+      <c r="BC76" s="6"/>
+      <c r="BD76" s="6"/>
+      <c r="BE76" s="6"/>
+      <c r="BF76" s="6"/>
+      <c r="BG76" s="6"/>
+      <c r="BH76" s="6"/>
+      <c r="BI76" s="6"/>
+      <c r="BJ76" s="6"/>
+      <c r="BK76" s="6"/>
+      <c r="BL76" s="6"/>
+      <c r="BM76" s="6"/>
+      <c r="BN76" s="6"/>
+      <c r="BO76" s="6"/>
+      <c r="BP76" s="6"/>
+      <c r="BQ76" s="6"/>
+      <c r="BR76" s="6"/>
+      <c r="BS76" s="6"/>
+      <c r="BT76" s="6"/>
+      <c r="BU76" s="6"/>
+      <c r="BV76" s="6"/>
+      <c r="BW76" s="6"/>
+      <c r="BX76" s="6"/>
+      <c r="BY76" s="6"/>
+      <c r="BZ76" s="6"/>
+      <c r="CA76" s="6"/>
+      <c r="CB76" s="6"/>
+      <c r="CC76" s="6"/>
+      <c r="CD76" s="6"/>
+      <c r="CE76" s="6"/>
+      <c r="CF76" s="6"/>
+      <c r="CG76" s="6"/>
+      <c r="CH76" s="6"/>
+      <c r="CI76" s="6"/>
+      <c r="CJ76" s="6"/>
+      <c r="CK76" s="6"/>
+      <c r="CL76" s="6"/>
+      <c r="CM76" s="6"/>
+      <c r="CN76" s="6"/>
+      <c r="CO76" s="6"/>
+      <c r="CP76" s="6"/>
+      <c r="CQ76" s="6"/>
+      <c r="CR76" s="6"/>
+      <c r="CS76" s="6"/>
+      <c r="CT76" s="6"/>
+      <c r="CU76" s="6"/>
+      <c r="CV76" s="6"/>
+      <c r="CW76" s="6"/>
+      <c r="CX76" s="6"/>
+      <c r="CY76" s="6"/>
+      <c r="CZ76" s="6"/>
+      <c r="DA76" s="6"/>
+      <c r="DB76" s="6"/>
+      <c r="DC76" s="6"/>
+      <c r="DD76" s="6"/>
+      <c r="DE76" s="6"/>
+      <c r="DF76" s="6"/>
+      <c r="DG76" s="6"/>
+      <c r="DH76" s="6"/>
+      <c r="DI76" s="6"/>
+      <c r="DJ76" s="6"/>
+      <c r="DK76" s="6"/>
+      <c r="DL76" s="6"/>
+      <c r="DM76" s="6"/>
+      <c r="DN76" s="6"/>
+      <c r="DO76" s="6"/>
+      <c r="DP76" s="6"/>
+      <c r="DQ76" s="6"/>
+      <c r="DR76" s="6"/>
+      <c r="DS76" s="6"/>
+      <c r="DT76" s="6"/>
+      <c r="DU76" s="6"/>
+      <c r="DV76" s="6"/>
+      <c r="DW76" s="6"/>
+      <c r="DX76" s="6"/>
+      <c r="DY76" s="6"/>
+      <c r="DZ76" s="6"/>
+      <c r="EA76" s="6"/>
+      <c r="EB76" s="6"/>
+      <c r="EC76" s="6"/>
+      <c r="ED76" s="6"/>
+      <c r="EE76" s="6"/>
+      <c r="EF76" s="6"/>
+      <c r="EG76" s="6"/>
+      <c r="EH76" s="6"/>
+      <c r="EI76" s="6"/>
+      <c r="EJ76" s="6"/>
+      <c r="EK76" s="6"/>
+      <c r="EL76" s="6"/>
+      <c r="EM76" s="6"/>
+      <c r="EN76" s="6"/>
+      <c r="EO76" s="6"/>
+      <c r="EP76" s="6"/>
+      <c r="EQ76" s="6"/>
+      <c r="ER76" s="6"/>
+      <c r="ES76" s="6"/>
+      <c r="ET76" s="6"/>
+      <c r="EU76" s="6"/>
+      <c r="EV76" s="6"/>
+      <c r="EW76" s="6"/>
+      <c r="EX76" s="6"/>
+      <c r="EY76" s="6"/>
+      <c r="EZ76" s="6"/>
+      <c r="FA76" s="6"/>
+      <c r="FB76" s="6"/>
+      <c r="FC76" s="6"/>
+      <c r="FD76" s="6"/>
+      <c r="FE76" s="6"/>
+      <c r="FF76" s="6"/>
+      <c r="FG76" s="6"/>
+      <c r="FH76" s="6"/>
+      <c r="FI76" s="6"/>
+      <c r="FJ76" s="6"/>
+      <c r="FK76" s="6"/>
+      <c r="FL76" s="6"/>
+      <c r="FM76" s="6"/>
+      <c r="FN76" s="6"/>
+      <c r="FO76" s="6"/>
+      <c r="FP76" s="6"/>
+      <c r="FQ76" s="6"/>
+      <c r="FR76" s="6"/>
+      <c r="FS76" s="6"/>
+      <c r="FT76" s="6"/>
+      <c r="FU76" s="6"/>
+      <c r="FV76" s="6"/>
+      <c r="FW76" s="6"/>
+      <c r="FX76" s="6"/>
+      <c r="FY76" s="6"/>
+      <c r="FZ76" s="6"/>
+      <c r="GA76" s="6"/>
+      <c r="GB76" s="6"/>
+      <c r="GC76" s="6"/>
+      <c r="GD76" s="6"/>
+      <c r="GE76" s="6"/>
+      <c r="GF76" s="6"/>
+      <c r="GG76" s="6"/>
+      <c r="GH76" s="6"/>
+      <c r="GI76" s="6"/>
+      <c r="GJ76" s="6"/>
+      <c r="GK76" s="6"/>
+      <c r="GL76" s="6"/>
+      <c r="GM76" s="6"/>
+      <c r="GN76" s="6"/>
+      <c r="GO76" s="6"/>
+      <c r="GP76" s="6"/>
+      <c r="GQ76" s="6"/>
+      <c r="GR76" s="6"/>
+      <c r="GS76" s="6"/>
+      <c r="GT76" s="6"/>
+      <c r="GU76" s="6"/>
+      <c r="GV76" s="6"/>
+      <c r="GW76" s="6"/>
+      <c r="GX76" s="6"/>
+      <c r="GY76" s="6"/>
+      <c r="GZ76" s="6"/>
+      <c r="HA76" s="6"/>
+      <c r="HB76" s="6"/>
+      <c r="HC76" s="6"/>
+      <c r="HD76" s="6"/>
+      <c r="HE76" s="6"/>
+      <c r="HF76" s="6"/>
+      <c r="HG76" s="6"/>
+      <c r="HH76" s="6"/>
+      <c r="HI76" s="6"/>
+      <c r="HJ76" s="6"/>
+      <c r="HK76" s="6"/>
+      <c r="HL76" s="6"/>
+      <c r="HM76" s="6"/>
+      <c r="HN76" s="6"/>
+      <c r="HO76" s="6"/>
+      <c r="HP76" s="6"/>
+      <c r="HQ76" s="6"/>
+      <c r="HR76" s="6"/>
+      <c r="HS76" s="6"/>
+      <c r="HT76" s="6"/>
+      <c r="HU76" s="6"/>
+      <c r="HV76" s="6"/>
+      <c r="HW76" s="6"/>
+      <c r="HX76" s="6"/>
+      <c r="HY76" s="6"/>
+      <c r="HZ76" s="6"/>
+      <c r="IA76" s="6"/>
+      <c r="IB76" s="6"/>
+      <c r="IC76" s="6"/>
+      <c r="ID76" s="6"/>
+      <c r="IE76" s="6"/>
+      <c r="IF76" s="6"/>
+      <c r="IG76" s="6"/>
+      <c r="IH76" s="6"/>
+      <c r="II76" s="6"/>
+      <c r="IJ76" s="6"/>
+      <c r="IK76" s="6"/>
+      <c r="IL76" s="6"/>
+      <c r="IM76" s="6"/>
+      <c r="IN76" s="6"/>
+      <c r="IO76" s="6"/>
+      <c r="IP76" s="6"/>
+      <c r="IQ76" s="6"/>
+      <c r="IR76" s="6"/>
+      <c r="IS76" s="6"/>
+      <c r="IT76" s="6"/>
+      <c r="IU76" s="6"/>
+      <c r="IV76" s="6"/>
+      <c r="IW76" s="6"/>
+      <c r="IX76" s="6"/>
+      <c r="IY76" s="6"/>
+      <c r="IZ76" s="6"/>
+      <c r="JA76" s="6"/>
     </row>
     <row r="77" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B77" s="7" t="str">
-        <f>"VX"&amp;D77&amp;F77</f>
-        <v>VXQ</v>
+        <f t="shared" si="3"/>
+        <v>VX?</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>13</v>
+      <c r="F77" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>147</v>
+      <c r="H77" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>143</v>
       </c>
       <c r="J77" s="3"/>
-      <c r="K77" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="K77" s="3"/>
     </row>
     <row r="78" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B78" s="7" t="str">
-        <f>"VX"&amp;D78&amp;F78</f>
-        <v>VXR</v>
+        <f t="shared" si="3"/>
+        <v>VXG</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>143</v>
@@ -12970,50 +13725,53 @@
         <v>143</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
     </row>
     <row r="79" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>143</v>
       </c>
       <c r="B79" s="7" t="str">
-        <f>"VX"&amp;D79&amp;F79</f>
-        <v>VXV</v>
+        <f t="shared" si="3"/>
+        <v>VXI</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H79" s="11" t="s">
-        <v>148</v>
+      <c r="H79" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3" t="s">
-        <v>100</v>
+      <c r="J79" s="2" t="str">
+        <f>"--"</f>
+        <v>--</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:261" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -13021,8 +13779,8 @@
         <v>143</v>
       </c>
       <c r="B80" s="7" t="str">
-        <f>"VX"&amp;D80&amp;F80</f>
-        <v>VX</v>
+        <f t="shared" si="3"/>
+        <v>VXQ</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>143</v>
@@ -13031,18 +13789,112 @@
       <c r="E80" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G80" s="7" t="s">
         <v>143</v>
       </c>
       <c r="H80" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>VXR</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>VXV</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v>VX</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="2"/>
+      <c r="I83" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="2"/>
     </row>
   </sheetData>
   <sortState ref="B2:IY80">
